--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>L/T</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2216,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2289,9 @@
         <v>58</v>
       </c>
       <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="D3" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" s="39"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -2305,7 +2310,9 @@
         <v>56</v>
       </c>
       <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="D4" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -2326,7 +2333,9 @@
       <c r="C5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
@@ -2345,7 +2354,9 @@
         <v>54</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="D6" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="39"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -2364,7 +2375,9 @@
         <v>56</v>
       </c>
       <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -2377,7 +2390,9 @@
         <v>79</v>
       </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="D8" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="E8" s="39"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -2394,7 +2409,9 @@
         <v>54</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
+      <c r="D9" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="39"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -2413,7 +2430,9 @@
         <v>50</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="D10" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -2432,7 +2451,9 @@
         <v>54</v>
       </c>
       <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="D11" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -2451,8 +2472,12 @@
         <v>50</v>
       </c>
       <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="L12" s="30" t="s">
@@ -2470,7 +2495,9 @@
         <v>58</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="D13" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E13" s="39"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -2483,7 +2510,9 @@
         <v>58</v>
       </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -2500,7 +2529,9 @@
         <v>56</v>
       </c>
       <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="39"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -2519,7 +2550,9 @@
         <v>56</v>
       </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" s="39"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -2538,7 +2571,9 @@
         <v>50</v>
       </c>
       <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -2557,7 +2592,9 @@
         <v>56</v>
       </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -2570,7 +2607,9 @@
         <v>52</v>
       </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -2583,7 +2622,9 @@
         <v>56</v>
       </c>
       <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="E20" s="39"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -2596,7 +2637,9 @@
         <v>56</v>
       </c>
       <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -2606,10 +2649,12 @@
         <v>19</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -2622,7 +2667,9 @@
         <v>50</v>
       </c>
       <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -15,6 +15,7 @@
     <sheet name="M" sheetId="1" r:id="rId1"/>
     <sheet name="PERFIS-M" sheetId="3" r:id="rId2"/>
     <sheet name="T" sheetId="2" r:id="rId3"/>
+    <sheet name="PERFIS-T" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="81">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -262,13 +263,13 @@
     <t>PERFIS - COMPORTAMENTAL</t>
   </si>
   <si>
-    <t>PERFIL - LIDERANÇA</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>L/T</t>
+  </si>
+  <si>
+    <t>PERFIS - LIDERANÇA</t>
   </si>
 </sst>
 </file>
@@ -2216,12 +2217,12 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="12.85546875" style="1"/>
@@ -2293,8 +2294,12 @@
         <v>60</v>
       </c>
       <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="L3" s="30" t="s">
         <v>52</v>
       </c>
@@ -2314,8 +2319,12 @@
         <v>62</v>
       </c>
       <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="L4" s="30" t="s">
         <v>54</v>
       </c>
@@ -2337,8 +2346,12 @@
         <v>64</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L5" s="30" t="s">
         <v>56</v>
       </c>
@@ -2358,8 +2371,12 @@
         <v>64</v>
       </c>
       <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="30" t="s">
         <v>58</v>
       </c>
@@ -2379,23 +2396,31 @@
         <v>60</v>
       </c>
       <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="L8" s="32" t="s">
         <v>77</v>
       </c>
@@ -2413,8 +2438,12 @@
         <v>60</v>
       </c>
       <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="30" t="s">
         <v>60</v>
       </c>
@@ -2434,8 +2463,12 @@
         <v>64</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="L10" s="30" t="s">
         <v>62</v>
       </c>
@@ -2455,8 +2488,12 @@
         <v>66</v>
       </c>
       <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L11" s="30" t="s">
         <v>64</v>
       </c>
@@ -2478,8 +2515,12 @@
       <c r="E12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L12" s="30" t="s">
         <v>66</v>
       </c>
@@ -2499,8 +2540,12 @@
         <v>66</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
@@ -2511,13 +2556,17 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="L14" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="33"/>
     </row>
@@ -2533,8 +2582,12 @@
         <v>64</v>
       </c>
       <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L15" s="30" t="s">
         <v>62</v>
       </c>
@@ -2554,8 +2607,12 @@
         <v>66</v>
       </c>
       <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L16" s="30" t="s">
         <v>69</v>
       </c>
@@ -2575,8 +2632,12 @@
         <v>64</v>
       </c>
       <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="L17" s="30" t="s">
         <v>64</v>
       </c>
@@ -2596,8 +2657,12 @@
         <v>62</v>
       </c>
       <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
@@ -2611,8 +2676,12 @@
         <v>60</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -2626,8 +2695,12 @@
         <v>62</v>
       </c>
       <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
@@ -2641,23 +2714,31 @@
         <v>62</v>
       </c>
       <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
@@ -2671,8 +2752,12 @@
         <v>66</v>
       </c>
       <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="F23" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2694,7 +2779,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R23" sqref="R1:R23"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,4 +4058,405 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" style="1"/>
+    <col min="8" max="9" width="6.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="L1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="L3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="L4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="L5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="L6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="L8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="L9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="L10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="L11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="L12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="L14" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="L15" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="L16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="L17" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Secundário</t>
   </si>
   <si>
-    <t>Perfis Personalidades</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -266,10 +263,25 @@
     <t>-</t>
   </si>
   <si>
+    <t>O/E</t>
+  </si>
+  <si>
     <t>L/T</t>
   </si>
   <si>
     <t>PERFIS - LIDERANÇA</t>
+  </si>
+  <si>
+    <t>Perfis - Personalidades</t>
+  </si>
+  <si>
+    <t>E/O</t>
+  </si>
+  <si>
+    <t>A/L</t>
+  </si>
+  <si>
+    <t>A/G</t>
   </si>
 </sst>
 </file>
@@ -293,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +600,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2216,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,19 +2260,19 @@
         <v>43</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="33"/>
       <c r="L1" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M1" s="31"/>
     </row>
@@ -2270,16 +2291,16 @@
         <v>48</v>
       </c>
       <c r="F2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="L2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2287,24 +2308,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2312,24 +2333,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2337,26 +2358,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2364,24 +2385,24 @@
         <v>3</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2389,18 +2410,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2408,21 +2429,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="32"/>
     </row>
@@ -2431,24 +2452,24 @@
         <v>6</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2456,24 +2477,24 @@
         <v>7</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2481,24 +2502,24 @@
         <v>8</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2506,26 +2527,26 @@
         <v>9</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2533,18 +2554,18 @@
         <v>10</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2552,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39" t="s">
@@ -2560,10 +2581,10 @@
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>80</v>
@@ -2575,24 +2596,24 @@
         <v>12</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2600,24 +2621,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>69</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2625,24 +2646,24 @@
         <v>14</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2650,18 +2671,18 @@
         <v>15</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2669,18 +2690,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2688,18 +2709,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2707,18 +2728,18 @@
         <v>18</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2726,18 +2747,18 @@
         <v>19</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="39" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2745,18 +2766,18 @@
         <v>20</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2776,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2811,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -2845,8 +2866,11 @@
       <c r="R1" s="19">
         <v>43514</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="19">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2901,8 +2925,11 @@
       <c r="R2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2957,8 +2984,11 @@
       <c r="R3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3013,8 +3043,11 @@
       <c r="R4" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3069,8 +3102,11 @@
       <c r="R5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -3125,8 +3161,11 @@
       <c r="R6" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -3181,8 +3220,11 @@
       <c r="R7" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -3237,8 +3279,11 @@
       <c r="R8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3293,8 +3338,11 @@
       <c r="R9" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -3343,8 +3391,11 @@
       <c r="P10" s="29">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -3399,8 +3450,11 @@
       <c r="R11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -3455,8 +3509,11 @@
       <c r="R12" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -3511,8 +3568,11 @@
       <c r="R13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3549,8 +3609,11 @@
       <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -3605,8 +3668,11 @@
       <c r="R15" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -3661,8 +3727,11 @@
       <c r="R16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -3717,8 +3786,11 @@
       <c r="R17" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -3773,8 +3845,11 @@
       <c r="R18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -3829,8 +3904,11 @@
       <c r="R19" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -3885,8 +3963,11 @@
       <c r="R20" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -3941,8 +4022,11 @@
       <c r="R21" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -3997,8 +4081,11 @@
       <c r="R22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -4051,6 +4138,9 @@
         <v>4</v>
       </c>
       <c r="R23" s="10">
+        <v>5</v>
+      </c>
+      <c r="S23" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4062,16 +4152,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="12.85546875" style="1"/>
     <col min="8" max="9" width="6.85546875" style="1" customWidth="1"/>
@@ -4087,19 +4177,19 @@
         <v>43</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="33"/>
       <c r="L1" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M1" s="31"/>
     </row>
@@ -4118,109 +4208,141 @@
         <v>48</v>
       </c>
       <c r="F2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="L2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E3" s="39"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="L3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="L4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="L5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="L6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="D8" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="E8" s="39"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="L8" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="32"/>
     </row>
@@ -4228,88 +4350,120 @@
       <c r="A9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
+      <c r="D9" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E9" s="39"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="L9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="30" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="L10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+        <v>30</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" s="39"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="L11" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" s="39"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="L12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="E13" s="39"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="38"/>
+      <c r="A14" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -4320,131 +4474,145 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E15" s="39"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="L15" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="38"/>
+      <c r="A16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="E16" s="39"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="L16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>69</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="38"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="L17" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="38"/>
+      <c r="A18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="E20" s="39"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="38"/>
+        <v>41</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="38"/>
+      <c r="A22" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -281,7 +281,16 @@
     <t>A/L</t>
   </si>
   <si>
+    <t>A/D</t>
+  </si>
+  <si>
     <t>A/G</t>
+  </si>
+  <si>
+    <t>L/-</t>
+  </si>
+  <si>
+    <t>D/L</t>
   </si>
 </sst>
 </file>
@@ -2237,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2764,10 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4154,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,8 +4243,12 @@
         <v>61</v>
       </c>
       <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="L3" s="30" t="s">
         <v>51</v>
       </c>
@@ -4257,8 +4270,12 @@
         <v>59</v>
       </c>
       <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="L4" s="30" t="s">
         <v>53</v>
       </c>
@@ -4280,7 +4297,9 @@
         <v>77</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="F5" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="L5" s="30" t="s">
         <v>55</v>
@@ -4303,8 +4322,12 @@
       <c r="E6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L6" s="30" t="s">
         <v>57</v>
       </c>
@@ -4324,8 +4347,12 @@
         <v>61</v>
       </c>
       <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
@@ -4339,8 +4366,12 @@
         <v>83</v>
       </c>
       <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L8" s="32" t="s">
         <v>76</v>
       </c>
@@ -4358,8 +4389,12 @@
         <v>61</v>
       </c>
       <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="L9" s="30" t="s">
         <v>59</v>
       </c>
@@ -4381,8 +4416,12 @@
         <v>65</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L10" s="30" t="s">
         <v>61</v>
       </c>
@@ -4404,8 +4443,12 @@
         <v>65</v>
       </c>
       <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" s="30" t="s">
         <v>63</v>
       </c>
@@ -4427,8 +4470,12 @@
         <v>59</v>
       </c>
       <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="L12" s="30" t="s">
         <v>65</v>
       </c>
@@ -4450,8 +4497,12 @@
         <v>63</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
@@ -4465,8 +4516,12 @@
         <v>65</v>
       </c>
       <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L14" s="33" t="s">
         <v>80</v>
       </c>
@@ -4486,8 +4541,12 @@
         <v>61</v>
       </c>
       <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L15" s="30" t="s">
         <v>61</v>
       </c>
@@ -4504,11 +4563,15 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="L16" s="30" t="s">
         <v>68</v>
       </c>
@@ -4528,8 +4591,12 @@
         <v>61</v>
       </c>
       <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="L17" s="30" t="s">
         <v>63</v>
       </c>
@@ -4549,8 +4616,12 @@
         <v>63</v>
       </c>
       <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
@@ -4564,8 +4635,12 @@
         <v>65</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
@@ -4581,8 +4656,12 @@
         <v>63</v>
       </c>
       <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
@@ -4596,8 +4675,12 @@
         <v>61</v>
       </c>
       <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
@@ -4611,8 +4694,12 @@
         <v>65</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -575,15 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,13 +596,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,9 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,7 +908,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -964,8 +966,23 @@
       <c r="S1" s="23">
         <v>43515</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="23">
+        <v>43516</v>
+      </c>
+      <c r="U1" s="23">
+        <v>43517</v>
+      </c>
+      <c r="V1" s="23">
+        <v>43518</v>
+      </c>
+      <c r="W1" s="23">
+        <v>43521</v>
+      </c>
+      <c r="X1" s="23">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1023,8 +1040,23 @@
       <c r="S2" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="9">
+        <v>5</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="9">
+        <v>5</v>
+      </c>
+      <c r="X2" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1082,8 +1114,23 @@
       <c r="S3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="13">
+        <v>4</v>
+      </c>
+      <c r="U3" s="13">
+        <v>4</v>
+      </c>
+      <c r="V3" s="13">
+        <v>4</v>
+      </c>
+      <c r="W3" s="13">
+        <v>4</v>
+      </c>
+      <c r="X3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1141,8 +1188,23 @@
       <c r="S4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="9">
+        <v>5</v>
+      </c>
+      <c r="U4" s="9">
+        <v>5</v>
+      </c>
+      <c r="V4" s="9">
+        <v>5</v>
+      </c>
+      <c r="W4" s="9">
+        <v>5</v>
+      </c>
+      <c r="X4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1262,23 @@
       <c r="S5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="13">
+        <v>3</v>
+      </c>
+      <c r="U5" s="13">
+        <v>5</v>
+      </c>
+      <c r="V5" s="13">
+        <v>5</v>
+      </c>
+      <c r="W5" s="13">
+        <v>5</v>
+      </c>
+      <c r="X5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1336,23 @@
       <c r="S6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="9">
+        <v>5</v>
+      </c>
+      <c r="U6" s="9">
+        <v>5</v>
+      </c>
+      <c r="V6" s="9">
+        <v>5</v>
+      </c>
+      <c r="W6" s="9">
+        <v>5</v>
+      </c>
+      <c r="X6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1318,8 +1410,23 @@
       <c r="S7" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1377,43 +1484,31 @@
       <c r="S8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="9">
+        <v>5</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="9">
+        <v>5</v>
+      </c>
+      <c r="W8" s="9">
+        <v>5</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="26">
         <v>1022459</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1471,8 +1566,23 @@
       <c r="S10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="9">
+        <v>5</v>
+      </c>
+      <c r="U10" s="9">
+        <v>5</v>
+      </c>
+      <c r="V10" s="9">
+        <v>5</v>
+      </c>
+      <c r="W10" s="9">
+        <v>5</v>
+      </c>
+      <c r="X10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1485,6 +1595,9 @@
       <c r="D11" s="13">
         <v>5</v>
       </c>
+      <c r="E11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="13">
         <v>5</v>
       </c>
@@ -1527,8 +1640,23 @@
       <c r="S11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="13">
+        <v>5</v>
+      </c>
+      <c r="U11" s="13">
+        <v>5</v>
+      </c>
+      <c r="V11" s="13">
+        <v>3</v>
+      </c>
+      <c r="W11" s="13">
+        <v>4</v>
+      </c>
+      <c r="X11" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1586,8 +1714,23 @@
       <c r="S12" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="9">
+        <v>5</v>
+      </c>
+      <c r="U12" s="9">
+        <v>5</v>
+      </c>
+      <c r="V12" s="9">
+        <v>5</v>
+      </c>
+      <c r="W12" s="9">
+        <v>5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1645,8 +1788,23 @@
       <c r="S13" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="13">
+        <v>3</v>
+      </c>
+      <c r="V13" s="13">
+        <v>4</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1704,8 +1862,23 @@
       <c r="S14" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="9">
+        <v>5</v>
+      </c>
+      <c r="U14" s="9">
+        <v>5</v>
+      </c>
+      <c r="V14" s="9">
+        <v>5</v>
+      </c>
+      <c r="W14" s="9">
+        <v>5</v>
+      </c>
+      <c r="X14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1763,8 +1936,23 @@
       <c r="S15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="13">
+        <v>5</v>
+      </c>
+      <c r="U15" s="13">
+        <v>5</v>
+      </c>
+      <c r="V15" s="13">
+        <v>5</v>
+      </c>
+      <c r="W15" s="13">
+        <v>5</v>
+      </c>
+      <c r="X15" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1822,8 +2010,23 @@
       <c r="S16" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="9">
+        <v>5</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" s="9">
+        <v>3</v>
+      </c>
+      <c r="W16" s="9">
+        <v>5</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -1881,8 +2084,23 @@
       <c r="S17" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="13">
+        <v>5</v>
+      </c>
+      <c r="U17" s="13">
+        <v>5</v>
+      </c>
+      <c r="V17" s="13">
+        <v>5</v>
+      </c>
+      <c r="W17" s="13">
+        <v>5</v>
+      </c>
+      <c r="X17" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -1940,8 +2158,23 @@
       <c r="S18" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="9">
+        <v>5</v>
+      </c>
+      <c r="U18" s="9">
+        <v>5</v>
+      </c>
+      <c r="V18" s="9">
+        <v>5</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -1999,8 +2232,23 @@
       <c r="S19" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="13">
+        <v>5</v>
+      </c>
+      <c r="U19" s="13">
+        <v>4</v>
+      </c>
+      <c r="V19" s="13">
+        <v>4</v>
+      </c>
+      <c r="W19" s="13">
+        <v>4</v>
+      </c>
+      <c r="X19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2058,8 +2306,23 @@
       <c r="S20" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="9">
+        <v>5</v>
+      </c>
+      <c r="U20" s="9">
+        <v>5</v>
+      </c>
+      <c r="V20" s="9">
+        <v>5</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2117,8 +2380,23 @@
       <c r="S21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="13">
+        <v>5</v>
+      </c>
+      <c r="U21" s="13">
+        <v>5</v>
+      </c>
+      <c r="V21" s="13">
+        <v>5</v>
+      </c>
+      <c r="W21" s="13">
+        <v>5</v>
+      </c>
+      <c r="X21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2176,8 +2454,23 @@
       <c r="S22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="9">
+        <v>5</v>
+      </c>
+      <c r="U22" s="9">
+        <v>5</v>
+      </c>
+      <c r="V22" s="9">
+        <v>4</v>
+      </c>
+      <c r="W22" s="9">
+        <v>5</v>
+      </c>
+      <c r="X22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -2234,6 +2527,21 @@
       </c>
       <c r="S23" s="13">
         <v>5</v>
+      </c>
+      <c r="T23" s="13">
+        <v>5</v>
+      </c>
+      <c r="U23" s="13">
+        <v>5</v>
+      </c>
+      <c r="V23" s="13">
+        <v>5</v>
+      </c>
+      <c r="W23" s="13">
+        <v>5</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2265,44 +2573,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="L1" s="31" t="s">
+      <c r="G1" s="43"/>
+      <c r="L1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="31"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>74</v>
       </c>
       <c r="L2" s="30" t="s">
@@ -2313,21 +2621,21 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>61</v>
       </c>
       <c r="L3" s="30" t="s">
@@ -2338,21 +2646,21 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>63</v>
       </c>
       <c r="L4" s="30" t="s">
@@ -2363,23 +2671,23 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="30" t="s">
@@ -2390,21 +2698,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L6" s="30" t="s">
@@ -2415,63 +2723,63 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="30" t="s">
@@ -2482,21 +2790,21 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="30" t="s">
@@ -2507,21 +2815,21 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="30" t="s">
@@ -2532,23 +2840,23 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L12" s="30" t="s">
@@ -2559,63 +2867,63 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="30" t="s">
@@ -2626,21 +2934,21 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L16" s="30" t="s">
@@ -2651,21 +2959,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L17" s="30" t="s">
@@ -2676,116 +2984,116 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="37" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2806,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,7 +3128,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +3186,23 @@
       <c r="S1" s="19">
         <v>43515</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="19">
+        <v>43516</v>
+      </c>
+      <c r="U1" s="19">
+        <v>43517</v>
+      </c>
+      <c r="V1" s="19">
+        <v>43518</v>
+      </c>
+      <c r="W1" s="19">
+        <v>43521</v>
+      </c>
+      <c r="X1" s="19">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2937,8 +3260,20 @@
       <c r="S2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="10">
+        <v>5</v>
+      </c>
+      <c r="U2" s="10">
+        <v>5</v>
+      </c>
+      <c r="V2" s="10">
+        <v>5</v>
+      </c>
+      <c r="W2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2996,8 +3331,20 @@
       <c r="S3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="13">
+        <v>5</v>
+      </c>
+      <c r="U3" s="13">
+        <v>5</v>
+      </c>
+      <c r="V3" s="13">
+        <v>5</v>
+      </c>
+      <c r="W3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3055,8 +3402,20 @@
       <c r="S4" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="10">
+        <v>4</v>
+      </c>
+      <c r="U4" s="10">
+        <v>5</v>
+      </c>
+      <c r="V4" s="10">
+        <v>5</v>
+      </c>
+      <c r="W4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3114,8 +3473,20 @@
       <c r="S5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="13">
+        <v>5</v>
+      </c>
+      <c r="U5" s="13">
+        <v>5</v>
+      </c>
+      <c r="V5" s="13">
+        <v>5</v>
+      </c>
+      <c r="W5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -3173,8 +3544,20 @@
       <c r="S6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="10">
+        <v>5</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="10">
+        <v>5</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -3232,8 +3615,20 @@
       <c r="S7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="13">
+        <v>5</v>
+      </c>
+      <c r="U7" s="13">
+        <v>5</v>
+      </c>
+      <c r="V7" s="13">
+        <v>5</v>
+      </c>
+      <c r="W7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -3291,8 +3686,20 @@
       <c r="S8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="10">
+        <v>5</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="10">
+        <v>5</v>
+      </c>
+      <c r="W8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3350,8 +3757,20 @@
       <c r="S9" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="13">
+        <v>5</v>
+      </c>
+      <c r="U9" s="13">
+        <v>5</v>
+      </c>
+      <c r="V9" s="13">
+        <v>5</v>
+      </c>
+      <c r="W9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -3404,7 +3823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -3462,8 +3881,20 @@
       <c r="S11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="13">
+        <v>5</v>
+      </c>
+      <c r="V11" s="13">
+        <v>5</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -3521,8 +3952,20 @@
       <c r="S12" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="10">
+        <v>5</v>
+      </c>
+      <c r="U12" s="10">
+        <v>5</v>
+      </c>
+      <c r="V12" s="10">
+        <v>5</v>
+      </c>
+      <c r="W12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -3580,8 +4023,20 @@
       <c r="S13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="13">
+        <v>5</v>
+      </c>
+      <c r="V13" s="13">
+        <v>5</v>
+      </c>
+      <c r="W13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3622,7 +4077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -3680,8 +4135,20 @@
       <c r="S15" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="10">
+        <v>5</v>
+      </c>
+      <c r="U15" s="10">
+        <v>5</v>
+      </c>
+      <c r="V15" s="10">
+        <v>5</v>
+      </c>
+      <c r="W15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -3739,8 +4206,20 @@
       <c r="S16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="13">
+        <v>5</v>
+      </c>
+      <c r="U16" s="13">
+        <v>5</v>
+      </c>
+      <c r="V16" s="13">
+        <v>5</v>
+      </c>
+      <c r="W16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -3798,8 +4277,20 @@
       <c r="S17" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="10">
+        <v>4</v>
+      </c>
+      <c r="U17" s="10">
+        <v>5</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -3857,8 +4348,20 @@
       <c r="S18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="13">
+        <v>5</v>
+      </c>
+      <c r="U18" s="13">
+        <v>5</v>
+      </c>
+      <c r="V18" s="13">
+        <v>5</v>
+      </c>
+      <c r="W18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -3916,8 +4419,20 @@
       <c r="S19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="10">
+        <v>5</v>
+      </c>
+      <c r="U19" s="10">
+        <v>5</v>
+      </c>
+      <c r="V19" s="10">
+        <v>5</v>
+      </c>
+      <c r="W19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -3975,8 +4490,20 @@
       <c r="S20" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="13">
+        <v>5</v>
+      </c>
+      <c r="U20" s="13">
+        <v>5</v>
+      </c>
+      <c r="V20" s="13">
+        <v>5</v>
+      </c>
+      <c r="W20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -4034,8 +4561,20 @@
       <c r="S21" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="10">
+        <v>5</v>
+      </c>
+      <c r="U21" s="10">
+        <v>5</v>
+      </c>
+      <c r="V21" s="10">
+        <v>5</v>
+      </c>
+      <c r="W21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -4093,8 +4632,20 @@
       <c r="S22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="13">
+        <v>5</v>
+      </c>
+      <c r="U22" s="13">
+        <v>5</v>
+      </c>
+      <c r="V22" s="13">
+        <v>5</v>
+      </c>
+      <c r="W22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -4151,6 +4702,18 @@
       </c>
       <c r="S23" s="10">
         <v>5</v>
+      </c>
+      <c r="T23" s="10">
+        <v>5</v>
+      </c>
+      <c r="U23" s="10">
+        <v>5</v>
+      </c>
+      <c r="V23" s="10">
+        <v>5</v>
+      </c>
+      <c r="W23" s="10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +4727,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,44 +4745,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="L1" s="31" t="s">
+      <c r="G1" s="43"/>
+      <c r="L1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="31"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>74</v>
       </c>
       <c r="L2" s="30" t="s">
@@ -4230,23 +4793,23 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>61</v>
       </c>
       <c r="L3" s="30" t="s">
@@ -4257,23 +4820,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>86</v>
       </c>
       <c r="L4" s="30" t="s">
@@ -4284,23 +4847,23 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="37"/>
       <c r="L5" s="30" t="s">
         <v>55</v>
       </c>
@@ -4309,23 +4872,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L6" s="30" t="s">
@@ -4336,63 +4899,63 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="30" t="s">
@@ -4403,23 +4966,23 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L10" s="30" t="s">
@@ -4430,23 +4993,23 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="37" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="30" t="s">
@@ -4457,23 +5020,23 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="30" t="s">
@@ -4484,67 +5047,67 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L15" s="30" t="s">
@@ -4555,21 +5118,21 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="37" t="s">
         <v>68</v>
       </c>
       <c r="L16" s="30" t="s">
@@ -4580,21 +5143,21 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="37" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="30" t="s">
@@ -4605,99 +5168,99 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="37" t="s">
         <v>68</v>
       </c>
     </row>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -894,10 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +909,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -981,8 +982,14 @@
       <c r="X1" s="23">
         <v>43522</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="23">
+        <v>43523</v>
+      </c>
+      <c r="Z1" s="23">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1062,14 @@
       <c r="X2" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1129,8 +1142,14 @@
       <c r="X3" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1203,8 +1222,14 @@
       <c r="X4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1277,8 +1302,14 @@
       <c r="X5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y5" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1351,8 +1382,14 @@
       <c r="X6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1425,8 +1462,14 @@
       <c r="X7" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1499,8 +1542,14 @@
       <c r="X8" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1508,7 +1557,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1581,8 +1630,14 @@
       <c r="X10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1652,11 +1707,17 @@
       <c r="W11" s="13">
         <v>4</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1729,8 +1790,14 @@
       <c r="X12" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1803,8 +1870,14 @@
       <c r="X13" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1877,8 +1950,14 @@
       <c r="X14" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1951,8 +2030,14 @@
       <c r="X15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2022,11 +2107,17 @@
       <c r="W16" s="9">
         <v>5</v>
       </c>
-      <c r="X16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -2099,8 +2190,14 @@
       <c r="X17" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2173,8 +2270,14 @@
       <c r="X18" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -2247,8 +2350,14 @@
       <c r="X19" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2321,8 +2430,14 @@
       <c r="X20" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2395,8 +2510,14 @@
       <c r="X21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2469,8 +2590,14 @@
       <c r="X22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -2542,6 +2669,12 @@
       </c>
       <c r="X23" s="13" t="s">
         <v>44</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3114,10 +3247,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3262,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3201,8 +3335,14 @@
       <c r="X1" s="19">
         <v>43522</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="19">
+        <v>43523</v>
+      </c>
+      <c r="Z1" s="19">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3272,8 +3412,17 @@
       <c r="W2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3343,8 +3492,17 @@
       <c r="W3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3414,8 +3572,17 @@
       <c r="W4" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3485,8 +3652,17 @@
       <c r="W5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -3556,8 +3732,17 @@
       <c r="W6" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -3627,8 +3812,17 @@
       <c r="W7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -3698,8 +3892,17 @@
       <c r="W8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3769,8 +3972,17 @@
       <c r="W9" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -3823,7 +4035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -3893,8 +4105,17 @@
       <c r="W11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -3964,8 +4185,17 @@
       <c r="W12" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -4035,8 +4265,17 @@
       <c r="W13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -4077,7 +4316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -4147,8 +4386,17 @@
       <c r="W15" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -4218,8 +4466,17 @@
       <c r="W16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -4289,8 +4546,17 @@
       <c r="W17" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -4360,8 +4626,17 @@
       <c r="W18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -4431,8 +4706,17 @@
       <c r="W19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -4502,8 +4786,17 @@
       <c r="W20" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -4573,8 +4866,17 @@
       <c r="W21" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -4644,8 +4946,17 @@
       <c r="W22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -4713,6 +5024,15 @@
         <v>5</v>
       </c>
       <c r="W23" s="10">
+        <v>4</v>
+      </c>
+      <c r="X23" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="10">
         <v>4</v>
       </c>
     </row>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -894,11 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y26" sqref="Y26"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -988,8 +988,11 @@
       <c r="Z1" s="23">
         <v>43524</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="23">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1071,11 @@
       <c r="Z2" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1148,8 +1154,11 @@
       <c r="Z3" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1228,8 +1237,11 @@
       <c r="Z4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1308,8 +1320,11 @@
       <c r="Z5" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1388,8 +1403,11 @@
       <c r="Z6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1468,8 +1486,11 @@
       <c r="Z7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1548,8 +1569,11 @@
       <c r="Z8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1557,7 +1581,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1636,8 +1660,11 @@
       <c r="Z10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1716,8 +1743,11 @@
       <c r="Z11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1796,8 +1826,11 @@
       <c r="Z12" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1876,8 +1909,11 @@
       <c r="Z13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1956,8 +1992,11 @@
       <c r="Z14" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -2036,8 +2075,11 @@
       <c r="Z15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2116,8 +2158,11 @@
       <c r="Z16" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -2196,8 +2241,11 @@
       <c r="Z17" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2276,8 +2324,11 @@
       <c r="Z18" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -2356,8 +2407,11 @@
       <c r="Z19" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2436,8 +2490,11 @@
       <c r="Z20" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2516,8 +2573,11 @@
       <c r="Z21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2596,8 +2656,11 @@
       <c r="Z22" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -2674,6 +2737,9 @@
         <v>5</v>
       </c>
       <c r="Z23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3247,11 +3313,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z14" sqref="Z14"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,7 +3328,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3407,11 @@
       <c r="Z1" s="19">
         <v>43524</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="19">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3502,7 +3571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3582,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3662,7 +3731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -3742,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -3822,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -3902,7 +3971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3982,7 +4051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -4035,7 +4104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -4115,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -4195,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -4275,7 +4344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -4316,7 +4385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -4396,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -3317,7 +3317,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA2" sqref="AA2"/>
+      <selection pane="topRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,6 +3490,9 @@
       <c r="Z2" s="10">
         <v>5</v>
       </c>
+      <c r="AA2" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3570,6 +3573,9 @@
       <c r="Z3" s="13">
         <v>5</v>
       </c>
+      <c r="AA3" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3650,6 +3656,9 @@
       <c r="Z4" s="10">
         <v>4</v>
       </c>
+      <c r="AA4" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -3730,6 +3739,9 @@
       <c r="Z5" s="13">
         <v>5</v>
       </c>
+      <c r="AA5" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3810,6 +3822,9 @@
       <c r="Z6" s="10">
         <v>5</v>
       </c>
+      <c r="AA6" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -3890,6 +3905,9 @@
       <c r="Z7" s="13">
         <v>3</v>
       </c>
+      <c r="AA7" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -3970,6 +3988,9 @@
       <c r="Z8" s="10">
         <v>5</v>
       </c>
+      <c r="AA8" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -4050,6 +4071,9 @@
       <c r="Z9" s="13">
         <v>5</v>
       </c>
+      <c r="AA9" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -4183,6 +4207,9 @@
       <c r="Z11" s="13">
         <v>5</v>
       </c>
+      <c r="AA11" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -4263,6 +4290,9 @@
       <c r="Z12" s="10">
         <v>5</v>
       </c>
+      <c r="AA12" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -4343,6 +4373,9 @@
       <c r="Z13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AA13" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -4464,6 +4497,9 @@
       <c r="Z15" s="10">
         <v>5</v>
       </c>
+      <c r="AA15" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -4544,8 +4580,11 @@
       <c r="Z16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -4624,8 +4663,11 @@
       <c r="Z17" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -4704,8 +4746,11 @@
       <c r="Z18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -4784,8 +4829,11 @@
       <c r="Z19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -4864,8 +4912,11 @@
       <c r="Z20" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -4944,8 +4995,11 @@
       <c r="Z21" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -5024,8 +5078,11 @@
       <c r="Z22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5102,6 +5159,9 @@
         <v>44</v>
       </c>
       <c r="Z23" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="10">
         <v>4</v>
       </c>
     </row>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -894,11 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="topRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -991,8 +991,11 @@
       <c r="AA1" s="23">
         <v>43525</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="23">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1077,11 @@
       <c r="AA2" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1157,8 +1163,11 @@
       <c r="AA3" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1240,8 +1249,11 @@
       <c r="AA4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1335,11 @@
       <c r="AA5" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1406,8 +1421,11 @@
       <c r="AA6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1489,8 +1507,11 @@
       <c r="AA7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1572,8 +1593,11 @@
       <c r="AA8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1663,8 +1687,11 @@
       <c r="AA10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1746,8 +1773,11 @@
       <c r="AA11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1829,8 +1859,11 @@
       <c r="AA12" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1912,8 +1945,11 @@
       <c r="AA13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1995,8 +2031,11 @@
       <c r="AA14" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -2078,8 +2117,11 @@
       <c r="AA15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2161,8 +2203,11 @@
       <c r="AA16" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -2244,8 +2289,11 @@
       <c r="AA17" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2327,8 +2375,11 @@
       <c r="AA18" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -2410,8 +2461,11 @@
       <c r="AA19" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2493,8 +2547,11 @@
       <c r="AA20" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2576,8 +2633,11 @@
       <c r="AA21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2659,8 +2719,11 @@
       <c r="AA22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -2740,6 +2803,9 @@
         <v>5</v>
       </c>
       <c r="AA23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3315,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -894,11 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB22" sqref="AB22"/>
+      <selection pane="topRight" activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -994,8 +994,11 @@
       <c r="AB1" s="23">
         <v>43531</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="23">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +1083,11 @@
       <c r="AB2" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1166,8 +1172,11 @@
       <c r="AB3" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1252,8 +1261,11 @@
       <c r="AB4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1350,11 @@
       <c r="AB5" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1424,8 +1439,11 @@
       <c r="AB6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1510,8 +1528,11 @@
       <c r="AB7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1596,8 +1617,11 @@
       <c r="AB8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1605,7 +1629,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1690,8 +1714,11 @@
       <c r="AB10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1776,8 +1803,11 @@
       <c r="AB11" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1862,8 +1892,11 @@
       <c r="AB12" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1948,8 +1981,11 @@
       <c r="AB13" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -2034,8 +2070,11 @@
       <c r="AB14" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -2120,8 +2159,11 @@
       <c r="AB15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2206,8 +2248,11 @@
       <c r="AB16" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -2292,8 +2337,11 @@
       <c r="AB17" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2378,8 +2426,11 @@
       <c r="AB18" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -2464,8 +2515,11 @@
       <c r="AB19" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2550,8 +2604,11 @@
       <c r="AB20" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2636,8 +2693,11 @@
       <c r="AB21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2722,8 +2782,11 @@
       <c r="AB22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -2807,6 +2870,9 @@
       </c>
       <c r="AB23" s="13">
         <v>5</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3379,11 +3445,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="topRight" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3460,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3476,8 +3542,11 @@
       <c r="AA1" s="19">
         <v>43525</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="19">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3559,8 +3628,11 @@
       <c r="AA2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3642,8 +3714,11 @@
       <c r="AA3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3725,8 +3800,11 @@
       <c r="AA4" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3808,8 +3886,11 @@
       <c r="AA5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -3891,8 +3972,11 @@
       <c r="AA6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -3974,8 +4058,11 @@
       <c r="AA7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -4057,8 +4144,11 @@
       <c r="AA8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4140,8 +4230,11 @@
       <c r="AA9" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -4194,7 +4287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -4276,8 +4369,11 @@
       <c r="AA11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -4359,8 +4455,11 @@
       <c r="AA12" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -4442,8 +4541,11 @@
       <c r="AA13" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -4484,7 +4586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -4566,8 +4668,11 @@
       <c r="AA15" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -4649,8 +4754,11 @@
       <c r="AA16" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -4732,8 +4840,11 @@
       <c r="AA17" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -4815,8 +4926,11 @@
       <c r="AA18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -4898,8 +5012,11 @@
       <c r="AA19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -4981,8 +5098,11 @@
       <c r="AA20" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -5064,8 +5184,11 @@
       <c r="AA21" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -5147,8 +5270,11 @@
       <c r="AA22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5229,6 +5355,9 @@
       </c>
       <c r="AA23" s="10">
         <v>4</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -896,9 +896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC14" sqref="AC14"/>
+      <selection pane="topRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,11 +3445,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA21" sqref="AA21"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3460,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3545,8 +3545,11 @@
       <c r="AB1" s="19">
         <v>43531</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="19">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3631,8 +3634,11 @@
       <c r="AB2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3717,8 +3723,11 @@
       <c r="AB3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3803,8 +3812,11 @@
       <c r="AB4" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3889,8 +3901,11 @@
       <c r="AB5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -3975,8 +3990,11 @@
       <c r="AB6" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -4061,8 +4079,11 @@
       <c r="AB7" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -4147,8 +4168,11 @@
       <c r="AB8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4233,8 +4257,11 @@
       <c r="AB9" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +4314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -4372,8 +4399,11 @@
       <c r="AB11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -4458,8 +4488,11 @@
       <c r="AB12" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -4544,8 +4577,11 @@
       <c r="AB13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -4586,7 +4622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -4671,8 +4707,11 @@
       <c r="AB15" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -4757,8 +4796,11 @@
       <c r="AB16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -4843,8 +4885,11 @@
       <c r="AB17" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -4929,8 +4974,11 @@
       <c r="AB18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -5015,8 +5063,11 @@
       <c r="AB19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -5101,8 +5152,11 @@
       <c r="AB20" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -5187,8 +5241,11 @@
       <c r="AB21" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -5273,8 +5330,11 @@
       <c r="AB22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5357,6 +5417,9 @@
         <v>4</v>
       </c>
       <c r="AB23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="10">
         <v>5</v>
       </c>
     </row>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -894,11 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB33" sqref="AB33"/>
+      <selection pane="topRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -997,8 +997,11 @@
       <c r="AC1" s="23">
         <v>43532</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="23">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1089,11 @@
       <c r="AC2" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1175,8 +1181,11 @@
       <c r="AC3" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1264,8 +1273,11 @@
       <c r="AC4" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1365,11 @@
       <c r="AC5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1442,8 +1457,11 @@
       <c r="AC6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1531,8 +1549,11 @@
       <c r="AC7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1620,8 +1641,11 @@
       <c r="AC8" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -1629,7 +1653,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1717,8 +1741,11 @@
       <c r="AC10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1806,8 +1833,11 @@
       <c r="AC11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1895,8 +1925,11 @@
       <c r="AC12" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1984,8 +2017,11 @@
       <c r="AC13" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="AC14" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -2162,8 +2201,11 @@
       <c r="AC15" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2251,8 +2293,11 @@
       <c r="AC16" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -2340,8 +2385,11 @@
       <c r="AC17" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -2429,8 +2477,11 @@
       <c r="AC18" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -2518,8 +2569,11 @@
       <c r="AC19" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2607,8 +2661,11 @@
       <c r="AC20" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2696,8 +2753,11 @@
       <c r="AC21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2785,8 +2845,11 @@
       <c r="AC22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -2872,6 +2935,9 @@
         <v>5</v>
       </c>
       <c r="AC23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD23" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3447,9 +3513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="88">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -896,9 +896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,8 +1181,8 @@
       <c r="AC3" s="13">
         <v>3</v>
       </c>
-      <c r="AD3" s="13" t="s">
-        <v>44</v>
+      <c r="AD3" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3511,11 +3511,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
+      <selection pane="topRight" activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,7 +3526,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3614,8 +3614,11 @@
       <c r="AC1" s="19">
         <v>43532</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="19">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -3703,8 +3706,11 @@
       <c r="AC2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3792,8 +3798,11 @@
       <c r="AC3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3881,8 +3890,11 @@
       <c r="AC4" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3970,8 +3982,11 @@
       <c r="AC5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -4059,8 +4074,11 @@
       <c r="AC6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -4148,8 +4166,11 @@
       <c r="AC7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -4237,8 +4258,11 @@
       <c r="AC8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4326,8 +4350,11 @@
       <c r="AC9" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
@@ -4380,7 +4407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -4468,8 +4495,11 @@
       <c r="AC11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -4557,8 +4587,11 @@
       <c r="AC12" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -4646,8 +4679,11 @@
       <c r="AC13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -4688,7 +4724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -4776,8 +4812,11 @@
       <c r="AC15" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -4865,8 +4904,11 @@
       <c r="AC16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -4954,8 +4996,11 @@
       <c r="AC17" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -5043,8 +5088,11 @@
       <c r="AC18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -5132,8 +5180,11 @@
       <c r="AC19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -5221,8 +5272,11 @@
       <c r="AC20" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -5310,8 +5364,11 @@
       <c r="AC21" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -5399,8 +5456,11 @@
       <c r="AC22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5486,6 +5546,9 @@
         <v>5</v>
       </c>
       <c r="AC23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="10">
         <v>5</v>
       </c>
     </row>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>D/L</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,34 +396,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -483,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,22 +478,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -515,103 +502,91 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,140 +869,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:103" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="18">
+        <v>43122</v>
+      </c>
+      <c r="D1" s="18">
+        <v>43123</v>
+      </c>
+      <c r="E1" s="18">
+        <v>43124</v>
+      </c>
+      <c r="F1" s="18">
         <v>43493</v>
       </c>
-      <c r="D1" s="23">
+      <c r="G1" s="18">
         <v>43494</v>
       </c>
-      <c r="E1" s="23">
+      <c r="H1" s="18">
         <v>43495</v>
       </c>
-      <c r="F1" s="23">
+      <c r="I1" s="18">
         <v>43496</v>
       </c>
-      <c r="G1" s="23">
+      <c r="J1" s="18">
         <v>43497</v>
       </c>
-      <c r="H1" s="23">
+      <c r="K1" s="18">
         <v>43500</v>
       </c>
-      <c r="I1" s="23">
+      <c r="L1" s="18">
         <v>43501</v>
       </c>
-      <c r="J1" s="23">
+      <c r="M1" s="18">
         <v>43502</v>
       </c>
-      <c r="K1" s="23">
+      <c r="N1" s="18">
         <v>43503</v>
       </c>
-      <c r="L1" s="23">
+      <c r="O1" s="18">
         <v>43504</v>
       </c>
-      <c r="M1" s="23">
+      <c r="P1" s="18">
         <v>43507</v>
       </c>
-      <c r="N1" s="23">
+      <c r="Q1" s="18">
         <v>43508</v>
       </c>
-      <c r="O1" s="23">
+      <c r="R1" s="18">
         <v>43509</v>
       </c>
-      <c r="P1" s="23">
+      <c r="S1" s="18">
         <v>43510</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="T1" s="18">
         <v>43511</v>
       </c>
-      <c r="R1" s="23">
+      <c r="U1" s="18">
         <v>43514</v>
       </c>
-      <c r="S1" s="23">
+      <c r="V1" s="18">
         <v>43515</v>
       </c>
-      <c r="T1" s="23">
+      <c r="W1" s="18">
         <v>43516</v>
       </c>
-      <c r="U1" s="23">
+      <c r="X1" s="18">
         <v>43517</v>
       </c>
-      <c r="V1" s="23">
+      <c r="Y1" s="18">
         <v>43518</v>
       </c>
-      <c r="W1" s="23">
+      <c r="Z1" s="18">
         <v>43521</v>
       </c>
-      <c r="X1" s="23">
+      <c r="AA1" s="18">
         <v>43522</v>
       </c>
-      <c r="Y1" s="23">
+      <c r="AB1" s="18">
         <v>43523</v>
       </c>
-      <c r="Z1" s="23">
+      <c r="AC1" s="18">
         <v>43524</v>
       </c>
-      <c r="AA1" s="23">
+      <c r="AD1" s="18">
         <v>43525</v>
       </c>
-      <c r="AB1" s="23">
+      <c r="AE1" s="18">
         <v>43531</v>
       </c>
-      <c r="AC1" s="23">
+      <c r="AF1" s="18">
         <v>43532</v>
       </c>
-      <c r="AD1" s="23">
+      <c r="AG1" s="18">
         <v>43535</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="18">
+        <v>43536</v>
+      </c>
+      <c r="AI1" s="18">
+        <v>43172</v>
+      </c>
+      <c r="AJ1" s="18">
+        <v>43173</v>
+      </c>
+      <c r="AK1" s="18">
+        <v>43174</v>
+      </c>
+      <c r="AL1" s="18">
+        <v>43177</v>
+      </c>
+      <c r="AM1" s="18">
+        <v>43178</v>
+      </c>
+      <c r="AN1" s="18">
+        <v>43179</v>
+      </c>
+      <c r="AO1" s="18">
+        <v>43180</v>
+      </c>
+      <c r="AP1" s="18">
+        <v>43181</v>
+      </c>
+      <c r="AQ1" s="18">
+        <v>43184</v>
+      </c>
+      <c r="AR1" s="18">
+        <v>43185</v>
+      </c>
+      <c r="AS1" s="18">
+        <v>43186</v>
+      </c>
+      <c r="AT1" s="18">
+        <v>43187</v>
+      </c>
+      <c r="AU1" s="18">
+        <v>43188</v>
+      </c>
+      <c r="AV1" s="18">
+        <v>43191</v>
+      </c>
+      <c r="AW1" s="18">
+        <v>43192</v>
+      </c>
+      <c r="AX1" s="18">
+        <v>43193</v>
+      </c>
+      <c r="AY1" s="18">
+        <v>43194</v>
+      </c>
+      <c r="AZ1" s="18">
+        <v>43195</v>
+      </c>
+      <c r="BA1" s="18">
+        <v>43198</v>
+      </c>
+      <c r="BB1" s="18">
+        <v>43199</v>
+      </c>
+      <c r="BC1" s="18">
+        <v>43200</v>
+      </c>
+      <c r="BD1" s="18">
+        <v>43201</v>
+      </c>
+      <c r="BE1" s="18">
+        <v>43202</v>
+      </c>
+      <c r="BF1" s="18">
+        <v>43205</v>
+      </c>
+      <c r="BG1" s="18">
+        <v>43206</v>
+      </c>
+      <c r="BH1" s="18">
+        <v>43207</v>
+      </c>
+      <c r="BI1" s="18">
+        <v>43208</v>
+      </c>
+      <c r="BJ1" s="18">
+        <v>43209</v>
+      </c>
+      <c r="BK1" s="18">
+        <v>43212</v>
+      </c>
+      <c r="BL1" s="18">
+        <v>43213</v>
+      </c>
+      <c r="BM1" s="18">
+        <v>43214</v>
+      </c>
+      <c r="BN1" s="18">
+        <v>43215</v>
+      </c>
+      <c r="BO1" s="18">
+        <v>43216</v>
+      </c>
+      <c r="BP1" s="18">
+        <v>43219</v>
+      </c>
+      <c r="BQ1" s="18">
+        <v>43220</v>
+      </c>
+      <c r="BR1" s="18">
+        <v>43222</v>
+      </c>
+      <c r="BS1" s="18">
+        <v>43223</v>
+      </c>
+      <c r="BT1" s="18">
+        <v>43226</v>
+      </c>
+      <c r="BU1" s="18">
+        <v>43227</v>
+      </c>
+      <c r="BV1" s="18">
+        <v>43228</v>
+      </c>
+      <c r="BW1" s="18">
+        <v>43229</v>
+      </c>
+      <c r="BX1" s="18">
+        <v>43230</v>
+      </c>
+      <c r="BY1" s="18">
+        <v>43233</v>
+      </c>
+      <c r="BZ1" s="18">
+        <v>43234</v>
+      </c>
+      <c r="CA1" s="18">
+        <v>43235</v>
+      </c>
+      <c r="CB1" s="18">
+        <v>43236</v>
+      </c>
+      <c r="CC1" s="18">
+        <v>43237</v>
+      </c>
+      <c r="CD1" s="18">
+        <v>43240</v>
+      </c>
+      <c r="CE1" s="18">
+        <v>43241</v>
+      </c>
+      <c r="CF1" s="18">
+        <v>43242</v>
+      </c>
+      <c r="CG1" s="18">
+        <v>43243</v>
+      </c>
+      <c r="CH1" s="18">
+        <v>43244</v>
+      </c>
+      <c r="CI1" s="18">
+        <v>43247</v>
+      </c>
+      <c r="CJ1" s="18">
+        <v>43248</v>
+      </c>
+      <c r="CK1" s="18">
+        <v>43249</v>
+      </c>
+      <c r="CL1" s="18">
+        <v>43250</v>
+      </c>
+      <c r="CM1" s="18">
+        <v>43251</v>
+      </c>
+      <c r="CN1" s="18">
+        <v>43254</v>
+      </c>
+      <c r="CO1" s="18">
+        <v>43255</v>
+      </c>
+      <c r="CP1" s="18">
+        <v>43256</v>
+      </c>
+      <c r="CQ1" s="18">
+        <v>43257</v>
+      </c>
+      <c r="CR1" s="18">
+        <v>43258</v>
+      </c>
+      <c r="CS1" s="18">
+        <v>43261</v>
+      </c>
+      <c r="CT1" s="18">
+        <v>43262</v>
+      </c>
+      <c r="CU1" s="18">
+        <v>43263</v>
+      </c>
+      <c r="CV1" s="18">
+        <v>43264</v>
+      </c>
+      <c r="CW1" s="18">
+        <v>43265</v>
+      </c>
+      <c r="CX1" s="18">
+        <v>43268</v>
+      </c>
+      <c r="CY1" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>1022452</v>
       </c>
-      <c r="C2" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>44</v>
+      <c r="C2" s="37">
+        <v>5</v>
+      </c>
+      <c r="D2" s="37">
+        <v>5</v>
+      </c>
+      <c r="E2" s="37">
+        <v>5</v>
       </c>
       <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>44</v>
+      <c r="G2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
       </c>
       <c r="J2" s="9">
         <v>5</v>
@@ -1035,8 +1230,8 @@
       <c r="K2" s="9">
         <v>5</v>
       </c>
-      <c r="L2" s="9">
-        <v>5</v>
+      <c r="L2" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="M2" s="9">
         <v>5</v>
@@ -1062,17 +1257,17 @@
       <c r="T2" s="9">
         <v>5</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>44</v>
+      <c r="U2" s="9">
+        <v>5</v>
+      </c>
+      <c r="V2" s="9">
+        <v>5</v>
       </c>
       <c r="W2" s="9">
         <v>5</v>
       </c>
-      <c r="X2" s="9">
-        <v>5</v>
+      <c r="X2" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>44</v>
@@ -1080,40 +1275,56 @@
       <c r="Z2" s="9">
         <v>5</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>44</v>
+      <c r="AA2" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>5</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CY2" s="9">
+        <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12">
         <v>1022453</v>
       </c>
-      <c r="C3" s="13">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13">
-        <v>4</v>
+      <c r="C3" s="38">
+        <v>5</v>
+      </c>
+      <c r="D3" s="38">
+        <v>5</v>
+      </c>
+      <c r="E3" s="38">
+        <v>5</v>
       </c>
       <c r="F3" s="13">
         <v>4</v>
       </c>
       <c r="G3" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="13">
         <v>4</v>
@@ -1131,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="13">
         <v>4</v>
@@ -1143,22 +1354,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" s="13">
         <v>4</v>
       </c>
       <c r="S3" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U3" s="13">
         <v>4</v>
       </c>
       <c r="V3" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3" s="13">
         <v>4</v>
@@ -1179,36 +1390,52 @@
         <v>4</v>
       </c>
       <c r="AC3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="13">
         <v>3</v>
       </c>
-      <c r="AD3" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="13">
+        <v>4</v>
+      </c>
+      <c r="CY3" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1022454</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5</v>
-      </c>
-      <c r="H4" s="9">
-        <v>5</v>
+      <c r="C4" s="37">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37">
+        <v>5</v>
+      </c>
+      <c r="E4" s="37">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="I4" s="9">
         <v>5</v>
@@ -1232,22 +1459,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="9">
         <v>5</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>44</v>
+      <c r="R4" s="9">
+        <v>5</v>
       </c>
       <c r="S4" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" s="9">
         <v>5</v>
       </c>
-      <c r="U4" s="9">
-        <v>5</v>
+      <c r="U4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="V4" s="9">
         <v>5</v>
@@ -1259,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="Y4" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="9">
         <v>5</v>
@@ -1268,33 +1495,49 @@
         <v>5</v>
       </c>
       <c r="AB4" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC4" s="9">
         <v>5</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>4</v>
+      </c>
+      <c r="CY4" s="9">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="12">
         <v>1022455</v>
       </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C5" s="38">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38">
+        <v>5</v>
+      </c>
+      <c r="E5" s="38">
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="13">
         <v>5</v>
@@ -1303,86 +1546,102 @@
         <v>5</v>
       </c>
       <c r="I5" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="13">
         <v>5</v>
       </c>
       <c r="K5" s="13">
+        <v>5</v>
+      </c>
+      <c r="L5" s="13">
+        <v>4</v>
+      </c>
+      <c r="M5" s="13">
+        <v>5</v>
+      </c>
+      <c r="N5" s="13">
         <v>3</v>
       </c>
-      <c r="L5" s="13">
-        <v>5</v>
-      </c>
-      <c r="M5" s="13">
-        <v>5</v>
-      </c>
-      <c r="N5" s="13">
-        <v>5</v>
-      </c>
       <c r="O5" s="13">
         <v>5</v>
       </c>
       <c r="P5" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>5</v>
+      </c>
+      <c r="R5" s="13">
+        <v>5</v>
+      </c>
+      <c r="S5" s="13">
         <v>3</v>
       </c>
-      <c r="Q5" s="13">
-        <v>4</v>
-      </c>
-      <c r="R5" s="13">
-        <v>5</v>
-      </c>
-      <c r="S5" s="13">
-        <v>5</v>
-      </c>
       <c r="T5" s="13">
+        <v>4</v>
+      </c>
+      <c r="U5" s="13">
+        <v>5</v>
+      </c>
+      <c r="V5" s="13">
+        <v>5</v>
+      </c>
+      <c r="W5" s="13">
         <v>3</v>
       </c>
-      <c r="U5" s="13">
-        <v>5</v>
-      </c>
-      <c r="V5" s="13">
-        <v>5</v>
-      </c>
-      <c r="W5" s="13">
-        <v>5</v>
-      </c>
       <c r="X5" s="13">
         <v>5</v>
       </c>
       <c r="Y5" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="13">
         <v>4</v>
       </c>
       <c r="AC5" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY5" s="1">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>1022456</v>
       </c>
-      <c r="C6" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="37">
+        <v>5</v>
+      </c>
+      <c r="D6" s="37">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37">
         <v>5</v>
       </c>
       <c r="F6" s="9">
@@ -1460,46 +1719,62 @@
       <c r="AD6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CY6" s="9">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="12">
         <v>1022457</v>
       </c>
-      <c r="C7" s="13">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="38">
+        <v>5</v>
+      </c>
+      <c r="D7" s="38">
+        <v>5</v>
+      </c>
+      <c r="E7" s="38">
         <v>5</v>
       </c>
       <c r="F7" s="13">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
+      </c>
+      <c r="I7" s="13">
         <v>3</v>
       </c>
-      <c r="G7" s="13">
-        <v>5</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="13">
-        <v>5</v>
-      </c>
       <c r="J7" s="13">
         <v>5</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>44</v>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" s="13">
+        <v>5</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>44</v>
@@ -1537,36 +1812,52 @@
       <c r="Y7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="13">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>5</v>
+      <c r="Z7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AC7" s="13">
         <v>5</v>
       </c>
-      <c r="AD7" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY7" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>1022458</v>
       </c>
-      <c r="C8" s="9">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="37">
+        <v>5</v>
+      </c>
+      <c r="D8" s="37">
+        <v>5</v>
+      </c>
+      <c r="E8" s="37">
         <v>5</v>
       </c>
       <c r="F8" s="9">
@@ -1575,8 +1866,8 @@
       <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>44</v>
+      <c r="H8" s="9">
+        <v>5</v>
       </c>
       <c r="I8" s="9">
         <v>5</v>
@@ -1584,14 +1875,14 @@
       <c r="J8" s="9">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
-        <v>5</v>
+      <c r="K8" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="L8" s="9">
         <v>5</v>
       </c>
       <c r="M8" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="9">
         <v>5</v>
@@ -1609,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="S8" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" s="9">
         <v>5</v>
       </c>
-      <c r="U8" s="9" t="s">
-        <v>44</v>
+      <c r="U8" s="9">
+        <v>5</v>
       </c>
       <c r="V8" s="9">
         <v>5</v>
@@ -1627,46 +1918,62 @@
         <v>44</v>
       </c>
       <c r="Y8" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="9">
         <v>5</v>
       </c>
-      <c r="AA8" s="9">
-        <v>5</v>
+      <c r="AA8" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AB8" s="9">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>5</v>
       </c>
       <c r="AD8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="AE8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CY8" s="9">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="2">
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>1022460</v>
       </c>
-      <c r="C10" s="9">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="37">
+        <v>5</v>
+      </c>
+      <c r="D10" s="37">
+        <v>5</v>
+      </c>
+      <c r="E10" s="37">
         <v>5</v>
       </c>
       <c r="F10" s="9">
@@ -1685,17 +1992,17 @@
         <v>5</v>
       </c>
       <c r="K10" s="9">
+        <v>5</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9">
+        <v>5</v>
+      </c>
+      <c r="N10" s="9">
         <v>3</v>
       </c>
-      <c r="L10" s="9">
-        <v>5</v>
-      </c>
-      <c r="M10" s="9">
-        <v>5</v>
-      </c>
-      <c r="N10" s="9">
-        <v>5</v>
-      </c>
       <c r="O10" s="9">
         <v>5</v>
       </c>
@@ -1741,25 +2048,41 @@
       <c r="AC10" s="9">
         <v>5</v>
       </c>
-      <c r="AD10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY10" s="9">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="12">
         <v>1022461</v>
       </c>
-      <c r="C11" s="13">
-        <v>5</v>
-      </c>
-      <c r="D11" s="13">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>44</v>
+      <c r="C11" s="38">
+        <v>5</v>
+      </c>
+      <c r="D11" s="38">
+        <v>5</v>
+      </c>
+      <c r="E11" s="38">
+        <v>5</v>
       </c>
       <c r="F11" s="13">
         <v>5</v>
@@ -1767,8 +2090,8 @@
       <c r="G11" s="13">
         <v>5</v>
       </c>
-      <c r="H11" s="13">
-        <v>5</v>
+      <c r="H11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="I11" s="13">
         <v>5</v>
@@ -1776,8 +2099,8 @@
       <c r="J11" s="13">
         <v>5</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>44</v>
+      <c r="K11" s="13">
+        <v>5</v>
       </c>
       <c r="L11" s="13">
         <v>5</v>
@@ -1785,14 +2108,14 @@
       <c r="M11" s="13">
         <v>5</v>
       </c>
-      <c r="N11" s="13">
-        <v>5</v>
+      <c r="N11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="O11" s="13">
         <v>5</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>44</v>
+      <c r="P11" s="13">
+        <v>5</v>
       </c>
       <c r="Q11" s="13">
         <v>5</v>
@@ -1800,8 +2123,8 @@
       <c r="R11" s="13">
         <v>5</v>
       </c>
-      <c r="S11" s="13">
-        <v>5</v>
+      <c r="S11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="T11" s="13">
         <v>5</v>
@@ -1810,47 +2133,63 @@
         <v>5</v>
       </c>
       <c r="V11" s="13">
+        <v>5</v>
+      </c>
+      <c r="W11" s="13">
+        <v>5</v>
+      </c>
+      <c r="X11" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="13">
         <v>3</v>
       </c>
-      <c r="W11" s="13">
-        <v>4</v>
-      </c>
-      <c r="X11" s="13">
+      <c r="Z11" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="13">
         <v>3</v>
       </c>
-      <c r="Y11" s="13">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>5</v>
-      </c>
       <c r="AB11" s="13">
         <v>4</v>
       </c>
-      <c r="AC11" s="13" t="s">
-        <v>44</v>
+      <c r="AC11" s="13">
+        <v>5</v>
       </c>
       <c r="AD11" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY11" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>1022462</v>
       </c>
-      <c r="C12" s="9">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="37">
+        <v>5</v>
+      </c>
+      <c r="D12" s="37">
+        <v>5</v>
+      </c>
+      <c r="E12" s="37">
         <v>5</v>
       </c>
       <c r="F12" s="9">
@@ -1863,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="9">
         <v>5</v>
@@ -1872,10 +2211,10 @@
         <v>5</v>
       </c>
       <c r="L12" s="9">
-        <v>5</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="M12" s="9">
+        <v>5</v>
       </c>
       <c r="N12" s="9">
         <v>5</v>
@@ -1883,8 +2222,8 @@
       <c r="O12" s="9">
         <v>5</v>
       </c>
-      <c r="P12" s="9">
-        <v>4</v>
+      <c r="P12" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="Q12" s="9">
         <v>5</v>
@@ -1893,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="S12" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" s="9">
         <v>5</v>
@@ -1908,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="X12" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="9">
         <v>5</v>
@@ -1926,30 +2265,46 @@
         <v>5</v>
       </c>
       <c r="AD12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CY12" s="9">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="12">
         <v>1022463</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13">
-        <v>4</v>
+      <c r="C13" s="38">
+        <v>5</v>
+      </c>
+      <c r="D13" s="38">
+        <v>5</v>
+      </c>
+      <c r="E13" s="38">
+        <v>5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="13">
         <v>5</v>
@@ -1958,83 +2313,99 @@
         <v>4</v>
       </c>
       <c r="J13" s="13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="K13" s="13">
+        <v>5</v>
       </c>
       <c r="L13" s="13">
         <v>4</v>
       </c>
       <c r="M13" s="13">
-        <v>5</v>
-      </c>
-      <c r="N13" s="13">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="O13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="13">
         <v>5</v>
       </c>
       <c r="R13" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" s="13">
+        <v>4</v>
+      </c>
+      <c r="T13" s="13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="13">
+        <v>4</v>
+      </c>
+      <c r="V13" s="13">
         <v>3</v>
       </c>
-      <c r="T13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="13">
+      <c r="W13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" s="13">
         <v>3</v>
       </c>
-      <c r="V13" s="13">
-        <v>4</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="X13" s="13">
-        <v>4</v>
-      </c>
       <c r="Y13" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="13">
         <v>3</v>
       </c>
-      <c r="Z13" s="13">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="AC13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13" s="13">
         <v>3</v>
       </c>
-      <c r="AD13" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY13" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>1022464</v>
       </c>
-      <c r="C14" s="9">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="37">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37">
         <v>5</v>
       </c>
       <c r="F14" s="9">
@@ -2044,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="9">
         <v>5</v>
@@ -2053,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" s="9">
         <v>5</v>
@@ -2092,41 +2463,57 @@
         <v>5</v>
       </c>
       <c r="X14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC14" s="9">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY14" s="9">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="12">
         <v>1022465</v>
       </c>
-      <c r="C15" s="13">
-        <v>5</v>
-      </c>
-      <c r="D15" s="13">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="C15" s="38">
+        <v>5</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5</v>
+      </c>
+      <c r="E15" s="38">
         <v>5</v>
       </c>
       <c r="F15" s="13">
@@ -2138,8 +2525,8 @@
       <c r="H15" s="13">
         <v>5</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>44</v>
+      <c r="I15" s="13">
+        <v>5</v>
       </c>
       <c r="J15" s="13">
         <v>5</v>
@@ -2150,17 +2537,17 @@
       <c r="L15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>44</v>
+      <c r="M15" s="13">
+        <v>5</v>
       </c>
       <c r="N15" s="13">
         <v>5</v>
       </c>
-      <c r="O15" s="13">
-        <v>5</v>
-      </c>
-      <c r="P15" s="13">
-        <v>5</v>
+      <c r="O15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="Q15" s="13">
         <v>5</v>
@@ -2186,8 +2573,8 @@
       <c r="X15" s="13">
         <v>5</v>
       </c>
-      <c r="Y15" s="13" t="s">
-        <v>44</v>
+      <c r="Y15" s="13">
+        <v>5</v>
       </c>
       <c r="Z15" s="13">
         <v>5</v>
@@ -2195,52 +2582,68 @@
       <c r="AA15" s="13">
         <v>5</v>
       </c>
-      <c r="AB15" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>44</v>
+      <c r="AB15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>5</v>
       </c>
       <c r="AD15" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY15" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>1022466</v>
       </c>
-      <c r="C16" s="9">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="37">
+        <v>5</v>
+      </c>
+      <c r="D16" s="37">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37">
         <v>5</v>
       </c>
       <c r="F16" s="9">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>44</v>
+      <c r="G16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
       </c>
       <c r="J16" s="9">
         <v>5</v>
       </c>
-      <c r="K16" s="9">
-        <v>5</v>
-      </c>
-      <c r="L16" s="9">
-        <v>5</v>
+      <c r="K16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="M16" s="9">
         <v>5</v>
@@ -2254,8 +2657,8 @@
       <c r="P16" s="9">
         <v>5</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>44</v>
+      <c r="Q16" s="9">
+        <v>5</v>
       </c>
       <c r="R16" s="9">
         <v>5</v>
@@ -2263,54 +2666,70 @@
       <c r="S16" s="9">
         <v>5</v>
       </c>
-      <c r="T16" s="9">
-        <v>5</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>44</v>
+      <c r="T16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="9">
+        <v>5</v>
       </c>
       <c r="V16" s="9">
+        <v>5</v>
+      </c>
+      <c r="W16" s="9">
+        <v>5</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" s="9">
         <v>3</v>
       </c>
-      <c r="W16" s="9">
-        <v>5</v>
-      </c>
-      <c r="X16" s="9">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>4</v>
-      </c>
       <c r="Z16" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB16" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC16" s="9">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY16" s="9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="12">
         <v>1022467</v>
       </c>
-      <c r="C17" s="13">
-        <v>5</v>
-      </c>
-      <c r="D17" s="13">
-        <v>5</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="C17" s="38">
+        <v>5</v>
+      </c>
+      <c r="D17" s="38">
+        <v>5</v>
+      </c>
+      <c r="E17" s="38">
         <v>5</v>
       </c>
       <c r="F17" s="13">
@@ -2322,8 +2741,8 @@
       <c r="H17" s="13">
         <v>5</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>44</v>
+      <c r="I17" s="13">
+        <v>5</v>
       </c>
       <c r="J17" s="13">
         <v>5</v>
@@ -2331,8 +2750,8 @@
       <c r="K17" s="13">
         <v>5</v>
       </c>
-      <c r="L17" s="13">
-        <v>5</v>
+      <c r="L17" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="M17" s="13">
         <v>5</v>
@@ -2340,8 +2759,8 @@
       <c r="N17" s="13">
         <v>5</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>44</v>
+      <c r="O17" s="13">
+        <v>5</v>
       </c>
       <c r="P17" s="13">
         <v>5</v>
@@ -2349,8 +2768,8 @@
       <c r="Q17" s="13">
         <v>5</v>
       </c>
-      <c r="R17" s="13">
-        <v>5</v>
+      <c r="R17" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="S17" s="13">
         <v>5</v>
@@ -2376,8 +2795,8 @@
       <c r="Z17" s="13">
         <v>5</v>
       </c>
-      <c r="AA17" s="13" t="s">
-        <v>44</v>
+      <c r="AA17" s="13">
+        <v>5</v>
       </c>
       <c r="AB17" s="13">
         <v>5</v>
@@ -2388,21 +2807,37 @@
       <c r="AD17" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY17" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>1022472</v>
       </c>
-      <c r="C18" s="9">
-        <v>5</v>
-      </c>
-      <c r="D18" s="9">
-        <v>5</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="37">
+        <v>5</v>
+      </c>
+      <c r="D18" s="37">
+        <v>5</v>
+      </c>
+      <c r="E18" s="37">
         <v>5</v>
       </c>
       <c r="F18" s="9">
@@ -2423,8 +2858,8 @@
       <c r="K18" s="9">
         <v>5</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>44</v>
+      <c r="L18" s="9">
+        <v>5</v>
       </c>
       <c r="M18" s="9">
         <v>5</v>
@@ -2432,44 +2867,44 @@
       <c r="N18" s="9">
         <v>5</v>
       </c>
-      <c r="O18" s="9">
-        <v>5</v>
+      <c r="O18" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="P18" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="9">
         <v>5</v>
       </c>
       <c r="R18" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" s="9">
         <v>5</v>
       </c>
       <c r="U18" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" s="9">
         <v>5</v>
       </c>
-      <c r="W18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>44</v>
+      <c r="W18" s="9">
+        <v>5</v>
+      </c>
+      <c r="X18" s="9">
+        <v>5</v>
       </c>
       <c r="Y18" s="9">
         <v>5</v>
       </c>
-      <c r="Z18" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>4</v>
+      <c r="Z18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AB18" s="9">
         <v>5</v>
@@ -2480,21 +2915,37 @@
       <c r="AD18" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CY18" s="9">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="12">
         <v>1022473</v>
       </c>
-      <c r="C19" s="13">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="C19" s="38">
+        <v>5</v>
+      </c>
+      <c r="D19" s="38">
+        <v>5</v>
+      </c>
+      <c r="E19" s="38">
         <v>5</v>
       </c>
       <c r="F19" s="13">
@@ -2543,50 +2994,66 @@
         <v>5</v>
       </c>
       <c r="U19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X19" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="13">
         <v>4</v>
       </c>
       <c r="Z19" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA19" s="13">
         <v>5</v>
       </c>
       <c r="AB19" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>5</v>
       </c>
       <c r="AD19" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY19" s="1">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>1022474</v>
       </c>
-      <c r="C20" s="9">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="37">
+        <v>5</v>
+      </c>
+      <c r="D20" s="37">
+        <v>5</v>
+      </c>
+      <c r="E20" s="37">
         <v>5</v>
       </c>
       <c r="F20" s="9">
@@ -2607,26 +3074,26 @@
       <c r="K20" s="9">
         <v>5</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>44</v>
+      <c r="L20" s="9">
+        <v>5</v>
       </c>
       <c r="M20" s="9">
         <v>5</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="9">
-        <v>5</v>
+      <c r="N20" s="9">
+        <v>5</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="P20" s="9">
         <v>5</v>
       </c>
-      <c r="Q20" s="9">
-        <v>5</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>44</v>
+      <c r="Q20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="9">
+        <v>5</v>
       </c>
       <c r="S20" s="9">
         <v>5</v>
@@ -2634,14 +3101,14 @@
       <c r="T20" s="9">
         <v>5</v>
       </c>
-      <c r="U20" s="9">
-        <v>5</v>
+      <c r="U20" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="V20" s="9">
         <v>5</v>
       </c>
-      <c r="W20" s="9" t="s">
-        <v>44</v>
+      <c r="W20" s="9">
+        <v>5</v>
       </c>
       <c r="X20" s="9">
         <v>5</v>
@@ -2649,8 +3116,8 @@
       <c r="Y20" s="9">
         <v>5</v>
       </c>
-      <c r="Z20" s="9">
-        <v>5</v>
+      <c r="Z20" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AA20" s="9">
         <v>5</v>
@@ -2661,24 +3128,40 @@
       <c r="AC20" s="9">
         <v>5</v>
       </c>
-      <c r="AD20" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CY20" s="9">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="12">
         <v>1022475</v>
       </c>
-      <c r="C21" s="13">
-        <v>5</v>
-      </c>
-      <c r="D21" s="13">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="C21" s="38">
+        <v>5</v>
+      </c>
+      <c r="D21" s="38">
+        <v>5</v>
+      </c>
+      <c r="E21" s="38">
         <v>5</v>
       </c>
       <c r="F21" s="13">
@@ -2756,21 +3239,37 @@
       <c r="AD21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY21" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>1022476</v>
       </c>
-      <c r="C22" s="9">
-        <v>5</v>
-      </c>
-      <c r="D22" s="9">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="37">
+        <v>5</v>
+      </c>
+      <c r="D22" s="37">
+        <v>5</v>
+      </c>
+      <c r="E22" s="37">
         <v>5</v>
       </c>
       <c r="F22" s="9">
@@ -2779,8 +3278,8 @@
       <c r="G22" s="9">
         <v>5</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>44</v>
+      <c r="H22" s="9">
+        <v>5</v>
       </c>
       <c r="I22" s="9">
         <v>5</v>
@@ -2788,8 +3287,8 @@
       <c r="J22" s="9">
         <v>5</v>
       </c>
-      <c r="K22" s="9">
-        <v>5</v>
+      <c r="K22" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="L22" s="9">
         <v>5</v>
@@ -2798,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="N22" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" s="9">
         <v>5</v>
@@ -2807,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="Q22" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" s="9">
         <v>5</v>
@@ -2822,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="V22" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" s="9">
         <v>5</v>
@@ -2831,10 +3330,10 @@
         <v>5</v>
       </c>
       <c r="Y22" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>5</v>
       </c>
       <c r="AA22" s="9">
         <v>5</v>
@@ -2842,27 +3341,43 @@
       <c r="AB22" s="9">
         <v>5</v>
       </c>
-      <c r="AC22" s="9">
-        <v>5</v>
+      <c r="AC22" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="AD22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY22" s="9">
+        <f>SUM(C22:CX22)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15">
         <v>1022481</v>
       </c>
-      <c r="C23" s="13">
-        <v>5</v>
-      </c>
-      <c r="D23" s="13">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="C23" s="38">
+        <v>5</v>
+      </c>
+      <c r="D23" s="38">
+        <v>5</v>
+      </c>
+      <c r="E23" s="38">
         <v>5</v>
       </c>
       <c r="F23" s="13">
@@ -2919,8 +3434,8 @@
       <c r="W23" s="13">
         <v>5</v>
       </c>
-      <c r="X23" s="13" t="s">
-        <v>44</v>
+      <c r="X23" s="13">
+        <v>5</v>
       </c>
       <c r="Y23" s="13">
         <v>5</v>
@@ -2928,17 +3443,343 @@
       <c r="Z23" s="13">
         <v>5</v>
       </c>
-      <c r="AA23" s="13">
-        <v>5</v>
+      <c r="AA23" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AB23" s="13">
         <v>5</v>
       </c>
-      <c r="AC23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>44</v>
+      <c r="AC23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY23" s="1">
+        <f>SUM(C23:CX23)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36">
+        <v>5</v>
+      </c>
+      <c r="D24" s="36">
+        <v>5</v>
+      </c>
+      <c r="E24" s="36">
+        <v>5</v>
+      </c>
+      <c r="F24" s="36">
+        <v>5</v>
+      </c>
+      <c r="G24" s="36">
+        <v>5</v>
+      </c>
+      <c r="H24" s="36">
+        <v>5</v>
+      </c>
+      <c r="I24" s="36">
+        <v>5</v>
+      </c>
+      <c r="J24" s="36">
+        <v>5</v>
+      </c>
+      <c r="K24" s="36">
+        <v>5</v>
+      </c>
+      <c r="L24" s="36">
+        <v>5</v>
+      </c>
+      <c r="M24" s="36">
+        <v>5</v>
+      </c>
+      <c r="N24" s="36">
+        <v>5</v>
+      </c>
+      <c r="O24" s="36">
+        <v>5</v>
+      </c>
+      <c r="P24" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>5</v>
+      </c>
+      <c r="R24" s="36">
+        <v>5</v>
+      </c>
+      <c r="S24" s="36">
+        <v>5</v>
+      </c>
+      <c r="T24" s="36">
+        <v>5</v>
+      </c>
+      <c r="U24" s="36">
+        <v>5</v>
+      </c>
+      <c r="V24" s="36">
+        <v>5</v>
+      </c>
+      <c r="W24" s="36">
+        <v>5</v>
+      </c>
+      <c r="X24" s="36">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="36">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AV24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AX24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BA24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BB24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BE24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BG24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BH24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BI24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BJ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BK24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BL24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BM24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BN24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BO24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BP24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BQ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BR24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BS24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BT24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BU24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BV24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BW24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BX24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BY24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BZ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CA24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CB24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CC24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CD24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CE24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CG24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CH24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CI24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CJ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CK24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CL24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CM24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CN24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CO24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CP24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CQ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CR24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CS24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CT24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CU24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CV24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CW24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CX24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CY24" s="1">
+        <f>SUM(C24:CX24)</f>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2970,527 +3811,527 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="L1" s="41" t="s">
+      <c r="G1" s="35"/>
+      <c r="L1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="41"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="42"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="29" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3511,128 +4352,348 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD23" sqref="AD23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CY14" sqref="CY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="17">
+        <v>43487</v>
+      </c>
+      <c r="D1" s="17">
+        <v>43488</v>
+      </c>
+      <c r="E1" s="17">
+        <v>43489</v>
+      </c>
+      <c r="F1" s="17">
         <v>43493</v>
       </c>
-      <c r="D1" s="19">
+      <c r="G1" s="17">
         <v>43494</v>
       </c>
-      <c r="E1" s="19">
+      <c r="H1" s="17">
         <v>43495</v>
       </c>
-      <c r="F1" s="19">
+      <c r="I1" s="17">
         <v>43496</v>
       </c>
-      <c r="G1" s="19">
+      <c r="J1" s="17">
         <v>43497</v>
       </c>
-      <c r="H1" s="19">
+      <c r="K1" s="17">
         <v>43500</v>
       </c>
-      <c r="I1" s="19">
+      <c r="L1" s="17">
         <v>43501</v>
       </c>
-      <c r="J1" s="19">
+      <c r="M1" s="17">
         <v>43502</v>
       </c>
-      <c r="K1" s="19">
+      <c r="N1" s="17">
         <v>43503</v>
       </c>
-      <c r="L1" s="19">
+      <c r="O1" s="17">
         <v>43504</v>
       </c>
-      <c r="M1" s="19">
+      <c r="P1" s="17">
         <v>43507</v>
       </c>
-      <c r="N1" s="19">
+      <c r="Q1" s="17">
         <v>43508</v>
       </c>
-      <c r="O1" s="19">
+      <c r="R1" s="17">
         <v>43509</v>
       </c>
-      <c r="P1" s="19">
+      <c r="S1" s="17">
         <v>43510</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="T1" s="17">
         <v>43511</v>
       </c>
-      <c r="R1" s="19">
+      <c r="U1" s="17">
         <v>43514</v>
       </c>
-      <c r="S1" s="19">
+      <c r="V1" s="17">
         <v>43515</v>
       </c>
-      <c r="T1" s="19">
+      <c r="W1" s="17">
         <v>43516</v>
       </c>
-      <c r="U1" s="19">
+      <c r="X1" s="17">
         <v>43517</v>
       </c>
-      <c r="V1" s="19">
+      <c r="Y1" s="17">
         <v>43518</v>
       </c>
-      <c r="W1" s="19">
+      <c r="Z1" s="17">
         <v>43521</v>
       </c>
-      <c r="X1" s="19">
+      <c r="AA1" s="17">
         <v>43522</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="AB1" s="17">
         <v>43523</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="AC1" s="17">
         <v>43524</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AD1" s="17">
         <v>43525</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AE1" s="17">
         <v>43531</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AF1" s="17">
         <v>43532</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AG1" s="17">
         <v>43535</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="17">
+        <v>43536</v>
+      </c>
+      <c r="AI1" s="17">
+        <v>43172</v>
+      </c>
+      <c r="AJ1" s="17">
+        <v>43173</v>
+      </c>
+      <c r="AK1" s="17">
+        <v>43174</v>
+      </c>
+      <c r="AL1" s="17">
+        <v>43177</v>
+      </c>
+      <c r="AM1" s="17">
+        <v>43178</v>
+      </c>
+      <c r="AN1" s="17">
+        <v>43179</v>
+      </c>
+      <c r="AO1" s="17">
+        <v>43180</v>
+      </c>
+      <c r="AP1" s="17">
+        <v>43181</v>
+      </c>
+      <c r="AQ1" s="17">
+        <v>43184</v>
+      </c>
+      <c r="AR1" s="17">
+        <v>43185</v>
+      </c>
+      <c r="AS1" s="17">
+        <v>43186</v>
+      </c>
+      <c r="AT1" s="17">
+        <v>43187</v>
+      </c>
+      <c r="AU1" s="17">
+        <v>43188</v>
+      </c>
+      <c r="AV1" s="17">
+        <v>43191</v>
+      </c>
+      <c r="AW1" s="17">
+        <v>43192</v>
+      </c>
+      <c r="AX1" s="17">
+        <v>43193</v>
+      </c>
+      <c r="AY1" s="17">
+        <v>43194</v>
+      </c>
+      <c r="AZ1" s="17">
+        <v>43195</v>
+      </c>
+      <c r="BA1" s="17">
+        <v>43198</v>
+      </c>
+      <c r="BB1" s="17">
+        <v>43199</v>
+      </c>
+      <c r="BC1" s="17">
+        <v>43200</v>
+      </c>
+      <c r="BD1" s="17">
+        <v>43201</v>
+      </c>
+      <c r="BE1" s="17">
+        <v>43202</v>
+      </c>
+      <c r="BF1" s="17">
+        <v>43205</v>
+      </c>
+      <c r="BG1" s="17">
+        <v>43206</v>
+      </c>
+      <c r="BH1" s="17">
+        <v>43207</v>
+      </c>
+      <c r="BI1" s="17">
+        <v>43208</v>
+      </c>
+      <c r="BJ1" s="17">
+        <v>43209</v>
+      </c>
+      <c r="BK1" s="17">
+        <v>43212</v>
+      </c>
+      <c r="BL1" s="17">
+        <v>43213</v>
+      </c>
+      <c r="BM1" s="17">
+        <v>43214</v>
+      </c>
+      <c r="BN1" s="17">
+        <v>43215</v>
+      </c>
+      <c r="BO1" s="17">
+        <v>43216</v>
+      </c>
+      <c r="BP1" s="17">
+        <v>43219</v>
+      </c>
+      <c r="BQ1" s="17">
+        <v>43220</v>
+      </c>
+      <c r="BR1" s="17">
+        <v>43222</v>
+      </c>
+      <c r="BS1" s="17">
+        <v>43223</v>
+      </c>
+      <c r="BT1" s="17">
+        <v>43226</v>
+      </c>
+      <c r="BU1" s="17">
+        <v>43227</v>
+      </c>
+      <c r="BV1" s="17">
+        <v>43228</v>
+      </c>
+      <c r="BW1" s="17">
+        <v>43229</v>
+      </c>
+      <c r="BX1" s="17">
+        <v>43230</v>
+      </c>
+      <c r="BY1" s="17">
+        <v>43233</v>
+      </c>
+      <c r="BZ1" s="17">
+        <v>43234</v>
+      </c>
+      <c r="CA1" s="17">
+        <v>43235</v>
+      </c>
+      <c r="CB1" s="17">
+        <v>43236</v>
+      </c>
+      <c r="CC1" s="17">
+        <v>43237</v>
+      </c>
+      <c r="CD1" s="17">
+        <v>43240</v>
+      </c>
+      <c r="CE1" s="17">
+        <v>43241</v>
+      </c>
+      <c r="CF1" s="17">
+        <v>43242</v>
+      </c>
+      <c r="CG1" s="17">
+        <v>43243</v>
+      </c>
+      <c r="CH1" s="17">
+        <v>43244</v>
+      </c>
+      <c r="CI1" s="17">
+        <v>43247</v>
+      </c>
+      <c r="CJ1" s="17">
+        <v>43248</v>
+      </c>
+      <c r="CK1" s="17">
+        <v>43249</v>
+      </c>
+      <c r="CL1" s="17">
+        <v>43250</v>
+      </c>
+      <c r="CM1" s="17">
+        <v>43251</v>
+      </c>
+      <c r="CN1" s="17">
+        <v>43254</v>
+      </c>
+      <c r="CO1" s="17">
+        <v>43255</v>
+      </c>
+      <c r="CP1" s="17">
+        <v>43256</v>
+      </c>
+      <c r="CQ1" s="17">
+        <v>43257</v>
+      </c>
+      <c r="CR1" s="17">
+        <v>43258</v>
+      </c>
+      <c r="CS1" s="17">
+        <v>43261</v>
+      </c>
+      <c r="CT1" s="17">
+        <v>43262</v>
+      </c>
+      <c r="CU1" s="17">
+        <v>43263</v>
+      </c>
+      <c r="CV1" s="17">
+        <v>43264</v>
+      </c>
+      <c r="CW1" s="17">
+        <v>43265</v>
+      </c>
+      <c r="CX1" s="17">
+        <v>43268</v>
+      </c>
+      <c r="CY1" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4">
         <v>1202452</v>
       </c>
-      <c r="C2" s="10">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
+      <c r="C2" s="39">
+        <v>5</v>
+      </c>
+      <c r="D2" s="39">
+        <v>5</v>
+      </c>
+      <c r="E2" s="39">
+        <v>5</v>
       </c>
       <c r="F2" s="10">
         <v>5</v>
@@ -3640,8 +4701,8 @@
       <c r="G2" s="10">
         <v>5</v>
       </c>
-      <c r="H2" s="10">
-        <v>5</v>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="I2" s="10">
         <v>5</v>
@@ -3709,21 +4770,34 @@
       <c r="AD2" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY2" s="10">
+        <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="12">
         <v>1202453</v>
       </c>
-      <c r="C3" s="13">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="38">
+        <v>5</v>
+      </c>
+      <c r="D3" s="38">
+        <v>5</v>
+      </c>
+      <c r="E3" s="38">
         <v>5</v>
       </c>
       <c r="F3" s="13">
@@ -3801,46 +4875,59 @@
       <c r="AD3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY3" s="13">
+        <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4">
         <v>1202454</v>
       </c>
-      <c r="C4" s="10">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5</v>
+      <c r="C4" s="39">
+        <v>5</v>
+      </c>
+      <c r="D4" s="39">
+        <v>5</v>
+      </c>
+      <c r="E4" s="39">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="J4" s="10">
         <v>5</v>
       </c>
-      <c r="K4" s="10">
-        <v>5</v>
+      <c r="K4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="L4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="10">
         <v>5</v>
@@ -3849,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="10">
         <v>5</v>
@@ -3857,20 +4944,20 @@
       <c r="R4" s="10">
         <v>4</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>44</v>
+      <c r="S4" s="10">
+        <v>5</v>
       </c>
       <c r="T4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4" s="10">
-        <v>5</v>
-      </c>
-      <c r="V4" s="10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="W4" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4" s="10">
         <v>5</v>
@@ -3879,35 +4966,48 @@
         <v>5</v>
       </c>
       <c r="Z4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="10">
         <v>5</v>
       </c>
       <c r="AB4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY4" s="10">
+        <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="12">
         <v>1202455</v>
       </c>
-      <c r="C5" s="13">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13">
-        <v>5</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C5" s="38">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38">
+        <v>5</v>
+      </c>
+      <c r="E5" s="38">
         <v>5</v>
       </c>
       <c r="F5" s="13">
@@ -3985,34 +5085,47 @@
       <c r="AD5" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY5" s="13">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4">
         <v>1202456</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="39">
+        <v>5</v>
+      </c>
+      <c r="D6" s="39">
+        <v>5</v>
+      </c>
+      <c r="E6" s="39">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="10">
-        <v>5</v>
+      <c r="G6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="10">
-        <v>5</v>
+      <c r="I6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="J6" s="10">
         <v>5</v>
@@ -4038,8 +5151,8 @@
       <c r="Q6" s="10">
         <v>5</v>
       </c>
-      <c r="R6" s="10" t="s">
-        <v>44</v>
+      <c r="R6" s="10">
+        <v>5</v>
       </c>
       <c r="S6" s="10">
         <v>5</v>
@@ -4053,23 +5166,23 @@
       <c r="V6" s="10">
         <v>5</v>
       </c>
-      <c r="W6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="10">
-        <v>5</v>
+      <c r="W6" s="10">
+        <v>5</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y6" s="10">
         <v>5</v>
       </c>
-      <c r="Z6" s="10">
-        <v>5</v>
+      <c r="Z6" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="AA6" s="10">
         <v>5</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>44</v>
+      <c r="AB6" s="10">
+        <v>5</v>
       </c>
       <c r="AC6" s="10">
         <v>5</v>
@@ -4077,21 +5190,34 @@
       <c r="AD6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY6" s="10">
+        <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="12">
         <v>1202457</v>
       </c>
-      <c r="C7" s="13">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="38">
+        <v>5</v>
+      </c>
+      <c r="D7" s="38">
+        <v>5</v>
+      </c>
+      <c r="E7" s="38">
         <v>5</v>
       </c>
       <c r="F7" s="13">
@@ -4131,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="R7" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" s="13">
         <v>5</v>
@@ -4140,7 +5266,7 @@
         <v>5</v>
       </c>
       <c r="U7" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" s="13">
         <v>5</v>
@@ -4155,35 +5281,48 @@
         <v>5</v>
       </c>
       <c r="Z7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="13">
         <v>3</v>
       </c>
-      <c r="AA7" s="13">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>5</v>
-      </c>
       <c r="AD7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY7" s="13">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4">
         <v>1202458</v>
       </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="39">
+        <v>5</v>
+      </c>
+      <c r="D8" s="39">
+        <v>5</v>
+      </c>
+      <c r="E8" s="39">
         <v>5</v>
       </c>
       <c r="F8" s="10">
@@ -4205,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="10">
         <v>5</v>
@@ -4213,8 +5352,8 @@
       <c r="N8" s="10">
         <v>5</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>44</v>
+      <c r="O8" s="10">
+        <v>4</v>
       </c>
       <c r="P8" s="10">
         <v>5</v>
@@ -4222,8 +5361,8 @@
       <c r="Q8" s="10">
         <v>5</v>
       </c>
-      <c r="R8" s="10">
-        <v>5</v>
+      <c r="R8" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="S8" s="10">
         <v>5</v>
@@ -4231,8 +5370,8 @@
       <c r="T8" s="10">
         <v>5</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>44</v>
+      <c r="U8" s="10">
+        <v>5</v>
       </c>
       <c r="V8" s="10">
         <v>5</v>
@@ -4240,8 +5379,8 @@
       <c r="W8" s="10">
         <v>5</v>
       </c>
-      <c r="X8" s="10">
-        <v>5</v>
+      <c r="X8" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Y8" s="10">
         <v>5</v>
@@ -4261,21 +5400,34 @@
       <c r="AD8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY8" s="10">
+        <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="12">
         <v>1202459</v>
       </c>
-      <c r="C9" s="13">
-        <v>5</v>
-      </c>
-      <c r="D9" s="13">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="C9" s="38">
+        <v>5</v>
+      </c>
+      <c r="D9" s="38">
+        <v>5</v>
+      </c>
+      <c r="E9" s="38">
         <v>5</v>
       </c>
       <c r="F9" s="13">
@@ -4350,77 +5502,48 @@
       <c r="AC9" s="13">
         <v>5</v>
       </c>
-      <c r="AD9" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="AD9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY9" s="13">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="20">
         <v>1202460</v>
       </c>
-      <c r="C10" s="29">
-        <v>5</v>
-      </c>
-      <c r="D10" s="29">
-        <v>5</v>
-      </c>
-      <c r="E10" s="29">
-        <v>5</v>
-      </c>
-      <c r="F10" s="29">
-        <v>5</v>
-      </c>
-      <c r="G10" s="29">
-        <v>5</v>
-      </c>
-      <c r="H10" s="29">
-        <v>5</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="29">
-        <v>5</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="29">
-        <v>4</v>
-      </c>
-      <c r="M10" s="29">
-        <v>4</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="29">
-        <v>4</v>
-      </c>
-      <c r="P10" s="29">
-        <v>5</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="16">
         <v>1202461</v>
       </c>
-      <c r="C11" s="13">
-        <v>5</v>
-      </c>
-      <c r="D11" s="13">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="C11" s="38">
+        <v>5</v>
+      </c>
+      <c r="D11" s="38">
+        <v>5</v>
+      </c>
+      <c r="E11" s="38">
         <v>5</v>
       </c>
       <c r="F11" s="13">
@@ -4465,8 +5588,8 @@
       <c r="S11" s="13">
         <v>5</v>
       </c>
-      <c r="T11" s="13" t="s">
-        <v>44</v>
+      <c r="T11" s="13">
+        <v>5</v>
       </c>
       <c r="U11" s="13">
         <v>5</v>
@@ -4477,42 +5600,55 @@
       <c r="W11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="13" t="s">
-        <v>44</v>
+      <c r="X11" s="13">
+        <v>5</v>
       </c>
       <c r="Y11" s="13">
         <v>5</v>
       </c>
-      <c r="Z11" s="13">
-        <v>5</v>
+      <c r="Z11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>44</v>
+      <c r="AB11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>5</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY11" s="13">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="4">
         <v>1202462</v>
       </c>
-      <c r="C12" s="10">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>5</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="C12" s="39">
+        <v>5</v>
+      </c>
+      <c r="D12" s="39">
+        <v>5</v>
+      </c>
+      <c r="E12" s="39">
         <v>5</v>
       </c>
       <c r="F12" s="10">
@@ -4534,7 +5670,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" s="10">
         <v>5</v>
@@ -4552,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="R12" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" s="10">
         <v>5</v>
@@ -4569,11 +5705,11 @@
       <c r="W12" s="10">
         <v>5</v>
       </c>
-      <c r="X12" s="10" t="s">
-        <v>44</v>
+      <c r="X12" s="10">
+        <v>5</v>
       </c>
       <c r="Y12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="10">
         <v>5</v>
@@ -4582,7 +5718,7 @@
         <v>44</v>
       </c>
       <c r="AB12" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC12" s="10">
         <v>5</v>
@@ -4590,21 +5726,34 @@
       <c r="AD12" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY12" s="10">
+        <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="12">
         <v>1202463</v>
       </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="C13" s="38">
+        <v>5</v>
+      </c>
+      <c r="D13" s="38">
+        <v>5</v>
+      </c>
+      <c r="E13" s="38">
         <v>5</v>
       </c>
       <c r="F13" s="13">
@@ -4619,8 +5768,8 @@
       <c r="I13" s="13">
         <v>5</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>44</v>
+      <c r="J13" s="13">
+        <v>5</v>
       </c>
       <c r="K13" s="13">
         <v>5</v>
@@ -4628,8 +5777,8 @@
       <c r="L13" s="13">
         <v>5</v>
       </c>
-      <c r="M13" s="13">
-        <v>5</v>
+      <c r="M13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="N13" s="13">
         <v>5</v>
@@ -4641,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="Q13" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" s="13">
         <v>5</v>
@@ -4650,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="T13" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13" s="13">
         <v>5</v>
@@ -4667,64 +5816,51 @@
       <c r="Y13" s="13">
         <v>5</v>
       </c>
-      <c r="Z13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>44</v>
+      <c r="Z13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>5</v>
       </c>
       <c r="AB13" s="13">
         <v>5</v>
       </c>
-      <c r="AC13" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY13" s="13">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>1202465</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="V14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -4776,8 +5912,8 @@
       <c r="Q15" s="10">
         <v>5</v>
       </c>
-      <c r="R15" s="10" t="s">
-        <v>44</v>
+      <c r="R15" s="10">
+        <v>5</v>
       </c>
       <c r="S15" s="10">
         <v>5</v>
@@ -4785,8 +5921,8 @@
       <c r="T15" s="10">
         <v>5</v>
       </c>
-      <c r="U15" s="10">
-        <v>5</v>
+      <c r="U15" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="V15" s="10">
         <v>5</v>
@@ -4806,17 +5942,30 @@
       <c r="AA15" s="10">
         <v>5</v>
       </c>
-      <c r="AB15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY15" s="10">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -4826,8 +5975,8 @@
       <c r="C16" s="13">
         <v>5</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>44</v>
+      <c r="D16" s="13">
+        <v>5</v>
       </c>
       <c r="E16" s="13">
         <v>5</v>
@@ -4835,8 +5984,8 @@
       <c r="F16" s="13">
         <v>5</v>
       </c>
-      <c r="G16" s="13">
-        <v>5</v>
+      <c r="G16" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="13">
         <v>5</v>
@@ -4844,8 +5993,8 @@
       <c r="I16" s="13">
         <v>5</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>44</v>
+      <c r="J16" s="13">
+        <v>5</v>
       </c>
       <c r="K16" s="13">
         <v>5</v>
@@ -4853,8 +6002,8 @@
       <c r="L16" s="13">
         <v>5</v>
       </c>
-      <c r="M16" s="13">
-        <v>5</v>
+      <c r="M16" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="N16" s="13">
         <v>5</v>
@@ -4896,7 +6045,7 @@
         <v>5</v>
       </c>
       <c r="AA16" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="13">
         <v>5</v>
@@ -4904,11 +6053,24 @@
       <c r="AC16" s="13">
         <v>5</v>
       </c>
-      <c r="AD16" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY16" s="13">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -4936,20 +6098,20 @@
       <c r="I17" s="10">
         <v>5</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>44</v>
+      <c r="J17" s="10">
+        <v>5</v>
       </c>
       <c r="K17" s="10">
         <v>5</v>
       </c>
       <c r="L17" s="10">
-        <v>4</v>
-      </c>
-      <c r="M17" s="10">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="N17" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17" s="10">
         <v>4</v>
@@ -4958,31 +6120,31 @@
         <v>4</v>
       </c>
       <c r="Q17" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U17" s="10">
         <v>5</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>44</v>
+      <c r="V17" s="10">
+        <v>5</v>
       </c>
       <c r="W17" s="10">
         <v>4</v>
       </c>
-      <c r="X17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>5</v>
+      <c r="X17" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="Z17" s="10">
         <v>4</v>
@@ -4990,17 +6152,30 @@
       <c r="AA17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY17" s="10">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -5073,8 +6248,8 @@
       <c r="X18" s="13">
         <v>5</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>44</v>
+      <c r="Y18" s="13">
+        <v>5</v>
       </c>
       <c r="Z18" s="13">
         <v>5</v>
@@ -5082,8 +6257,8 @@
       <c r="AA18" s="13">
         <v>5</v>
       </c>
-      <c r="AB18" s="13">
-        <v>5</v>
+      <c r="AB18" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AC18" s="13">
         <v>5</v>
@@ -5091,16 +6266,29 @@
       <c r="AD18" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY18" s="13">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="4">
         <v>1202473</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
+      <c r="C19" s="10">
+        <v>5</v>
       </c>
       <c r="D19" s="10">
         <v>5</v>
@@ -5108,11 +6296,11 @@
       <c r="E19" s="10">
         <v>5</v>
       </c>
-      <c r="F19" s="10">
-        <v>5</v>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="10">
         <v>5</v>
@@ -5121,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="10">
         <v>5</v>
@@ -5136,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="O19" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" s="10">
         <v>5</v>
@@ -5144,8 +6332,8 @@
       <c r="Q19" s="10">
         <v>5</v>
       </c>
-      <c r="R19" s="10" t="s">
-        <v>44</v>
+      <c r="R19" s="10">
+        <v>4</v>
       </c>
       <c r="S19" s="10">
         <v>5</v>
@@ -5153,8 +6341,8 @@
       <c r="T19" s="10">
         <v>5</v>
       </c>
-      <c r="U19" s="10">
-        <v>5</v>
+      <c r="U19" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="V19" s="10">
         <v>5</v>
@@ -5162,8 +6350,8 @@
       <c r="W19" s="10">
         <v>5</v>
       </c>
-      <c r="X19" s="10" t="s">
-        <v>44</v>
+      <c r="X19" s="10">
+        <v>5</v>
       </c>
       <c r="Y19" s="10">
         <v>5</v>
@@ -5171,8 +6359,8 @@
       <c r="Z19" s="10">
         <v>5</v>
       </c>
-      <c r="AA19" s="10">
-        <v>5</v>
+      <c r="AA19" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="AB19" s="10">
         <v>5</v>
@@ -5183,16 +6371,29 @@
       <c r="AD19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY19" s="10">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="12">
         <v>1202474</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>44</v>
+      <c r="C20" s="13">
+        <v>5</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
@@ -5200,11 +6401,11 @@
       <c r="E20" s="13">
         <v>5</v>
       </c>
-      <c r="F20" s="13">
-        <v>5</v>
+      <c r="F20" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="G20" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="13">
         <v>5</v>
@@ -5213,7 +6414,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" s="13">
         <v>5</v>
@@ -5228,22 +6429,22 @@
         <v>5</v>
       </c>
       <c r="O20" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="13">
         <v>5</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>44</v>
+      <c r="Q20" s="13">
+        <v>5</v>
       </c>
       <c r="R20" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" s="13">
         <v>5</v>
       </c>
-      <c r="T20" s="13">
-        <v>5</v>
+      <c r="T20" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="U20" s="13">
         <v>5</v>
@@ -5263,8 +6464,8 @@
       <c r="Z20" s="13">
         <v>5</v>
       </c>
-      <c r="AA20" s="13" t="s">
-        <v>44</v>
+      <c r="AA20" s="13">
+        <v>5</v>
       </c>
       <c r="AB20" s="13">
         <v>5</v>
@@ -5272,11 +6473,24 @@
       <c r="AC20" s="13">
         <v>5</v>
       </c>
-      <c r="AD20" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY20" s="13">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -5304,8 +6518,8 @@
       <c r="I21" s="10">
         <v>5</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>44</v>
+      <c r="J21" s="10">
+        <v>5</v>
       </c>
       <c r="K21" s="10">
         <v>5</v>
@@ -5313,8 +6527,8 @@
       <c r="L21" s="10">
         <v>5</v>
       </c>
-      <c r="M21" s="10">
-        <v>5</v>
+      <c r="M21" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="N21" s="10">
         <v>5</v>
@@ -5355,20 +6569,33 @@
       <c r="Z21" s="10">
         <v>5</v>
       </c>
-      <c r="AA21" s="10" t="s">
-        <v>44</v>
+      <c r="AA21" s="10">
+        <v>5</v>
       </c>
       <c r="AB21" s="10">
         <v>5</v>
       </c>
-      <c r="AC21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD21" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY21" s="10">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -5459,8 +6686,21 @@
       <c r="AD22" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CY22" s="13">
+        <f>SUM(C22:CX22)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5485,8 +6725,8 @@
       <c r="H23" s="10">
         <v>5</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>44</v>
+      <c r="I23" s="10">
+        <v>5</v>
       </c>
       <c r="J23" s="10">
         <v>5</v>
@@ -5494,8 +6734,8 @@
       <c r="K23" s="10">
         <v>5</v>
       </c>
-      <c r="L23" s="10">
-        <v>4</v>
+      <c r="L23" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="M23" s="10">
         <v>5</v>
@@ -5504,13 +6744,13 @@
         <v>5</v>
       </c>
       <c r="O23" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23" s="10">
         <v>5</v>
       </c>
       <c r="Q23" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" s="10">
         <v>5</v>
@@ -5519,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="T23" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23" s="10">
         <v>5</v>
@@ -5528,28 +6768,350 @@
         <v>5</v>
       </c>
       <c r="W23" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X23" s="10">
         <v>5</v>
       </c>
-      <c r="Y23" s="10" t="s">
-        <v>44</v>
+      <c r="Y23" s="10">
+        <v>5</v>
       </c>
       <c r="Z23" s="10">
         <v>4</v>
       </c>
       <c r="AA23" s="10">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="10">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="AC23" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD23" s="10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CY23" s="10">
+        <f>SUM(C23:CX23)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:103" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="36">
+        <v>5</v>
+      </c>
+      <c r="D24" s="36">
+        <v>5</v>
+      </c>
+      <c r="E24" s="36">
+        <v>5</v>
+      </c>
+      <c r="F24" s="36">
+        <v>5</v>
+      </c>
+      <c r="G24" s="36">
+        <v>5</v>
+      </c>
+      <c r="H24" s="36">
+        <v>5</v>
+      </c>
+      <c r="I24" s="36">
+        <v>5</v>
+      </c>
+      <c r="J24" s="36">
+        <v>5</v>
+      </c>
+      <c r="K24" s="36">
+        <v>5</v>
+      </c>
+      <c r="L24" s="36">
+        <v>5</v>
+      </c>
+      <c r="M24" s="36">
+        <v>5</v>
+      </c>
+      <c r="N24" s="36">
+        <v>5</v>
+      </c>
+      <c r="O24" s="36">
+        <v>5</v>
+      </c>
+      <c r="P24" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>5</v>
+      </c>
+      <c r="R24" s="36">
+        <v>5</v>
+      </c>
+      <c r="S24" s="36">
+        <v>5</v>
+      </c>
+      <c r="T24" s="36">
+        <v>5</v>
+      </c>
+      <c r="U24" s="36">
+        <v>5</v>
+      </c>
+      <c r="V24" s="36">
+        <v>5</v>
+      </c>
+      <c r="W24" s="36">
+        <v>5</v>
+      </c>
+      <c r="X24" s="36">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="36">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AV24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AX24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BA24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BB24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BE24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BG24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BH24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BI24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BJ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BK24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BL24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BM24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BN24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BO24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BP24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BQ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BR24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BS24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BT24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BU24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BV24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BW24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BX24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BY24" s="36">
+        <v>5</v>
+      </c>
+      <c r="BZ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CA24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CB24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CC24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CD24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CE24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CG24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CH24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CI24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CJ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CK24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CL24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CM24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CN24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CO24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CP24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CQ24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CR24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CS24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CT24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CU24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CV24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CW24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CX24" s="36">
+        <v>5</v>
+      </c>
+      <c r="CY24" s="36">
+        <f>SUM(C24:CX24)</f>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5581,522 +7143,522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="L1" s="41" t="s">
+      <c r="G1" s="35"/>
+      <c r="L1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="41"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="L5" s="30" t="s">
+      <c r="G5" s="29"/>
+      <c r="L5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="42"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="29" t="s">
         <v>68</v>
       </c>
     </row>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -565,6 +565,18 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,18 +587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +872,8 @@
   <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,13 +1203,13 @@
       <c r="B2" s="3">
         <v>1022452</v>
       </c>
-      <c r="C2" s="37">
-        <v>5</v>
-      </c>
-      <c r="D2" s="37">
-        <v>5</v>
-      </c>
-      <c r="E2" s="37">
+      <c r="C2" s="33">
+        <v>5</v>
+      </c>
+      <c r="D2" s="33">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
         <v>5</v>
       </c>
       <c r="F2" s="9">
@@ -1311,13 +1311,13 @@
       <c r="B3" s="12">
         <v>1022453</v>
       </c>
-      <c r="C3" s="38">
-        <v>5</v>
-      </c>
-      <c r="D3" s="38">
-        <v>5</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="C3" s="34">
+        <v>5</v>
+      </c>
+      <c r="D3" s="34">
+        <v>5</v>
+      </c>
+      <c r="E3" s="34">
         <v>5</v>
       </c>
       <c r="F3" s="13">
@@ -1419,13 +1419,13 @@
       <c r="B4" s="3">
         <v>1022454</v>
       </c>
-      <c r="C4" s="37">
-        <v>5</v>
-      </c>
-      <c r="D4" s="37">
-        <v>5</v>
-      </c>
-      <c r="E4" s="37">
+      <c r="C4" s="33">
+        <v>5</v>
+      </c>
+      <c r="D4" s="33">
+        <v>5</v>
+      </c>
+      <c r="E4" s="33">
         <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1527,13 +1527,13 @@
       <c r="B5" s="12">
         <v>1022455</v>
       </c>
-      <c r="C5" s="38">
-        <v>5</v>
-      </c>
-      <c r="D5" s="38">
-        <v>5</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="C5" s="34">
+        <v>5</v>
+      </c>
+      <c r="D5" s="34">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34">
         <v>5</v>
       </c>
       <c r="F5" s="13">
@@ -1635,13 +1635,13 @@
       <c r="B6" s="3">
         <v>1022456</v>
       </c>
-      <c r="C6" s="37">
-        <v>5</v>
-      </c>
-      <c r="D6" s="37">
-        <v>5</v>
-      </c>
-      <c r="E6" s="37">
+      <c r="C6" s="33">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>5</v>
+      </c>
+      <c r="E6" s="33">
         <v>5</v>
       </c>
       <c r="F6" s="9">
@@ -1743,13 +1743,13 @@
       <c r="B7" s="12">
         <v>1022457</v>
       </c>
-      <c r="C7" s="38">
-        <v>5</v>
-      </c>
-      <c r="D7" s="38">
-        <v>5</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="C7" s="34">
+        <v>5</v>
+      </c>
+      <c r="D7" s="34">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34">
         <v>5</v>
       </c>
       <c r="F7" s="13">
@@ -1851,13 +1851,13 @@
       <c r="B8" s="3">
         <v>1022458</v>
       </c>
-      <c r="C8" s="37">
-        <v>5</v>
-      </c>
-      <c r="D8" s="37">
-        <v>5</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="C8" s="33">
+        <v>5</v>
+      </c>
+      <c r="D8" s="33">
+        <v>5</v>
+      </c>
+      <c r="E8" s="33">
         <v>5</v>
       </c>
       <c r="F8" s="9">
@@ -1967,13 +1967,13 @@
       <c r="B10" s="3">
         <v>1022460</v>
       </c>
-      <c r="C10" s="37">
-        <v>5</v>
-      </c>
-      <c r="D10" s="37">
-        <v>5</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="C10" s="33">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33">
+        <v>5</v>
+      </c>
+      <c r="E10" s="33">
         <v>5</v>
       </c>
       <c r="F10" s="9">
@@ -2075,13 +2075,13 @@
       <c r="B11" s="12">
         <v>1022461</v>
       </c>
-      <c r="C11" s="38">
-        <v>5</v>
-      </c>
-      <c r="D11" s="38">
-        <v>5</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34">
+        <v>5</v>
+      </c>
+      <c r="E11" s="34">
         <v>5</v>
       </c>
       <c r="F11" s="13">
@@ -2168,12 +2168,12 @@
       <c r="AG11" s="13">
         <v>5</v>
       </c>
-      <c r="AH11" s="13" t="s">
-        <v>44</v>
+      <c r="AH11" s="13">
+        <v>3</v>
       </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2183,13 +2183,13 @@
       <c r="B12" s="3">
         <v>1022462</v>
       </c>
-      <c r="C12" s="37">
-        <v>5</v>
-      </c>
-      <c r="D12" s="37">
-        <v>5</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="C12" s="33">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33">
+        <v>5</v>
+      </c>
+      <c r="E12" s="33">
         <v>5</v>
       </c>
       <c r="F12" s="9">
@@ -2291,13 +2291,13 @@
       <c r="B13" s="12">
         <v>1022463</v>
       </c>
-      <c r="C13" s="38">
-        <v>5</v>
-      </c>
-      <c r="D13" s="38">
-        <v>5</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
+        <v>5</v>
+      </c>
+      <c r="E13" s="34">
         <v>5</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -2399,13 +2399,13 @@
       <c r="B14" s="3">
         <v>1022464</v>
       </c>
-      <c r="C14" s="37">
-        <v>5</v>
-      </c>
-      <c r="D14" s="37">
-        <v>5</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33">
+        <v>5</v>
+      </c>
+      <c r="E14" s="33">
         <v>5</v>
       </c>
       <c r="F14" s="9">
@@ -2507,13 +2507,13 @@
       <c r="B15" s="12">
         <v>1022465</v>
       </c>
-      <c r="C15" s="38">
-        <v>5</v>
-      </c>
-      <c r="D15" s="38">
-        <v>5</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="C15" s="34">
+        <v>5</v>
+      </c>
+      <c r="D15" s="34">
+        <v>5</v>
+      </c>
+      <c r="E15" s="34">
         <v>5</v>
       </c>
       <c r="F15" s="13">
@@ -2615,13 +2615,13 @@
       <c r="B16" s="3">
         <v>1022466</v>
       </c>
-      <c r="C16" s="37">
-        <v>5</v>
-      </c>
-      <c r="D16" s="37">
-        <v>5</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="C16" s="33">
+        <v>5</v>
+      </c>
+      <c r="D16" s="33">
+        <v>5</v>
+      </c>
+      <c r="E16" s="33">
         <v>5</v>
       </c>
       <c r="F16" s="9">
@@ -2723,13 +2723,13 @@
       <c r="B17" s="12">
         <v>1022467</v>
       </c>
-      <c r="C17" s="38">
-        <v>5</v>
-      </c>
-      <c r="D17" s="38">
-        <v>5</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="C17" s="34">
+        <v>5</v>
+      </c>
+      <c r="D17" s="34">
+        <v>5</v>
+      </c>
+      <c r="E17" s="34">
         <v>5</v>
       </c>
       <c r="F17" s="13">
@@ -2831,13 +2831,13 @@
       <c r="B18" s="3">
         <v>1022472</v>
       </c>
-      <c r="C18" s="37">
-        <v>5</v>
-      </c>
-      <c r="D18" s="37">
-        <v>5</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="C18" s="33">
+        <v>5</v>
+      </c>
+      <c r="D18" s="33">
+        <v>5</v>
+      </c>
+      <c r="E18" s="33">
         <v>5</v>
       </c>
       <c r="F18" s="9">
@@ -2939,13 +2939,13 @@
       <c r="B19" s="12">
         <v>1022473</v>
       </c>
-      <c r="C19" s="38">
-        <v>5</v>
-      </c>
-      <c r="D19" s="38">
-        <v>5</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="C19" s="34">
+        <v>5</v>
+      </c>
+      <c r="D19" s="34">
+        <v>5</v>
+      </c>
+      <c r="E19" s="34">
         <v>5</v>
       </c>
       <c r="F19" s="13">
@@ -3047,13 +3047,13 @@
       <c r="B20" s="3">
         <v>1022474</v>
       </c>
-      <c r="C20" s="37">
-        <v>5</v>
-      </c>
-      <c r="D20" s="37">
-        <v>5</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="C20" s="33">
+        <v>5</v>
+      </c>
+      <c r="D20" s="33">
+        <v>5</v>
+      </c>
+      <c r="E20" s="33">
         <v>5</v>
       </c>
       <c r="F20" s="9">
@@ -3155,13 +3155,13 @@
       <c r="B21" s="12">
         <v>1022475</v>
       </c>
-      <c r="C21" s="38">
-        <v>5</v>
-      </c>
-      <c r="D21" s="38">
-        <v>5</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="C21" s="34">
+        <v>5</v>
+      </c>
+      <c r="D21" s="34">
+        <v>5</v>
+      </c>
+      <c r="E21" s="34">
         <v>5</v>
       </c>
       <c r="F21" s="13">
@@ -3263,13 +3263,13 @@
       <c r="B22" s="3">
         <v>1022476</v>
       </c>
-      <c r="C22" s="37">
-        <v>5</v>
-      </c>
-      <c r="D22" s="37">
-        <v>5</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="C22" s="33">
+        <v>5</v>
+      </c>
+      <c r="D22" s="33">
+        <v>5</v>
+      </c>
+      <c r="E22" s="33">
         <v>5</v>
       </c>
       <c r="F22" s="9">
@@ -3371,13 +3371,13 @@
       <c r="B23" s="15">
         <v>1022481</v>
       </c>
-      <c r="C23" s="38">
-        <v>5</v>
-      </c>
-      <c r="D23" s="38">
-        <v>5</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="C23" s="34">
+        <v>5</v>
+      </c>
+      <c r="D23" s="34">
+        <v>5</v>
+      </c>
+      <c r="E23" s="34">
         <v>5</v>
       </c>
       <c r="F23" s="13">
@@ -3473,308 +3473,308 @@
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36">
-        <v>5</v>
-      </c>
-      <c r="D24" s="36">
-        <v>5</v>
-      </c>
-      <c r="E24" s="36">
-        <v>5</v>
-      </c>
-      <c r="F24" s="36">
-        <v>5</v>
-      </c>
-      <c r="G24" s="36">
-        <v>5</v>
-      </c>
-      <c r="H24" s="36">
-        <v>5</v>
-      </c>
-      <c r="I24" s="36">
-        <v>5</v>
-      </c>
-      <c r="J24" s="36">
-        <v>5</v>
-      </c>
-      <c r="K24" s="36">
-        <v>5</v>
-      </c>
-      <c r="L24" s="36">
-        <v>5</v>
-      </c>
-      <c r="M24" s="36">
-        <v>5</v>
-      </c>
-      <c r="N24" s="36">
-        <v>5</v>
-      </c>
-      <c r="O24" s="36">
-        <v>5</v>
-      </c>
-      <c r="P24" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>5</v>
-      </c>
-      <c r="R24" s="36">
-        <v>5</v>
-      </c>
-      <c r="S24" s="36">
-        <v>5</v>
-      </c>
-      <c r="T24" s="36">
-        <v>5</v>
-      </c>
-      <c r="U24" s="36">
-        <v>5</v>
-      </c>
-      <c r="V24" s="36">
-        <v>5</v>
-      </c>
-      <c r="W24" s="36">
-        <v>5</v>
-      </c>
-      <c r="X24" s="36">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="36">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AH24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AI24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AK24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AL24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AM24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AN24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AP24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AQ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AR24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AS24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AT24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AU24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AV24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AW24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AX24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AY24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AZ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BA24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BB24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BC24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BD24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BE24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BF24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BG24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BH24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BI24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BJ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BK24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BL24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BM24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BN24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BO24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BP24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BQ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BR24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BS24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BT24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BU24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BV24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BW24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BX24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BY24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BZ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CA24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CB24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CC24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CD24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CE24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CF24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CG24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CH24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CI24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CJ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CK24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CL24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CM24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CN24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CO24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CP24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CQ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CR24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CS24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CT24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CU24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CV24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CW24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CX24" s="36">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32">
+        <v>5</v>
+      </c>
+      <c r="E24" s="32">
+        <v>5</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5</v>
+      </c>
+      <c r="G24" s="32">
+        <v>5</v>
+      </c>
+      <c r="H24" s="32">
+        <v>5</v>
+      </c>
+      <c r="I24" s="32">
+        <v>5</v>
+      </c>
+      <c r="J24" s="32">
+        <v>5</v>
+      </c>
+      <c r="K24" s="32">
+        <v>5</v>
+      </c>
+      <c r="L24" s="32">
+        <v>5</v>
+      </c>
+      <c r="M24" s="32">
+        <v>5</v>
+      </c>
+      <c r="N24" s="32">
+        <v>5</v>
+      </c>
+      <c r="O24" s="32">
+        <v>5</v>
+      </c>
+      <c r="P24" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>5</v>
+      </c>
+      <c r="R24" s="32">
+        <v>5</v>
+      </c>
+      <c r="S24" s="32">
+        <v>5</v>
+      </c>
+      <c r="T24" s="32">
+        <v>5</v>
+      </c>
+      <c r="U24" s="32">
+        <v>5</v>
+      </c>
+      <c r="V24" s="32">
+        <v>5</v>
+      </c>
+      <c r="W24" s="32">
+        <v>5</v>
+      </c>
+      <c r="X24" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AV24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AX24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BA24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BB24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BE24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BF24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BG24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BH24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BI24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BJ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BK24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BL24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BM24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BN24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BO24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BP24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BQ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BR24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BS24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BT24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BU24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BV24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BW24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BX24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BY24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BZ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CA24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CB24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CC24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CD24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CE24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CF24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CG24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CH24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CI24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CJ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CK24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CL24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CM24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CN24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CO24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CP24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CQ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CR24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CS24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CT24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CU24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CV24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CW24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CX24" s="32">
         <v>5</v>
       </c>
       <c r="CY24" s="1">
@@ -3811,28 +3811,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="L1" s="33" t="s">
+      <c r="G1" s="39"/>
+      <c r="L1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="33"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
@@ -3997,10 +3997,10 @@
       <c r="G8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -4141,10 +4141,10 @@
       <c r="G14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -4686,13 +4686,13 @@
       <c r="B2" s="4">
         <v>1202452</v>
       </c>
-      <c r="C2" s="39">
-        <v>5</v>
-      </c>
-      <c r="D2" s="39">
-        <v>5</v>
-      </c>
-      <c r="E2" s="39">
+      <c r="C2" s="35">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35">
+        <v>5</v>
+      </c>
+      <c r="E2" s="35">
         <v>5</v>
       </c>
       <c r="F2" s="10">
@@ -4791,13 +4791,13 @@
       <c r="B3" s="12">
         <v>1202453</v>
       </c>
-      <c r="C3" s="38">
-        <v>5</v>
-      </c>
-      <c r="D3" s="38">
-        <v>5</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="C3" s="34">
+        <v>5</v>
+      </c>
+      <c r="D3" s="34">
+        <v>5</v>
+      </c>
+      <c r="E3" s="34">
         <v>5</v>
       </c>
       <c r="F3" s="13">
@@ -4896,13 +4896,13 @@
       <c r="B4" s="4">
         <v>1202454</v>
       </c>
-      <c r="C4" s="39">
-        <v>5</v>
-      </c>
-      <c r="D4" s="39">
-        <v>5</v>
-      </c>
-      <c r="E4" s="39">
+      <c r="C4" s="35">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35">
+        <v>5</v>
+      </c>
+      <c r="E4" s="35">
         <v>5</v>
       </c>
       <c r="F4" s="10">
@@ -5001,13 +5001,13 @@
       <c r="B5" s="12">
         <v>1202455</v>
       </c>
-      <c r="C5" s="38">
-        <v>5</v>
-      </c>
-      <c r="D5" s="38">
-        <v>5</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="C5" s="34">
+        <v>5</v>
+      </c>
+      <c r="D5" s="34">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34">
         <v>5</v>
       </c>
       <c r="F5" s="13">
@@ -5106,13 +5106,13 @@
       <c r="B6" s="4">
         <v>1202456</v>
       </c>
-      <c r="C6" s="39">
-        <v>5</v>
-      </c>
-      <c r="D6" s="39">
-        <v>5</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="C6" s="35">
+        <v>5</v>
+      </c>
+      <c r="D6" s="35">
+        <v>5</v>
+      </c>
+      <c r="E6" s="35">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -5211,13 +5211,13 @@
       <c r="B7" s="12">
         <v>1202457</v>
       </c>
-      <c r="C7" s="38">
-        <v>5</v>
-      </c>
-      <c r="D7" s="38">
-        <v>5</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="C7" s="34">
+        <v>5</v>
+      </c>
+      <c r="D7" s="34">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34">
         <v>5</v>
       </c>
       <c r="F7" s="13">
@@ -5316,13 +5316,13 @@
       <c r="B8" s="4">
         <v>1202458</v>
       </c>
-      <c r="C8" s="39">
-        <v>5</v>
-      </c>
-      <c r="D8" s="39">
-        <v>5</v>
-      </c>
-      <c r="E8" s="39">
+      <c r="C8" s="35">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="35">
         <v>5</v>
       </c>
       <c r="F8" s="10">
@@ -5421,13 +5421,13 @@
       <c r="B9" s="12">
         <v>1202459</v>
       </c>
-      <c r="C9" s="38">
-        <v>5</v>
-      </c>
-      <c r="D9" s="38">
-        <v>5</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="C9" s="34">
+        <v>5</v>
+      </c>
+      <c r="D9" s="34">
+        <v>5</v>
+      </c>
+      <c r="E9" s="34">
         <v>5</v>
       </c>
       <c r="F9" s="13">
@@ -5537,13 +5537,13 @@
       <c r="B11" s="16">
         <v>1202461</v>
       </c>
-      <c r="C11" s="38">
-        <v>5</v>
-      </c>
-      <c r="D11" s="38">
-        <v>5</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34">
+        <v>5</v>
+      </c>
+      <c r="E11" s="34">
         <v>5</v>
       </c>
       <c r="F11" s="13">
@@ -5642,13 +5642,13 @@
       <c r="B12" s="4">
         <v>1202462</v>
       </c>
-      <c r="C12" s="39">
-        <v>5</v>
-      </c>
-      <c r="D12" s="39">
-        <v>5</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="C12" s="35">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35">
+        <v>5</v>
+      </c>
+      <c r="E12" s="35">
         <v>5</v>
       </c>
       <c r="F12" s="10">
@@ -5747,13 +5747,13 @@
       <c r="B13" s="12">
         <v>1202463</v>
       </c>
-      <c r="C13" s="38">
-        <v>5</v>
-      </c>
-      <c r="D13" s="38">
-        <v>5</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
+        <v>5</v>
+      </c>
+      <c r="E13" s="34">
         <v>5</v>
       </c>
       <c r="F13" s="13">
@@ -6805,311 +6805,311 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:103" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="36">
-        <v>5</v>
-      </c>
-      <c r="D24" s="36">
-        <v>5</v>
-      </c>
-      <c r="E24" s="36">
-        <v>5</v>
-      </c>
-      <c r="F24" s="36">
-        <v>5</v>
-      </c>
-      <c r="G24" s="36">
-        <v>5</v>
-      </c>
-      <c r="H24" s="36">
-        <v>5</v>
-      </c>
-      <c r="I24" s="36">
-        <v>5</v>
-      </c>
-      <c r="J24" s="36">
-        <v>5</v>
-      </c>
-      <c r="K24" s="36">
-        <v>5</v>
-      </c>
-      <c r="L24" s="36">
-        <v>5</v>
-      </c>
-      <c r="M24" s="36">
-        <v>5</v>
-      </c>
-      <c r="N24" s="36">
-        <v>5</v>
-      </c>
-      <c r="O24" s="36">
-        <v>5</v>
-      </c>
-      <c r="P24" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>5</v>
-      </c>
-      <c r="R24" s="36">
-        <v>5</v>
-      </c>
-      <c r="S24" s="36">
-        <v>5</v>
-      </c>
-      <c r="T24" s="36">
-        <v>5</v>
-      </c>
-      <c r="U24" s="36">
-        <v>5</v>
-      </c>
-      <c r="V24" s="36">
-        <v>5</v>
-      </c>
-      <c r="W24" s="36">
-        <v>5</v>
-      </c>
-      <c r="X24" s="36">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="36">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AH24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AI24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AK24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AL24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AM24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AN24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AP24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AQ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AR24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AS24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AT24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AU24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AV24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AW24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AX24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AY24" s="36">
-        <v>5</v>
-      </c>
-      <c r="AZ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BA24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BB24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BC24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BD24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BE24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BF24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BG24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BH24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BI24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BJ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BK24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BL24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BM24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BN24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BO24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BP24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BQ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BR24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BS24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BT24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BU24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BV24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BW24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BX24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BY24" s="36">
-        <v>5</v>
-      </c>
-      <c r="BZ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CA24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CB24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CC24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CD24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CE24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CF24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CG24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CH24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CI24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CJ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CK24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CL24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CM24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CN24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CO24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CP24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CQ24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CR24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CS24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CT24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CU24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CV24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CW24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CX24" s="36">
-        <v>5</v>
-      </c>
-      <c r="CY24" s="36">
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32">
+        <v>5</v>
+      </c>
+      <c r="E24" s="32">
+        <v>5</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5</v>
+      </c>
+      <c r="G24" s="32">
+        <v>5</v>
+      </c>
+      <c r="H24" s="32">
+        <v>5</v>
+      </c>
+      <c r="I24" s="32">
+        <v>5</v>
+      </c>
+      <c r="J24" s="32">
+        <v>5</v>
+      </c>
+      <c r="K24" s="32">
+        <v>5</v>
+      </c>
+      <c r="L24" s="32">
+        <v>5</v>
+      </c>
+      <c r="M24" s="32">
+        <v>5</v>
+      </c>
+      <c r="N24" s="32">
+        <v>5</v>
+      </c>
+      <c r="O24" s="32">
+        <v>5</v>
+      </c>
+      <c r="P24" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>5</v>
+      </c>
+      <c r="R24" s="32">
+        <v>5</v>
+      </c>
+      <c r="S24" s="32">
+        <v>5</v>
+      </c>
+      <c r="T24" s="32">
+        <v>5</v>
+      </c>
+      <c r="U24" s="32">
+        <v>5</v>
+      </c>
+      <c r="V24" s="32">
+        <v>5</v>
+      </c>
+      <c r="W24" s="32">
+        <v>5</v>
+      </c>
+      <c r="X24" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AV24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AX24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="32">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BA24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BB24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BE24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BF24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BG24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BH24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BI24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BJ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BK24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BL24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BM24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BN24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BO24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BP24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BQ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BR24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BS24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BT24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BU24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BV24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BW24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BX24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BY24" s="32">
+        <v>5</v>
+      </c>
+      <c r="BZ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CA24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CB24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CC24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CD24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CE24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CF24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CG24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CH24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CI24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CJ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CK24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CL24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CM24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CN24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CO24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CP24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CQ24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CR24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CS24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CT24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CU24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CV24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CW24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CX24" s="32">
+        <v>5</v>
+      </c>
+      <c r="CY24" s="32">
         <f>SUM(C24:CX24)</f>
         <v>500</v>
       </c>
@@ -7143,28 +7143,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="L1" s="33" t="s">
+      <c r="G1" s="39"/>
+      <c r="L1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="33"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
@@ -7333,10 +7333,10 @@
       <c r="G8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -7483,10 +7483,10 @@
       <c r="G14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="topRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,11 +2277,11 @@
         <v>5</v>
       </c>
       <c r="AH12" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
@@ -4354,9 +4354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CY14" sqref="CY14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4779,6 +4779,9 @@
       <c r="AG2" s="10">
         <v>5</v>
       </c>
+      <c r="AH2" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
         <v>150</v>
@@ -4884,9 +4887,12 @@
       <c r="AG3" s="13">
         <v>5</v>
       </c>
+      <c r="AH3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4989,6 +4995,9 @@
       <c r="AG4" s="10">
         <v>5</v>
       </c>
+      <c r="AH4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>128</v>
@@ -5094,9 +5103,12 @@
       <c r="AG5" s="13">
         <v>5</v>
       </c>
+      <c r="AH5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5199,9 +5211,12 @@
       <c r="AG6" s="10">
         <v>5</v>
       </c>
+      <c r="AH6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5304,9 +5319,12 @@
       <c r="AG7" s="13">
         <v>5</v>
       </c>
+      <c r="AH7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5409,9 +5427,12 @@
       <c r="AG8" s="10">
         <v>5</v>
       </c>
+      <c r="AH8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5514,9 +5535,12 @@
       <c r="AG9" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AH9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5630,9 +5654,12 @@
       <c r="AG11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AH11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5735,9 +5762,12 @@
       <c r="AG12" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AH12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5840,9 +5870,12 @@
       <c r="AG13" s="13">
         <v>5</v>
       </c>
+      <c r="AH13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5960,9 +5993,12 @@
       <c r="AG15" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AH15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6065,9 +6101,12 @@
       <c r="AG16" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AH16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6170,9 +6209,12 @@
       <c r="AG17" s="10">
         <v>5</v>
       </c>
+      <c r="AH17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6275,6 +6317,9 @@
       <c r="AG18" s="13">
         <v>5</v>
       </c>
+      <c r="AH18" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -6380,9 +6425,12 @@
       <c r="AG19" s="10">
         <v>5</v>
       </c>
+      <c r="AH19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6485,9 +6533,12 @@
       <c r="AG20" s="13">
         <v>5</v>
       </c>
+      <c r="AH20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6590,9 +6641,12 @@
       <c r="AG21" s="10">
         <v>5</v>
       </c>
+      <c r="AH21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6695,9 +6749,12 @@
       <c r="AG22" s="13">
         <v>5</v>
       </c>
+      <c r="AH22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6800,9 +6857,12 @@
       <c r="AG23" s="10">
         <v>5</v>
       </c>
+      <c r="AH23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH23" sqref="AH23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,9 +1407,12 @@
       <c r="AH3" s="13">
         <v>4</v>
       </c>
+      <c r="AI3" s="13">
+        <v>4</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1515,9 +1518,12 @@
       <c r="AH4" s="9">
         <v>4</v>
       </c>
+      <c r="AI4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1620,12 +1626,15 @@
       <c r="AG5" s="13">
         <v>5</v>
       </c>
-      <c r="AH5" s="13" t="s">
-        <v>44</v>
+      <c r="AH5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="13">
+        <v>5</v>
       </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1731,9 +1740,12 @@
       <c r="AH6" s="9">
         <v>5</v>
       </c>
+      <c r="AI6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2063,9 +2075,12 @@
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AI10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2279,9 +2294,12 @@
       <c r="AH12" s="9">
         <v>3</v>
       </c>
+      <c r="AI12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2384,12 +2402,12 @@
       <c r="AG13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AH13" s="13" t="s">
-        <v>44</v>
+      <c r="AH13" s="13">
+        <v>3</v>
       </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2603,9 +2621,12 @@
       <c r="AH15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AI15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2711,9 +2732,12 @@
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AI16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2819,9 +2843,12 @@
       <c r="AH17" s="13">
         <v>5</v>
       </c>
+      <c r="AI17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2927,9 +2954,12 @@
       <c r="AH18" s="9">
         <v>5</v>
       </c>
+      <c r="AI18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3035,9 +3065,12 @@
       <c r="AH19" s="13">
         <v>5</v>
       </c>
+      <c r="AI19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3251,9 +3284,12 @@
       <c r="AH21" s="13">
         <v>5</v>
       </c>
+      <c r="AI21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3465,6 +3501,9 @@
         <v>44</v>
       </c>
       <c r="AH23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY23" s="1">
@@ -4354,9 +4393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH18" sqref="AH18"/>
+      <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI4" sqref="AI4"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ23" sqref="AJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1299,9 @@
       <c r="AH2" s="9">
         <v>5</v>
       </c>
+      <c r="AI2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>115</v>
@@ -1851,6 +1854,9 @@
       <c r="AH7" s="13">
         <v>5</v>
       </c>
+      <c r="AI7" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1959,6 +1965,9 @@
       <c r="AH8" s="9">
         <v>5</v>
       </c>
+      <c r="AI8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
         <v>137</v>
@@ -2186,6 +2195,9 @@
       <c r="AH11" s="13">
         <v>3</v>
       </c>
+      <c r="AI11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
         <v>131</v>
@@ -2405,6 +2417,9 @@
       <c r="AH13" s="13">
         <v>3</v>
       </c>
+      <c r="AI13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -2513,6 +2528,9 @@
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AI14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
         <v>146</v>
@@ -3176,6 +3194,9 @@
       <c r="AH20" s="9">
         <v>5</v>
       </c>
+      <c r="AI20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -3393,6 +3414,9 @@
         <v>5</v>
       </c>
       <c r="AH22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="CY22" s="9">
@@ -4393,9 +4417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
+      <selection pane="topRight" activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4821,9 +4845,12 @@
       <c r="AH2" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AI2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4929,9 +4956,12 @@
       <c r="AH3" s="13">
         <v>5</v>
       </c>
+      <c r="AI3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5037,9 +5067,12 @@
       <c r="AH4" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AI4" s="10">
+        <v>4</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5145,9 +5178,12 @@
       <c r="AH5" s="13">
         <v>5</v>
       </c>
+      <c r="AI5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5253,9 +5289,12 @@
       <c r="AH6" s="10">
         <v>5</v>
       </c>
+      <c r="AI6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5361,9 +5400,12 @@
       <c r="AH7" s="13">
         <v>5</v>
       </c>
+      <c r="AI7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5469,9 +5511,12 @@
       <c r="AH8" s="10">
         <v>5</v>
       </c>
+      <c r="AI8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5577,9 +5622,12 @@
       <c r="AH9" s="13">
         <v>5</v>
       </c>
+      <c r="AI9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5696,9 +5744,12 @@
       <c r="AH11" s="13">
         <v>5</v>
       </c>
+      <c r="AI11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5804,9 +5855,12 @@
       <c r="AH12" s="10">
         <v>5</v>
       </c>
+      <c r="AI12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5912,9 +5966,12 @@
       <c r="AH13" s="13">
         <v>5</v>
       </c>
+      <c r="AI13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6035,9 +6092,12 @@
       <c r="AH15" s="10">
         <v>5</v>
       </c>
+      <c r="AI15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6143,9 +6203,12 @@
       <c r="AH16" s="13">
         <v>5</v>
       </c>
+      <c r="AI16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6251,9 +6314,12 @@
       <c r="AH17" s="10">
         <v>5</v>
       </c>
+      <c r="AI17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6359,9 +6425,12 @@
       <c r="AH18" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AI18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6467,9 +6536,12 @@
       <c r="AH19" s="10">
         <v>5</v>
       </c>
+      <c r="AI19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6575,9 +6647,12 @@
       <c r="AH20" s="13">
         <v>5</v>
       </c>
+      <c r="AI20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6683,9 +6758,12 @@
       <c r="AH21" s="10">
         <v>5</v>
       </c>
+      <c r="AI21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6791,9 +6869,12 @@
       <c r="AH22" s="13">
         <v>5</v>
       </c>
+      <c r="AI22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6899,9 +6980,12 @@
       <c r="AH23" s="10">
         <v>5</v>
       </c>
+      <c r="AI23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ23" sqref="AJ23"/>
+      <selection pane="topRight" activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1302,9 @@
       <c r="AI2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AJ2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>115</v>
@@ -1413,9 +1416,12 @@
       <c r="AI3" s="13">
         <v>4</v>
       </c>
+      <c r="AJ3" s="13">
+        <v>4</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1524,9 +1530,12 @@
       <c r="AI4" s="9">
         <v>5</v>
       </c>
+      <c r="AJ4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1635,6 +1644,9 @@
       <c r="AI5" s="13">
         <v>5</v>
       </c>
+      <c r="AJ5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -1746,9 +1758,12 @@
       <c r="AI6" s="9">
         <v>5</v>
       </c>
+      <c r="AJ6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1854,12 +1869,15 @@
       <c r="AH7" s="13">
         <v>5</v>
       </c>
-      <c r="AI7" s="13" t="s">
-        <v>44</v>
+      <c r="AI7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>5</v>
       </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1968,9 +1986,12 @@
       <c r="AI8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AJ8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2087,9 +2108,12 @@
       <c r="AI10" s="9">
         <v>5</v>
       </c>
+      <c r="AJ10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2198,9 +2222,12 @@
       <c r="AI11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AJ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2309,9 +2336,12 @@
       <c r="AI12" s="9">
         <v>5</v>
       </c>
+      <c r="AJ12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,9 +2450,12 @@
       <c r="AI13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AJ13" s="13">
+        <v>4</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2525,15 +2558,18 @@
       <c r="AG14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AH14" s="9" t="s">
-        <v>44</v>
+      <c r="AH14" s="9">
+        <v>5</v>
       </c>
       <c r="AI14" s="9" t="s">
         <v>44</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>5</v>
       </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,9 +2678,12 @@
       <c r="AI15" s="13">
         <v>5</v>
       </c>
+      <c r="AJ15" s="13">
+        <v>4</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2753,9 +2792,12 @@
       <c r="AI16" s="9">
         <v>5</v>
       </c>
+      <c r="AJ16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2864,9 +2906,12 @@
       <c r="AI17" s="13">
         <v>5</v>
       </c>
+      <c r="AJ17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2975,6 +3020,9 @@
       <c r="AI18" s="9">
         <v>5</v>
       </c>
+      <c r="AJ18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
         <v>146</v>
@@ -3086,6 +3134,9 @@
       <c r="AI19" s="13">
         <v>5</v>
       </c>
+      <c r="AJ19" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
         <v>156</v>
@@ -3197,9 +3248,12 @@
       <c r="AI20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AJ20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3308,9 +3362,12 @@
       <c r="AI21" s="13">
         <v>5</v>
       </c>
+      <c r="AJ21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3419,9 +3476,12 @@
       <c r="AI22" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AJ22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3528,6 +3588,9 @@
         <v>44</v>
       </c>
       <c r="AI23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ23" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY23" s="1">
@@ -4417,9 +4480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK16" sqref="AK16"/>
+      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ4" sqref="AJ4"/>
+      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,12 +3020,12 @@
       <c r="AI18" s="9">
         <v>5</v>
       </c>
-      <c r="AJ18" s="9" t="s">
-        <v>44</v>
+      <c r="AJ18" s="9">
+        <v>4</v>
       </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4480,9 +4480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
+      <selection pane="topRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,9 +4911,12 @@
       <c r="AI2" s="10">
         <v>5</v>
       </c>
+      <c r="AJ2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5022,9 +5025,12 @@
       <c r="AI3" s="13">
         <v>5</v>
       </c>
+      <c r="AJ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5133,6 +5139,9 @@
       <c r="AI4" s="10">
         <v>4</v>
       </c>
+      <c r="AJ4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>132</v>
@@ -5244,9 +5253,12 @@
       <c r="AI5" s="13">
         <v>5</v>
       </c>
+      <c r="AJ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5355,6 +5367,9 @@
       <c r="AI6" s="10">
         <v>5</v>
       </c>
+      <c r="AJ6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
         <v>130</v>
@@ -5466,6 +5481,9 @@
       <c r="AI7" s="13">
         <v>5</v>
       </c>
+      <c r="AJ7" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -5577,9 +5595,12 @@
       <c r="AI8" s="10">
         <v>5</v>
       </c>
+      <c r="AJ8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5688,9 +5709,12 @@
       <c r="AI9" s="13">
         <v>5</v>
       </c>
+      <c r="AJ9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5810,6 +5834,9 @@
       <c r="AI11" s="13">
         <v>5</v>
       </c>
+      <c r="AJ11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5921,6 +5948,9 @@
       <c r="AI12" s="10">
         <v>5</v>
       </c>
+      <c r="AJ12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
         <v>147</v>
@@ -6032,9 +6062,12 @@
       <c r="AI13" s="13">
         <v>5</v>
       </c>
+      <c r="AJ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6158,9 +6191,12 @@
       <c r="AI15" s="10">
         <v>5</v>
       </c>
+      <c r="AJ15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6269,9 +6305,12 @@
       <c r="AI16" s="13">
         <v>5</v>
       </c>
+      <c r="AJ16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6380,6 +6419,9 @@
       <c r="AI17" s="10">
         <v>5</v>
       </c>
+      <c r="AJ17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -6491,6 +6533,9 @@
       <c r="AI18" s="13">
         <v>5</v>
       </c>
+      <c r="AJ18" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -6602,9 +6647,12 @@
       <c r="AI19" s="10">
         <v>5</v>
       </c>
+      <c r="AJ19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6713,9 +6761,12 @@
       <c r="AI20" s="13">
         <v>5</v>
       </c>
+      <c r="AJ20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6824,6 +6875,9 @@
       <c r="AI21" s="10">
         <v>5</v>
       </c>
+      <c r="AJ21" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -6935,9 +6989,12 @@
       <c r="AI22" s="13">
         <v>5</v>
       </c>
+      <c r="AJ22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7046,9 +7103,12 @@
       <c r="AI23" s="10">
         <v>5</v>
       </c>
+      <c r="AJ23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -4482,7 +4482,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ9" sqref="AJ9"/>
+      <selection pane="topRight" activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,12 +5481,12 @@
       <c r="AI7" s="13">
         <v>5</v>
       </c>
-      <c r="AJ7" s="13" t="s">
-        <v>44</v>
+      <c r="AJ7" s="13">
+        <v>5</v>
       </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6875,12 +6875,12 @@
       <c r="AI21" s="10">
         <v>5</v>
       </c>
-      <c r="AJ21" s="10" t="s">
-        <v>44</v>
+      <c r="AJ21" s="10">
+        <v>5</v>
       </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -4482,7 +4482,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ8" sqref="AJ8"/>
+      <selection pane="topRight" activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5948,12 +5948,12 @@
       <c r="AI12" s="10">
         <v>5</v>
       </c>
-      <c r="AJ12" s="10" t="s">
-        <v>44</v>
+      <c r="AJ12" s="10">
+        <v>5</v>
       </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -4481,8 +4481,8 @@
   <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ13" sqref="AJ13"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,12 +5139,12 @@
       <c r="AI4" s="10">
         <v>4</v>
       </c>
-      <c r="AJ4" s="10" t="s">
-        <v>44</v>
+      <c r="AJ4" s="10">
+        <v>5</v>
       </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6419,12 +6419,12 @@
       <c r="AI17" s="10">
         <v>5</v>
       </c>
-      <c r="AJ17" s="10" t="s">
-        <v>44</v>
+      <c r="AJ17" s="10">
+        <v>4</v>
       </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6533,12 +6533,12 @@
       <c r="AI18" s="13">
         <v>5</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>44</v>
+      <c r="AJ18" s="13">
+        <v>4</v>
       </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
+      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1305,9 @@
       <c r="AJ2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AK2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>115</v>
@@ -1419,9 +1422,12 @@
       <c r="AJ3" s="13">
         <v>4</v>
       </c>
+      <c r="AK3" s="13">
+        <v>4</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1533,9 +1539,12 @@
       <c r="AJ4" s="9">
         <v>5</v>
       </c>
+      <c r="AK4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1647,9 +1656,12 @@
       <c r="AJ5" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AK5" s="13">
+        <v>4</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1761,9 +1773,12 @@
       <c r="AJ6" s="9">
         <v>5</v>
       </c>
+      <c r="AK6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1875,9 +1890,12 @@
       <c r="AJ7" s="13">
         <v>5</v>
       </c>
+      <c r="AK7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1989,9 +2007,12 @@
       <c r="AJ8" s="9">
         <v>5</v>
       </c>
+      <c r="AK8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2111,9 +2132,12 @@
       <c r="AJ10" s="9">
         <v>5</v>
       </c>
+      <c r="AK10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2225,9 +2249,12 @@
       <c r="AJ11" s="13">
         <v>5</v>
       </c>
+      <c r="AK11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2339,9 +2366,12 @@
       <c r="AJ12" s="9">
         <v>5</v>
       </c>
+      <c r="AK12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,6 +2483,9 @@
       <c r="AJ13" s="13">
         <v>4</v>
       </c>
+      <c r="AK13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -2567,9 +2600,12 @@
       <c r="AJ14" s="9">
         <v>5</v>
       </c>
+      <c r="AK14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2681,9 +2717,12 @@
       <c r="AJ15" s="13">
         <v>4</v>
       </c>
+      <c r="AK15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2795,9 +2834,12 @@
       <c r="AJ16" s="9">
         <v>5</v>
       </c>
+      <c r="AK16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2909,9 +2951,12 @@
       <c r="AJ17" s="13">
         <v>5</v>
       </c>
+      <c r="AK17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3023,9 +3068,12 @@
       <c r="AJ18" s="9">
         <v>4</v>
       </c>
+      <c r="AK18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3137,9 +3185,12 @@
       <c r="AJ19" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AK19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3251,6 +3302,9 @@
       <c r="AJ20" s="9">
         <v>5</v>
       </c>
+      <c r="AK20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -3365,9 +3419,12 @@
       <c r="AJ21" s="13">
         <v>5</v>
       </c>
+      <c r="AK21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3479,9 +3536,12 @@
       <c r="AJ22" s="9">
         <v>5</v>
       </c>
+      <c r="AK22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3593,9 +3653,12 @@
       <c r="AJ23" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AK23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -4480,9 +4543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
+      <selection pane="topRight" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,12 +2007,12 @@
       <c r="AJ8" s="9">
         <v>5</v>
       </c>
-      <c r="AK8" s="9">
-        <v>5</v>
+      <c r="AK8" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4543,9 +4543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ11" sqref="AJ11"/>
+      <selection pane="topRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4977,9 +4977,12 @@
       <c r="AJ2" s="10">
         <v>5</v>
       </c>
+      <c r="AK2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5091,9 +5094,12 @@
       <c r="AJ3" s="13">
         <v>5</v>
       </c>
+      <c r="AK3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5205,9 +5211,12 @@
       <c r="AJ4" s="10">
         <v>5</v>
       </c>
+      <c r="AK4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5319,9 +5328,12 @@
       <c r="AJ5" s="13">
         <v>5</v>
       </c>
+      <c r="AK5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5433,9 +5445,12 @@
       <c r="AJ6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AK6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5547,9 +5562,12 @@
       <c r="AJ7" s="13">
         <v>5</v>
       </c>
+      <c r="AK7" s="13">
+        <v>4</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5661,9 +5679,12 @@
       <c r="AJ8" s="10">
         <v>5</v>
       </c>
+      <c r="AK8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5775,9 +5796,12 @@
       <c r="AJ9" s="13">
         <v>5</v>
       </c>
+      <c r="AK9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5900,6 +5924,9 @@
       <c r="AJ11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AK11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -6014,6 +6041,9 @@
       <c r="AJ12" s="10">
         <v>5</v>
       </c>
+      <c r="AK12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
         <v>152</v>
@@ -6128,9 +6158,12 @@
       <c r="AJ13" s="13">
         <v>5</v>
       </c>
+      <c r="AK13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6257,9 +6290,12 @@
       <c r="AJ15" s="10">
         <v>5</v>
       </c>
+      <c r="AK15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6371,9 +6407,12 @@
       <c r="AJ16" s="13">
         <v>5</v>
       </c>
+      <c r="AK16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6485,9 +6524,12 @@
       <c r="AJ17" s="10">
         <v>4</v>
       </c>
+      <c r="AK17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6599,9 +6641,12 @@
       <c r="AJ18" s="13">
         <v>4</v>
       </c>
+      <c r="AK18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6713,9 +6758,12 @@
       <c r="AJ19" s="10">
         <v>5</v>
       </c>
+      <c r="AK19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6827,6 +6875,9 @@
       <c r="AJ20" s="13">
         <v>5</v>
       </c>
+      <c r="AK20" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
         <v>153</v>
@@ -6941,9 +6992,12 @@
       <c r="AJ21" s="10">
         <v>5</v>
       </c>
+      <c r="AK21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7055,9 +7109,12 @@
       <c r="AJ22" s="13">
         <v>5</v>
       </c>
+      <c r="AK22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7169,9 +7226,12 @@
       <c r="AJ23" s="10">
         <v>5</v>
       </c>
+      <c r="AK23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK9" sqref="AK9"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,9 +1308,15 @@
       <c r="AK2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AL2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1425,9 +1431,12 @@
       <c r="AK3" s="13">
         <v>4</v>
       </c>
+      <c r="AL3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1542,9 +1551,15 @@
       <c r="AK4" s="9">
         <v>5</v>
       </c>
+      <c r="AL4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1659,9 +1674,15 @@
       <c r="AK5" s="13">
         <v>4</v>
       </c>
+      <c r="AL5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1776,9 +1797,15 @@
       <c r="AK6" s="9">
         <v>5</v>
       </c>
+      <c r="AL6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1893,9 +1920,12 @@
       <c r="AK7" s="13">
         <v>5</v>
       </c>
+      <c r="AL7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2010,9 +2040,12 @@
       <c r="AK8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AL8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2135,9 +2168,12 @@
       <c r="AK10" s="9">
         <v>5</v>
       </c>
+      <c r="AL10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2252,9 +2288,12 @@
       <c r="AK11" s="13">
         <v>5</v>
       </c>
+      <c r="AL11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2369,9 +2408,15 @@
       <c r="AK12" s="9">
         <v>5</v>
       </c>
+      <c r="AL12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2486,6 +2531,9 @@
       <c r="AK13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AL13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -2603,9 +2651,12 @@
       <c r="AK14" s="9">
         <v>5</v>
       </c>
+      <c r="AL14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2720,9 +2771,15 @@
       <c r="AK15" s="13">
         <v>5</v>
       </c>
+      <c r="AL15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2837,9 +2894,12 @@
       <c r="AK16" s="9">
         <v>5</v>
       </c>
+      <c r="AL16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2954,9 +3014,15 @@
       <c r="AK17" s="13">
         <v>5</v>
       </c>
+      <c r="AL17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3071,9 +3137,15 @@
       <c r="AK18" s="9">
         <v>5</v>
       </c>
+      <c r="AL18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3188,9 +3260,12 @@
       <c r="AK19" s="13">
         <v>5</v>
       </c>
+      <c r="AL19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3305,9 +3380,15 @@
       <c r="AK20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AL20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3422,9 +3503,15 @@
       <c r="AK21" s="13">
         <v>5</v>
       </c>
+      <c r="AL21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3539,9 +3626,12 @@
       <c r="AK22" s="9">
         <v>5</v>
       </c>
+      <c r="AL22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3656,9 +3746,15 @@
       <c r="AK23" s="13">
         <v>5</v>
       </c>
+      <c r="AL23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -4543,9 +4639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK8" sqref="AK8"/>
+      <selection pane="topRight" activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,9 +5076,12 @@
       <c r="AK2" s="10">
         <v>5</v>
       </c>
+      <c r="AL2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5097,9 +5196,12 @@
       <c r="AK3" s="13">
         <v>5</v>
       </c>
+      <c r="AL3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5214,9 +5316,12 @@
       <c r="AK4" s="10">
         <v>5</v>
       </c>
+      <c r="AL4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5331,9 +5436,12 @@
       <c r="AK5" s="13">
         <v>5</v>
       </c>
+      <c r="AL5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5448,6 +5556,9 @@
       <c r="AK6" s="10">
         <v>5</v>
       </c>
+      <c r="AL6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
         <v>135</v>
@@ -5565,9 +5676,12 @@
       <c r="AK7" s="13">
         <v>4</v>
       </c>
+      <c r="AL7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5682,9 +5796,12 @@
       <c r="AK8" s="10">
         <v>5</v>
       </c>
+      <c r="AL8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5799,9 +5916,12 @@
       <c r="AK9" s="13">
         <v>5</v>
       </c>
+      <c r="AL9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5927,9 +6047,12 @@
       <c r="AK11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AL11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6044,9 +6167,12 @@
       <c r="AK12" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AL12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6161,9 +6287,12 @@
       <c r="AK13" s="13">
         <v>5</v>
       </c>
+      <c r="AL13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6293,9 +6422,12 @@
       <c r="AK15" s="10">
         <v>5</v>
       </c>
+      <c r="AL15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6410,9 +6542,12 @@
       <c r="AK16" s="13">
         <v>5</v>
       </c>
+      <c r="AL16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6527,9 +6662,12 @@
       <c r="AK17" s="10">
         <v>5</v>
       </c>
+      <c r="AL17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6644,9 +6782,12 @@
       <c r="AK18" s="13">
         <v>5</v>
       </c>
+      <c r="AL18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6761,9 +6902,12 @@
       <c r="AK19" s="10">
         <v>5</v>
       </c>
+      <c r="AL19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6878,9 +7022,12 @@
       <c r="AK20" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AL20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6995,9 +7142,12 @@
       <c r="AK21" s="10">
         <v>5</v>
       </c>
+      <c r="AL21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7112,9 +7262,12 @@
       <c r="AK22" s="13">
         <v>5</v>
       </c>
+      <c r="AL22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7229,9 +7382,12 @@
       <c r="AK23" s="10">
         <v>5</v>
       </c>
+      <c r="AL23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -872,8 +872,8 @@
   <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,9 +1314,12 @@
       <c r="AM2" s="9">
         <v>5</v>
       </c>
+      <c r="AN2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1434,9 +1437,15 @@
       <c r="AL3" s="13">
         <v>5</v>
       </c>
+      <c r="AM3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1557,9 +1566,12 @@
       <c r="AM4" s="9">
         <v>5</v>
       </c>
+      <c r="AN4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1680,6 +1692,9 @@
       <c r="AM5" s="13">
         <v>5</v>
       </c>
+      <c r="AN5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
         <v>164</v>
@@ -1803,9 +1818,12 @@
       <c r="AM6" s="9">
         <v>5</v>
       </c>
+      <c r="AN6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1923,9 +1941,15 @@
       <c r="AL7" s="13">
         <v>5</v>
       </c>
+      <c r="AM7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2043,9 +2067,15 @@
       <c r="AL8" s="9">
         <v>5</v>
       </c>
+      <c r="AM8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2171,6 +2201,12 @@
       <c r="AL10" s="9">
         <v>5</v>
       </c>
+      <c r="AM10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
         <v>168</v>
@@ -2291,9 +2327,15 @@
       <c r="AL11" s="13">
         <v>5</v>
       </c>
+      <c r="AM11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2414,6 +2456,9 @@
       <c r="AM12" s="9">
         <v>5</v>
       </c>
+      <c r="AN12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
         <v>174</v>
@@ -2534,9 +2579,15 @@
       <c r="AL13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AM13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2654,9 +2705,15 @@
       <c r="AL14" s="9">
         <v>5</v>
       </c>
+      <c r="AM14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2777,6 +2834,9 @@
       <c r="AM15" s="13">
         <v>5</v>
       </c>
+      <c r="AN15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>154</v>
@@ -2897,9 +2957,15 @@
       <c r="AL16" s="9">
         <v>5</v>
       </c>
+      <c r="AM16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3020,9 +3086,12 @@
       <c r="AM17" s="13">
         <v>5</v>
       </c>
+      <c r="AN17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3143,9 +3212,12 @@
       <c r="AM18" s="9">
         <v>5</v>
       </c>
+      <c r="AN18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3263,6 +3335,12 @@
       <c r="AL19" s="13">
         <v>5</v>
       </c>
+      <c r="AM19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
         <v>166</v>
@@ -3386,6 +3464,9 @@
       <c r="AM20" s="9">
         <v>5</v>
       </c>
+      <c r="AN20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -3509,9 +3590,12 @@
       <c r="AM21" s="13">
         <v>5</v>
       </c>
+      <c r="AN21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3629,9 +3713,15 @@
       <c r="AL22" s="9">
         <v>5</v>
       </c>
+      <c r="AM22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3751,6 +3841,9 @@
       </c>
       <c r="AM23" s="13">
         <v>5</v>
+      </c>
+      <c r="AN23" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
@@ -4640,8 +4733,8 @@
   <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM23" sqref="AM23"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,9 +5172,12 @@
       <c r="AL2" s="10">
         <v>5</v>
       </c>
+      <c r="AM2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5199,9 +5295,12 @@
       <c r="AL3" s="13">
         <v>5</v>
       </c>
+      <c r="AM3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5319,6 +5418,9 @@
       <c r="AL4" s="10">
         <v>5</v>
       </c>
+      <c r="AM4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>147</v>
@@ -5439,9 +5541,12 @@
       <c r="AL5" s="13">
         <v>5</v>
       </c>
+      <c r="AM5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5559,6 +5664,9 @@
       <c r="AL6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AM6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
         <v>135</v>
@@ -5679,9 +5787,12 @@
       <c r="AL7" s="13">
         <v>5</v>
       </c>
+      <c r="AM7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5799,9 +5910,12 @@
       <c r="AL8" s="10">
         <v>5</v>
       </c>
+      <c r="AM8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5919,9 +6033,12 @@
       <c r="AL9" s="13">
         <v>5</v>
       </c>
+      <c r="AM9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6050,9 +6167,12 @@
       <c r="AL11" s="13">
         <v>5</v>
       </c>
+      <c r="AM11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6170,9 +6290,12 @@
       <c r="AL12" s="10">
         <v>5</v>
       </c>
+      <c r="AM12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6290,9 +6413,12 @@
       <c r="AL13" s="13">
         <v>5</v>
       </c>
+      <c r="AM13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6425,9 +6551,12 @@
       <c r="AL15" s="10">
         <v>5</v>
       </c>
+      <c r="AM15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6545,9 +6674,12 @@
       <c r="AL16" s="13">
         <v>5</v>
       </c>
+      <c r="AM16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6665,6 +6797,9 @@
       <c r="AL17" s="10">
         <v>5</v>
       </c>
+      <c r="AM17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -6785,9 +6920,12 @@
       <c r="AL18" s="13">
         <v>5</v>
       </c>
+      <c r="AM18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6905,9 +7043,12 @@
       <c r="AL19" s="10">
         <v>5</v>
       </c>
+      <c r="AM19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7025,9 +7166,12 @@
       <c r="AL20" s="13">
         <v>5</v>
       </c>
+      <c r="AM20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7145,9 +7289,12 @@
       <c r="AL21" s="10">
         <v>5</v>
       </c>
+      <c r="AM21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7265,9 +7412,12 @@
       <c r="AL22" s="13">
         <v>5</v>
       </c>
+      <c r="AM22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7385,9 +7535,12 @@
       <c r="AL23" s="10">
         <v>5</v>
       </c>
+      <c r="AM23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN15" sqref="AN15"/>
+      <selection pane="topRight" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,12 +1692,12 @@
       <c r="AM5" s="13">
         <v>5</v>
       </c>
-      <c r="AN5" s="13" t="s">
-        <v>44</v>
+      <c r="AN5" s="13">
+        <v>5</v>
       </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3338,12 +3338,12 @@
       <c r="AM19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AN19" s="13" t="s">
-        <v>44</v>
+      <c r="AN19" s="13">
+        <v>5</v>
       </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN20" sqref="AN20"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4732,9 +4732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM9" sqref="AM9"/>
+      <selection pane="topRight" activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5175,9 +5175,12 @@
       <c r="AM2" s="10">
         <v>5</v>
       </c>
+      <c r="AN2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5298,9 +5301,12 @@
       <c r="AM3" s="13">
         <v>5</v>
       </c>
+      <c r="AN3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5421,9 +5427,12 @@
       <c r="AM4" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AN4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5544,9 +5553,12 @@
       <c r="AM5" s="13">
         <v>5</v>
       </c>
+      <c r="AN5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5667,9 +5679,12 @@
       <c r="AM6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AN6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5790,9 +5805,12 @@
       <c r="AM7" s="13">
         <v>5</v>
       </c>
+      <c r="AN7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5913,9 +5931,12 @@
       <c r="AM8" s="10">
         <v>5</v>
       </c>
+      <c r="AN8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6036,9 +6057,12 @@
       <c r="AM9" s="13">
         <v>5</v>
       </c>
+      <c r="AN9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6170,9 +6194,12 @@
       <c r="AM11" s="13">
         <v>5</v>
       </c>
+      <c r="AN11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6293,9 +6320,12 @@
       <c r="AM12" s="10">
         <v>5</v>
       </c>
+      <c r="AN12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6416,9 +6446,12 @@
       <c r="AM13" s="13">
         <v>5</v>
       </c>
+      <c r="AN13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6554,9 +6587,12 @@
       <c r="AM15" s="10">
         <v>5</v>
       </c>
+      <c r="AN15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6677,9 +6713,12 @@
       <c r="AM16" s="13">
         <v>5</v>
       </c>
+      <c r="AN16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6797,12 +6836,15 @@
       <c r="AL17" s="10">
         <v>5</v>
       </c>
-      <c r="AM17" s="10" t="s">
-        <v>44</v>
+      <c r="AM17" s="10">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>5</v>
       </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6923,9 +6965,12 @@
       <c r="AM18" s="13">
         <v>5</v>
       </c>
+      <c r="AN18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7046,9 +7091,12 @@
       <c r="AM19" s="10">
         <v>5</v>
       </c>
+      <c r="AN19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7169,9 +7217,12 @@
       <c r="AM20" s="13">
         <v>5</v>
       </c>
+      <c r="AN20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7292,9 +7343,12 @@
       <c r="AM21" s="10">
         <v>5</v>
       </c>
+      <c r="AN21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7415,9 +7469,12 @@
       <c r="AM22" s="13">
         <v>5</v>
       </c>
+      <c r="AN22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7538,9 +7595,12 @@
       <c r="AM23" s="10">
         <v>5</v>
       </c>
+      <c r="AN23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1317,9 @@
       <c r="AN2" s="9">
         <v>5</v>
       </c>
+      <c r="AO2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>125</v>
@@ -1443,6 +1446,9 @@
       <c r="AN3" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AO3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
         <v>156</v>
@@ -1569,6 +1575,9 @@
       <c r="AN4" s="9">
         <v>5</v>
       </c>
+      <c r="AO4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -1695,6 +1704,9 @@
       <c r="AN5" s="13">
         <v>5</v>
       </c>
+      <c r="AO5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -1821,9 +1833,12 @@
       <c r="AN6" s="9">
         <v>5</v>
       </c>
+      <c r="AO6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1947,9 +1962,12 @@
       <c r="AN7" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AO7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2073,6 +2091,9 @@
       <c r="AN8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AO8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
         <v>152</v>
@@ -2207,9 +2228,12 @@
       <c r="AN10" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AO10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2333,6 +2357,9 @@
       <c r="AN11" s="13">
         <v>5</v>
       </c>
+      <c r="AO11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
         <v>151</v>
@@ -2459,9 +2486,12 @@
       <c r="AN12" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AO12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2585,6 +2615,9 @@
       <c r="AN13" s="13">
         <v>5</v>
       </c>
+      <c r="AO13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -2711,6 +2744,9 @@
       <c r="AN14" s="9">
         <v>5</v>
       </c>
+      <c r="AO14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -2837,6 +2873,9 @@
       <c r="AN15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AO15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>154</v>
@@ -2963,6 +3002,9 @@
       <c r="AN16" s="9">
         <v>5</v>
       </c>
+      <c r="AO16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -3089,9 +3131,12 @@
       <c r="AN17" s="13">
         <v>5</v>
       </c>
+      <c r="AO17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3215,6 +3260,9 @@
       <c r="AN18" s="9">
         <v>5</v>
       </c>
+      <c r="AO18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -3341,6 +3389,9 @@
       <c r="AN19" s="13">
         <v>5</v>
       </c>
+      <c r="AO19" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
         <v>171</v>
@@ -3467,6 +3518,9 @@
       <c r="AN20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AO20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -3593,9 +3647,12 @@
       <c r="AN21" s="13">
         <v>5</v>
       </c>
+      <c r="AO21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3719,9 +3776,12 @@
       <c r="AN22" s="9">
         <v>5</v>
       </c>
+      <c r="AO22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3845,9 +3905,12 @@
       <c r="AN23" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AO23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -4732,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN24" sqref="AN24"/>
     </sheetView>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR15" sqref="AR15"/>
+      <selection pane="topRight" activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,12 +1446,12 @@
       <c r="AN3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="13" t="s">
-        <v>44</v>
+      <c r="AO3" s="13">
+        <v>4</v>
       </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2091,12 +2091,12 @@
       <c r="AN8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AO8" s="9" t="s">
-        <v>44</v>
+      <c r="AO8" s="9">
+        <v>4</v>
       </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2615,12 +2615,12 @@
       <c r="AN13" s="13">
         <v>5</v>
       </c>
-      <c r="AO13" s="13" t="s">
-        <v>44</v>
+      <c r="AO13" s="13">
+        <v>4</v>
       </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2873,12 +2873,12 @@
       <c r="AN15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AO15" s="13" t="s">
-        <v>44</v>
+      <c r="AO15" s="13">
+        <v>4</v>
       </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3389,12 +3389,12 @@
       <c r="AN19" s="13">
         <v>5</v>
       </c>
-      <c r="AO19" s="13" t="s">
-        <v>44</v>
+      <c r="AO19" s="13">
+        <v>4</v>
       </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO16" sqref="AO16"/>
+      <selection pane="topRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,12 +2357,12 @@
       <c r="AN11" s="13">
         <v>5</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>44</v>
+      <c r="AO11" s="13">
+        <v>4</v>
       </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3515,15 +3515,15 @@
       <c r="AM20" s="9">
         <v>5</v>
       </c>
-      <c r="AN20" s="9" t="s">
-        <v>44</v>
+      <c r="AN20" s="9">
+        <v>4</v>
       </c>
       <c r="AO20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN5" sqref="AN5"/>
+      <selection pane="topRight" activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,9 +4795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN24" sqref="AN24"/>
+      <selection pane="topRight" activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,9 +5241,12 @@
       <c r="AN2" s="10">
         <v>5</v>
       </c>
+      <c r="AO2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5367,9 +5370,12 @@
       <c r="AN3" s="13">
         <v>5</v>
       </c>
+      <c r="AO3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5493,9 +5499,12 @@
       <c r="AN4" s="10">
         <v>5</v>
       </c>
+      <c r="AO4" s="10">
+        <v>4</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5619,9 +5628,12 @@
       <c r="AN5" s="13">
         <v>5</v>
       </c>
+      <c r="AO5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5745,9 +5757,12 @@
       <c r="AN6" s="10">
         <v>5</v>
       </c>
+      <c r="AO6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5871,9 +5886,12 @@
       <c r="AN7" s="13">
         <v>5</v>
       </c>
+      <c r="AO7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5997,9 +6015,12 @@
       <c r="AN8" s="10">
         <v>5</v>
       </c>
+      <c r="AO8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6123,9 +6144,12 @@
       <c r="AN9" s="13">
         <v>5</v>
       </c>
+      <c r="AO9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6260,9 +6284,12 @@
       <c r="AN11" s="13">
         <v>5</v>
       </c>
+      <c r="AO11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6386,9 +6413,12 @@
       <c r="AN12" s="10">
         <v>5</v>
       </c>
+      <c r="AO12" s="10">
+        <v>4</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6512,9 +6542,12 @@
       <c r="AN13" s="13">
         <v>5</v>
       </c>
+      <c r="AO13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6653,9 +6686,12 @@
       <c r="AN15" s="10">
         <v>5</v>
       </c>
+      <c r="AO15" s="10">
+        <v>4</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6779,9 +6815,12 @@
       <c r="AN16" s="13">
         <v>5</v>
       </c>
+      <c r="AO16" s="13">
+        <v>4</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6905,9 +6944,12 @@
       <c r="AN17" s="10">
         <v>5</v>
       </c>
+      <c r="AO17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7031,6 +7073,9 @@
       <c r="AN18" s="13">
         <v>5</v>
       </c>
+      <c r="AO18" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
         <v>179</v>
@@ -7157,9 +7202,12 @@
       <c r="AN19" s="10">
         <v>5</v>
       </c>
+      <c r="AO19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7283,9 +7331,12 @@
       <c r="AN20" s="13">
         <v>5</v>
       </c>
+      <c r="AO20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7409,9 +7460,12 @@
       <c r="AN21" s="10">
         <v>5</v>
       </c>
+      <c r="AO21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7535,9 +7589,12 @@
       <c r="AN22" s="13">
         <v>5</v>
       </c>
+      <c r="AO22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7661,9 +7718,12 @@
       <c r="AN23" s="10">
         <v>5</v>
       </c>
+      <c r="AO23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP3" sqref="AP3"/>
+      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,6 +1320,9 @@
       <c r="AO2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AP2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>125</v>
@@ -1449,9 +1452,12 @@
       <c r="AO3" s="13">
         <v>4</v>
       </c>
+      <c r="AP3" s="13">
+        <v>4</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1578,9 +1584,12 @@
       <c r="AO4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AP4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1707,6 +1716,9 @@
       <c r="AO5" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AP5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -1836,9 +1848,12 @@
       <c r="AO6" s="9">
         <v>5</v>
       </c>
+      <c r="AP6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1964,6 +1979,9 @@
       </c>
       <c r="AO7" s="13">
         <v>5</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
@@ -2094,6 +2112,9 @@
       <c r="AO8" s="9">
         <v>4</v>
       </c>
+      <c r="AP8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
         <v>156</v>
@@ -2231,9 +2252,12 @@
       <c r="AO10" s="9">
         <v>5</v>
       </c>
+      <c r="AP10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2360,9 +2384,12 @@
       <c r="AO11" s="13">
         <v>4</v>
       </c>
+      <c r="AP11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2489,9 +2516,12 @@
       <c r="AO12" s="9">
         <v>5</v>
       </c>
+      <c r="AP12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2618,9 +2648,12 @@
       <c r="AO13" s="13">
         <v>4</v>
       </c>
+      <c r="AP13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2747,9 +2780,12 @@
       <c r="AO14" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AP14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2876,9 +2912,12 @@
       <c r="AO15" s="13">
         <v>4</v>
       </c>
+      <c r="AP15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3005,9 +3044,12 @@
       <c r="AO16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AP16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3134,9 +3176,12 @@
       <c r="AO17" s="13">
         <v>5</v>
       </c>
+      <c r="AP17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3263,6 +3308,9 @@
       <c r="AO18" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AP18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -3392,9 +3440,12 @@
       <c r="AO19" s="13">
         <v>4</v>
       </c>
+      <c r="AP19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3521,6 +3572,9 @@
       <c r="AO20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AP20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -3650,9 +3704,12 @@
       <c r="AO21" s="13">
         <v>5</v>
       </c>
+      <c r="AP21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3779,9 +3836,12 @@
       <c r="AO22" s="9">
         <v>5</v>
       </c>
+      <c r="AP22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3907,6 +3967,9 @@
       </c>
       <c r="AO23" s="13">
         <v>5</v>
+      </c>
+      <c r="AP23" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
@@ -4795,7 +4858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AO17" sqref="AO17"/>
     </sheetView>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4858,9 +4858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO17" sqref="AO17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,9 +5307,12 @@
       <c r="AO2" s="10">
         <v>5</v>
       </c>
+      <c r="AP2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5436,9 +5439,12 @@
       <c r="AO3" s="13">
         <v>5</v>
       </c>
+      <c r="AP3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5565,6 +5571,9 @@
       <c r="AO4" s="10">
         <v>4</v>
       </c>
+      <c r="AP4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>156</v>
@@ -5694,9 +5703,12 @@
       <c r="AO5" s="13">
         <v>5</v>
       </c>
+      <c r="AP5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5823,6 +5835,9 @@
       <c r="AO6" s="10">
         <v>5</v>
       </c>
+      <c r="AP6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
         <v>145</v>
@@ -5952,9 +5967,12 @@
       <c r="AO7" s="13">
         <v>5</v>
       </c>
+      <c r="AP7" s="13">
+        <v>4</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6081,9 +6099,12 @@
       <c r="AO8" s="10">
         <v>5</v>
       </c>
+      <c r="AP8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6210,9 +6231,12 @@
       <c r="AO9" s="13">
         <v>5</v>
       </c>
+      <c r="AP9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6350,9 +6374,12 @@
       <c r="AO11" s="13">
         <v>5</v>
       </c>
+      <c r="AP11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6479,9 +6506,12 @@
       <c r="AO12" s="10">
         <v>4</v>
       </c>
+      <c r="AP12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6608,9 +6638,12 @@
       <c r="AO13" s="13">
         <v>5</v>
       </c>
+      <c r="AP13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6752,9 +6785,12 @@
       <c r="AO15" s="10">
         <v>4</v>
       </c>
+      <c r="AP15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6881,9 +6917,12 @@
       <c r="AO16" s="13">
         <v>4</v>
       </c>
+      <c r="AP16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7010,9 +7049,12 @@
       <c r="AO17" s="10">
         <v>5</v>
       </c>
+      <c r="AP17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7139,9 +7181,12 @@
       <c r="AO18" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AP18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7268,9 +7313,12 @@
       <c r="AO19" s="10">
         <v>5</v>
       </c>
+      <c r="AP19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7397,9 +7445,12 @@
       <c r="AO20" s="13">
         <v>5</v>
       </c>
+      <c r="AP20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7526,9 +7577,12 @@
       <c r="AO21" s="10">
         <v>5</v>
       </c>
+      <c r="AP21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7655,9 +7709,12 @@
       <c r="AO22" s="13">
         <v>5</v>
       </c>
+      <c r="AP22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7784,9 +7841,12 @@
       <c r="AO23" s="10">
         <v>5</v>
       </c>
+      <c r="AP23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP14" sqref="AP14"/>
+      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,9 +1323,12 @@
       <c r="AP2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AQ2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1455,9 +1458,12 @@
       <c r="AP3" s="13">
         <v>4</v>
       </c>
+      <c r="AQ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,9 +1593,12 @@
       <c r="AP4" s="9">
         <v>5</v>
       </c>
+      <c r="AQ4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,9 +1728,12 @@
       <c r="AP5" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AQ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1851,9 +1863,12 @@
       <c r="AP6" s="9">
         <v>5</v>
       </c>
+      <c r="AQ6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1981,6 +1996,9 @@
         <v>5</v>
       </c>
       <c r="AP7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2115,9 +2133,12 @@
       <c r="AP8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AQ8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2255,9 +2276,12 @@
       <c r="AP10" s="9">
         <v>5</v>
       </c>
+      <c r="AQ10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2387,9 +2411,12 @@
       <c r="AP11" s="13">
         <v>5</v>
       </c>
+      <c r="AQ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2519,9 +2546,12 @@
       <c r="AP12" s="9">
         <v>5</v>
       </c>
+      <c r="AQ12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2651,9 +2681,12 @@
       <c r="AP13" s="13">
         <v>5</v>
       </c>
+      <c r="AQ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,9 +2816,12 @@
       <c r="AP14" s="9">
         <v>5</v>
       </c>
+      <c r="AQ14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2915,6 +2951,9 @@
       <c r="AP15" s="13">
         <v>5</v>
       </c>
+      <c r="AQ15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>163</v>
@@ -3047,9 +3086,12 @@
       <c r="AP16" s="9">
         <v>5</v>
       </c>
+      <c r="AQ16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3179,9 +3221,12 @@
       <c r="AP17" s="13">
         <v>5</v>
       </c>
+      <c r="AQ17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3311,9 +3356,12 @@
       <c r="AP18" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AQ18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3443,9 +3491,12 @@
       <c r="AP19" s="13">
         <v>5</v>
       </c>
+      <c r="AQ19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3575,6 +3626,9 @@
       <c r="AP20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AQ20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -3707,9 +3761,12 @@
       <c r="AP21" s="13">
         <v>5</v>
       </c>
+      <c r="AQ21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3839,9 +3896,12 @@
       <c r="AP22" s="9">
         <v>5</v>
       </c>
+      <c r="AQ22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3971,9 +4031,12 @@
       <c r="AP23" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AQ23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -4858,7 +4921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
@@ -4921,9 +4921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP8" sqref="AP8"/>
+      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5373,9 +5373,12 @@
       <c r="AP2" s="10">
         <v>5</v>
       </c>
+      <c r="AQ2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5505,9 +5508,12 @@
       <c r="AP3" s="13">
         <v>5</v>
       </c>
+      <c r="AQ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5637,9 +5643,12 @@
       <c r="AP4" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AQ4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5769,9 +5778,12 @@
       <c r="AP5" s="13">
         <v>5</v>
       </c>
+      <c r="AQ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5901,9 +5913,12 @@
       <c r="AP6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AQ6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6033,9 +6048,12 @@
       <c r="AP7" s="13">
         <v>4</v>
       </c>
+      <c r="AQ7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6165,6 +6183,9 @@
       <c r="AP8" s="10">
         <v>5</v>
       </c>
+      <c r="AQ8" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
         <v>189</v>
@@ -6297,9 +6318,12 @@
       <c r="AP9" s="13">
         <v>5</v>
       </c>
+      <c r="AQ9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6440,9 +6464,12 @@
       <c r="AP11" s="13">
         <v>5</v>
       </c>
+      <c r="AQ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6572,9 +6599,12 @@
       <c r="AP12" s="10">
         <v>5</v>
       </c>
+      <c r="AQ12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6704,9 +6734,12 @@
       <c r="AP13" s="13">
         <v>5</v>
       </c>
+      <c r="AQ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6851,9 +6884,12 @@
       <c r="AP15" s="10">
         <v>5</v>
       </c>
+      <c r="AQ15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6983,9 +7019,12 @@
       <c r="AP16" s="13">
         <v>5</v>
       </c>
+      <c r="AQ16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7115,9 +7154,12 @@
       <c r="AP17" s="10">
         <v>5</v>
       </c>
+      <c r="AQ17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7247,9 +7289,12 @@
       <c r="AP18" s="13">
         <v>5</v>
       </c>
+      <c r="AQ18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7379,6 +7424,9 @@
       <c r="AP19" s="10">
         <v>5</v>
       </c>
+      <c r="AQ19" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
         <v>183</v>
@@ -7511,9 +7559,12 @@
       <c r="AP20" s="13">
         <v>5</v>
       </c>
+      <c r="AQ20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7643,9 +7694,12 @@
       <c r="AP21" s="10">
         <v>5</v>
       </c>
+      <c r="AQ21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7775,9 +7829,12 @@
       <c r="AP22" s="13">
         <v>5</v>
       </c>
+      <c r="AQ22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7907,9 +7964,12 @@
       <c r="AP23" s="10">
         <v>5</v>
       </c>
+      <c r="AQ23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
+      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,6 +1326,9 @@
       <c r="AQ2" s="9">
         <v>5</v>
       </c>
+      <c r="AR2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>130</v>
@@ -1461,9 +1464,12 @@
       <c r="AQ3" s="13">
         <v>5</v>
       </c>
+      <c r="AR3" s="13">
+        <v>4</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1596,9 +1602,12 @@
       <c r="AQ4" s="9">
         <v>5</v>
       </c>
+      <c r="AR4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1731,9 +1740,12 @@
       <c r="AQ5" s="13">
         <v>5</v>
       </c>
+      <c r="AR5" s="13">
+        <v>4</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1866,9 +1878,12 @@
       <c r="AQ6" s="9">
         <v>5</v>
       </c>
+      <c r="AR6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1999,6 +2014,9 @@
         <v>44</v>
       </c>
       <c r="AQ7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2136,9 +2154,12 @@
       <c r="AQ8" s="9">
         <v>5</v>
       </c>
+      <c r="AR8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2279,9 +2300,12 @@
       <c r="AQ10" s="9">
         <v>5</v>
       </c>
+      <c r="AR10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2414,9 +2438,12 @@
       <c r="AQ11" s="13">
         <v>5</v>
       </c>
+      <c r="AR11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2549,9 +2576,12 @@
       <c r="AQ12" s="9">
         <v>5</v>
       </c>
+      <c r="AR12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,9 +2714,12 @@
       <c r="AQ13" s="13">
         <v>5</v>
       </c>
+      <c r="AR13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2819,9 +2852,12 @@
       <c r="AQ14" s="9">
         <v>5</v>
       </c>
+      <c r="AR14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2954,9 +2990,12 @@
       <c r="AQ15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AR15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3089,9 +3128,12 @@
       <c r="AQ16" s="9">
         <v>5</v>
       </c>
+      <c r="AR16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3224,9 +3266,12 @@
       <c r="AQ17" s="13">
         <v>5</v>
       </c>
+      <c r="AR17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3359,9 +3404,12 @@
       <c r="AQ18" s="9">
         <v>5</v>
       </c>
+      <c r="AR18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3494,9 +3542,12 @@
       <c r="AQ19" s="13">
         <v>5</v>
       </c>
+      <c r="AR19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3629,9 +3680,12 @@
       <c r="AQ20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AR20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3764,9 +3818,12 @@
       <c r="AQ21" s="13">
         <v>5</v>
       </c>
+      <c r="AR21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3899,9 +3956,12 @@
       <c r="AQ22" s="9">
         <v>5</v>
       </c>
+      <c r="AR22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4034,9 +4094,12 @@
       <c r="AQ23" s="13">
         <v>5</v>
       </c>
+      <c r="AR23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -4921,7 +4984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
     </sheetView>
@@ -4984,9 +4984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
+      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,9 +5439,12 @@
       <c r="AQ2" s="10">
         <v>5</v>
       </c>
+      <c r="AR2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5574,6 +5577,9 @@
       <c r="AQ3" s="13">
         <v>5</v>
       </c>
+      <c r="AR3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
         <v>205</v>
@@ -5709,6 +5715,9 @@
       <c r="AQ4" s="10">
         <v>5</v>
       </c>
+      <c r="AR4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>161</v>
@@ -5844,9 +5853,12 @@
       <c r="AQ5" s="13">
         <v>5</v>
       </c>
+      <c r="AR5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5979,6 +5991,9 @@
       <c r="AQ6" s="10">
         <v>5</v>
       </c>
+      <c r="AR6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
         <v>150</v>
@@ -6114,9 +6129,12 @@
       <c r="AQ7" s="13">
         <v>5</v>
       </c>
+      <c r="AR7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6249,6 +6267,9 @@
       <c r="AQ8" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AR8" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
         <v>189</v>
@@ -6384,9 +6405,12 @@
       <c r="AQ9" s="13">
         <v>5</v>
       </c>
+      <c r="AR9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6530,9 +6554,12 @@
       <c r="AQ11" s="13">
         <v>5</v>
       </c>
+      <c r="AR11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6665,6 +6692,9 @@
       <c r="AQ12" s="10">
         <v>5</v>
       </c>
+      <c r="AR12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
         <v>181</v>
@@ -6799,6 +6829,9 @@
       </c>
       <c r="AQ13" s="13">
         <v>5</v>
+      </c>
+      <c r="AR13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
@@ -6950,9 +6983,12 @@
       <c r="AQ15" s="10">
         <v>5</v>
       </c>
+      <c r="AR15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7085,9 +7121,12 @@
       <c r="AQ16" s="13">
         <v>5</v>
       </c>
+      <c r="AR16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7220,6 +7259,9 @@
       <c r="AQ17" s="10">
         <v>5</v>
       </c>
+      <c r="AR17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -7355,9 +7397,12 @@
       <c r="AQ18" s="13">
         <v>5</v>
       </c>
+      <c r="AR18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7490,6 +7535,9 @@
       <c r="AQ19" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AR19" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
         <v>183</v>
@@ -7625,6 +7673,9 @@
       <c r="AQ20" s="13">
         <v>5</v>
       </c>
+      <c r="AR20" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
         <v>183</v>
@@ -7760,9 +7811,12 @@
       <c r="AQ21" s="10">
         <v>5</v>
       </c>
+      <c r="AR21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7895,9 +7949,12 @@
       <c r="AQ22" s="13">
         <v>5</v>
       </c>
+      <c r="AR22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8030,9 +8087,12 @@
       <c r="AQ23" s="10">
         <v>5</v>
       </c>
+      <c r="AR23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -4986,7 +4986,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR9" sqref="AR9"/>
+      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,12 +5577,12 @@
       <c r="AQ3" s="13">
         <v>5</v>
       </c>
-      <c r="AR3" s="13" t="s">
-        <v>44</v>
+      <c r="AR3" s="13">
+        <v>5</v>
       </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5991,12 +5991,12 @@
       <c r="AQ6" s="10">
         <v>5</v>
       </c>
-      <c r="AR6" s="10" t="s">
-        <v>44</v>
+      <c r="AR6" s="10">
+        <v>5</v>
       </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6267,12 +6267,12 @@
       <c r="AQ8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AR8" s="10" t="s">
-        <v>44</v>
+      <c r="AR8" s="10">
+        <v>5</v>
       </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6692,12 +6692,12 @@
       <c r="AQ12" s="10">
         <v>5</v>
       </c>
-      <c r="AR12" s="10" t="s">
-        <v>44</v>
+      <c r="AR12" s="10">
+        <v>5</v>
       </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6830,12 +6830,12 @@
       <c r="AQ13" s="13">
         <v>5</v>
       </c>
-      <c r="AR13" s="13" t="s">
-        <v>44</v>
+      <c r="AR13" s="13">
+        <v>5</v>
       </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7259,12 +7259,12 @@
       <c r="AQ17" s="10">
         <v>5</v>
       </c>
-      <c r="AR17" s="10" t="s">
-        <v>44</v>
+      <c r="AR17" s="10">
+        <v>5</v>
       </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -4986,7 +4986,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
+      <selection pane="topRight" activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5715,12 +5715,12 @@
       <c r="AQ4" s="10">
         <v>5</v>
       </c>
-      <c r="AR4" s="10" t="s">
-        <v>44</v>
+      <c r="AR4" s="10">
+        <v>5</v>
       </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7535,12 +7535,12 @@
       <c r="AQ19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AR19" s="10" t="s">
-        <v>44</v>
+      <c r="AR19" s="10">
+        <v>5</v>
       </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7673,12 +7673,12 @@
       <c r="AQ20" s="13">
         <v>5</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>44</v>
+      <c r="AR20" s="13">
+        <v>5</v>
       </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1329,9 @@
       <c r="AR2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AS2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>130</v>
@@ -1467,9 +1470,12 @@
       <c r="AR3" s="13">
         <v>4</v>
       </c>
+      <c r="AS3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1605,6 +1611,9 @@
       <c r="AR4" s="9">
         <v>5</v>
       </c>
+      <c r="AS4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
         <v>177</v>
@@ -1743,9 +1752,12 @@
       <c r="AR5" s="13">
         <v>4</v>
       </c>
+      <c r="AS5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1881,9 +1893,12 @@
       <c r="AR6" s="9">
         <v>5</v>
       </c>
+      <c r="AS6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2017,6 +2032,9 @@
         <v>44</v>
       </c>
       <c r="AR7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2157,9 +2175,12 @@
       <c r="AR8" s="9">
         <v>5</v>
       </c>
+      <c r="AS8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2303,9 +2324,12 @@
       <c r="AR10" s="9">
         <v>5</v>
       </c>
+      <c r="AS10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2441,9 +2465,12 @@
       <c r="AR11" s="13">
         <v>5</v>
       </c>
+      <c r="AS11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2579,9 +2606,12 @@
       <c r="AR12" s="9">
         <v>5</v>
       </c>
+      <c r="AS12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2717,9 +2747,12 @@
       <c r="AR13" s="13">
         <v>5</v>
       </c>
+      <c r="AS13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2855,9 +2888,12 @@
       <c r="AR14" s="9">
         <v>5</v>
       </c>
+      <c r="AS14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2993,9 +3029,12 @@
       <c r="AR15" s="13">
         <v>5</v>
       </c>
+      <c r="AS15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3131,6 +3170,9 @@
       <c r="AR16" s="9">
         <v>5</v>
       </c>
+      <c r="AS16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
         <v>165</v>
@@ -3269,9 +3311,12 @@
       <c r="AR17" s="13">
         <v>5</v>
       </c>
+      <c r="AS17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3407,9 +3452,12 @@
       <c r="AR18" s="9">
         <v>5</v>
       </c>
+      <c r="AS18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3545,9 +3593,12 @@
       <c r="AR19" s="13">
         <v>5</v>
       </c>
+      <c r="AS19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3683,9 +3734,12 @@
       <c r="AR20" s="9">
         <v>5</v>
       </c>
+      <c r="AS20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,9 +3875,12 @@
       <c r="AR21" s="13">
         <v>5</v>
       </c>
+      <c r="AS21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3959,9 +4016,12 @@
       <c r="AR22" s="9">
         <v>5</v>
       </c>
+      <c r="AS22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4097,9 +4157,12 @@
       <c r="AR23" s="13">
         <v>5</v>
       </c>
+      <c r="AS23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -4984,9 +5047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR21" sqref="AR21"/>
+      <selection pane="topRight" activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
@@ -5047,9 +5047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM16" sqref="AM16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,9 +5505,12 @@
       <c r="AR2" s="10">
         <v>5</v>
       </c>
+      <c r="AS2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5643,9 +5646,12 @@
       <c r="AR3" s="13">
         <v>5</v>
       </c>
+      <c r="AS3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5781,6 +5787,9 @@
       <c r="AR4" s="10">
         <v>5</v>
       </c>
+      <c r="AS4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>166</v>
@@ -5919,9 +5928,12 @@
       <c r="AR5" s="13">
         <v>5</v>
       </c>
+      <c r="AS5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6057,9 +6069,12 @@
       <c r="AR6" s="10">
         <v>5</v>
       </c>
+      <c r="AS6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6195,9 +6210,12 @@
       <c r="AR7" s="13">
         <v>5</v>
       </c>
+      <c r="AS7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6333,9 +6351,12 @@
       <c r="AR8" s="10">
         <v>5</v>
       </c>
+      <c r="AS8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6471,9 +6492,12 @@
       <c r="AR9" s="13">
         <v>5</v>
       </c>
+      <c r="AS9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6620,9 +6644,12 @@
       <c r="AR11" s="13">
         <v>5</v>
       </c>
+      <c r="AS11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6758,9 +6785,12 @@
       <c r="AR12" s="10">
         <v>5</v>
       </c>
+      <c r="AS12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6896,9 +6926,12 @@
       <c r="AR13" s="13">
         <v>5</v>
       </c>
+      <c r="AS13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7049,9 +7082,12 @@
       <c r="AR15" s="10">
         <v>5</v>
       </c>
+      <c r="AS15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7187,9 +7223,12 @@
       <c r="AR16" s="13">
         <v>5</v>
       </c>
+      <c r="AS16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7325,6 +7364,9 @@
       <c r="AR17" s="10">
         <v>5</v>
       </c>
+      <c r="AS17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -7463,9 +7505,12 @@
       <c r="AR18" s="13">
         <v>5</v>
       </c>
+      <c r="AS18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7601,9 +7646,12 @@
       <c r="AR19" s="10">
         <v>5</v>
       </c>
+      <c r="AS19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7739,9 +7787,12 @@
       <c r="AR20" s="13">
         <v>5</v>
       </c>
+      <c r="AS20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7877,9 +7928,12 @@
       <c r="AR21" s="10">
         <v>5</v>
       </c>
+      <c r="AS21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8015,9 +8069,12 @@
       <c r="AR22" s="13">
         <v>5</v>
       </c>
+      <c r="AS22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8152,6 +8209,9 @@
       </c>
       <c r="AR23" s="10">
         <v>5</v>
+      </c>
+      <c r="AS23" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -5787,12 +5787,12 @@
       <c r="AR4" s="10">
         <v>5</v>
       </c>
-      <c r="AS4" s="10" t="s">
-        <v>44</v>
+      <c r="AS4" s="10">
+        <v>4</v>
       </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7364,12 +7364,12 @@
       <c r="AR17" s="10">
         <v>5</v>
       </c>
-      <c r="AS17" s="10" t="s">
-        <v>44</v>
+      <c r="AS17" s="10">
+        <v>5</v>
       </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS16" sqref="AS16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,9 +1332,12 @@
       <c r="AS2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AT2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1473,6 +1476,9 @@
       <c r="AS3" s="13">
         <v>5</v>
       </c>
+      <c r="AT3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
         <v>178</v>
@@ -1614,9 +1620,12 @@
       <c r="AS4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AT4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1755,9 +1764,12 @@
       <c r="AS5" s="13">
         <v>5</v>
       </c>
+      <c r="AT5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1896,9 +1908,12 @@
       <c r="AS6" s="9">
         <v>5</v>
       </c>
+      <c r="AT6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2035,6 +2050,9 @@
         <v>44</v>
       </c>
       <c r="AS7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2178,6 +2196,9 @@
       <c r="AS8" s="9">
         <v>5</v>
       </c>
+      <c r="AT8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
         <v>171</v>
@@ -2327,9 +2348,12 @@
       <c r="AS10" s="9">
         <v>5</v>
       </c>
+      <c r="AT10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2468,6 +2492,9 @@
       <c r="AS11" s="13">
         <v>5</v>
       </c>
+      <c r="AT11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
@@ -2609,6 +2636,9 @@
       <c r="AS12" s="9">
         <v>5</v>
       </c>
+      <c r="AT12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
         <v>199</v>
@@ -2750,6 +2780,9 @@
       <c r="AS13" s="13">
         <v>5</v>
       </c>
+      <c r="AT13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -2891,9 +2924,12 @@
       <c r="AS14" s="9">
         <v>5</v>
       </c>
+      <c r="AT14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3032,9 +3068,12 @@
       <c r="AS15" s="13">
         <v>5</v>
       </c>
+      <c r="AT15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3173,9 +3212,12 @@
       <c r="AS16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AT16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3314,9 +3356,12 @@
       <c r="AS17" s="13">
         <v>5</v>
       </c>
+      <c r="AT17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3455,9 +3500,12 @@
       <c r="AS18" s="9">
         <v>5</v>
       </c>
+      <c r="AT18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3596,9 +3644,12 @@
       <c r="AS19" s="13">
         <v>5</v>
       </c>
+      <c r="AT19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3737,9 +3788,12 @@
       <c r="AS20" s="9">
         <v>5</v>
       </c>
+      <c r="AT20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3878,9 +3932,12 @@
       <c r="AS21" s="13">
         <v>5</v>
       </c>
+      <c r="AT21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4019,9 +4076,12 @@
       <c r="AS22" s="9">
         <v>5</v>
       </c>
+      <c r="AT22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4160,9 +4220,12 @@
       <c r="AS23" s="13">
         <v>5</v>
       </c>
+      <c r="AT23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5047,9 +5110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS18" sqref="AS18"/>
+      <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT24" sqref="AT24"/>
+      <selection pane="topRight" activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,12 +1476,12 @@
       <c r="AS3" s="13">
         <v>5</v>
       </c>
-      <c r="AT3" s="13" t="s">
-        <v>44</v>
+      <c r="AT3" s="13">
+        <v>4</v>
       </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2492,12 +2492,12 @@
       <c r="AS11" s="13">
         <v>5</v>
       </c>
-      <c r="AT11" s="13" t="s">
-        <v>44</v>
+      <c r="AT11" s="13">
+        <v>4</v>
       </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2636,12 +2636,12 @@
       <c r="AS12" s="9">
         <v>5</v>
       </c>
-      <c r="AT12" s="9" t="s">
-        <v>44</v>
+      <c r="AT12" s="9">
+        <v>4</v>
       </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5110,9 +5110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT2" sqref="AT2"/>
+      <selection pane="topRight" activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5571,9 +5571,12 @@
       <c r="AS2" s="10">
         <v>5</v>
       </c>
+      <c r="AT2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5712,9 +5715,12 @@
       <c r="AS3" s="13">
         <v>5</v>
       </c>
+      <c r="AT3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5853,6 +5859,9 @@
       <c r="AS4" s="10">
         <v>4</v>
       </c>
+      <c r="AT4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>170</v>
@@ -5994,9 +6003,12 @@
       <c r="AS5" s="13">
         <v>5</v>
       </c>
+      <c r="AT5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6135,6 +6147,9 @@
       <c r="AS6" s="10">
         <v>5</v>
       </c>
+      <c r="AT6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
         <v>160</v>
@@ -6276,9 +6291,12 @@
       <c r="AS7" s="13">
         <v>5</v>
       </c>
+      <c r="AT7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6417,6 +6435,9 @@
       <c r="AS8" s="10">
         <v>5</v>
       </c>
+      <c r="AT8" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
         <v>199</v>
@@ -6558,9 +6579,12 @@
       <c r="AS9" s="13">
         <v>5</v>
       </c>
+      <c r="AT9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6710,9 +6734,12 @@
       <c r="AS11" s="13">
         <v>5</v>
       </c>
+      <c r="AT11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6851,6 +6878,9 @@
       <c r="AS12" s="10">
         <v>5</v>
       </c>
+      <c r="AT12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
         <v>191</v>
@@ -6992,9 +7022,12 @@
       <c r="AS13" s="13">
         <v>5</v>
       </c>
+      <c r="AT13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7148,9 +7181,12 @@
       <c r="AS15" s="10">
         <v>5</v>
       </c>
+      <c r="AT15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7289,9 +7325,12 @@
       <c r="AS16" s="13">
         <v>5</v>
       </c>
+      <c r="AT16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7430,6 +7469,9 @@
       <c r="AS17" s="10">
         <v>5</v>
       </c>
+      <c r="AT17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>175</v>
@@ -7571,9 +7613,12 @@
       <c r="AS18" s="13">
         <v>5</v>
       </c>
+      <c r="AT18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7712,9 +7757,12 @@
       <c r="AS19" s="10">
         <v>5</v>
       </c>
+      <c r="AT19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7853,9 +7901,12 @@
       <c r="AS20" s="13">
         <v>5</v>
       </c>
+      <c r="AT20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7994,6 +8045,9 @@
       <c r="AS21" s="10">
         <v>5</v>
       </c>
+      <c r="AT21" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -8135,9 +8189,12 @@
       <c r="AS22" s="13">
         <v>5</v>
       </c>
+      <c r="AT22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8274,6 +8331,9 @@
         <v>5</v>
       </c>
       <c r="AS23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="CY23" s="10">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -5112,7 +5112,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT22" sqref="AT22"/>
+      <selection pane="topRight" activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7469,12 +7469,12 @@
       <c r="AS17" s="10">
         <v>5</v>
       </c>
-      <c r="AT17" s="10" t="s">
-        <v>44</v>
+      <c r="AT17" s="10">
+        <v>5</v>
       </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8045,12 +8045,12 @@
       <c r="AS21" s="10">
         <v>5</v>
       </c>
-      <c r="AT21" s="10" t="s">
-        <v>44</v>
+      <c r="AT21" s="10">
+        <v>5</v>
       </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT8" sqref="AT8"/>
+      <selection pane="topRight" activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,9 +1335,12 @@
       <c r="AT2" s="9">
         <v>5</v>
       </c>
+      <c r="AU2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1479,9 +1482,12 @@
       <c r="AT3" s="13">
         <v>4</v>
       </c>
+      <c r="AU3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1623,9 +1629,12 @@
       <c r="AT4" s="9">
         <v>5</v>
       </c>
+      <c r="AU4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1767,9 +1776,12 @@
       <c r="AT5" s="13">
         <v>5</v>
       </c>
+      <c r="AU5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1911,9 +1923,12 @@
       <c r="AT6" s="9">
         <v>5</v>
       </c>
+      <c r="AU6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2053,6 +2068,9 @@
         <v>44</v>
       </c>
       <c r="AT7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2199,9 +2217,12 @@
       <c r="AT8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AU8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2351,9 +2372,12 @@
       <c r="AT10" s="9">
         <v>5</v>
       </c>
+      <c r="AU10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2495,9 +2519,12 @@
       <c r="AT11" s="13">
         <v>4</v>
       </c>
+      <c r="AU11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2639,9 +2666,12 @@
       <c r="AT12" s="9">
         <v>4</v>
       </c>
+      <c r="AU12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,9 +2813,12 @@
       <c r="AT13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AU13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2927,9 +2960,12 @@
       <c r="AT14" s="9">
         <v>5</v>
       </c>
+      <c r="AU14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3071,6 +3107,9 @@
       <c r="AT15" s="13">
         <v>5</v>
       </c>
+      <c r="AU15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>178</v>
@@ -3215,9 +3254,12 @@
       <c r="AT16" s="9">
         <v>5</v>
       </c>
+      <c r="AU16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3359,9 +3401,12 @@
       <c r="AT17" s="13">
         <v>5</v>
       </c>
+      <c r="AU17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3503,6 +3548,9 @@
       <c r="AT18" s="9">
         <v>5</v>
       </c>
+      <c r="AU18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -3647,9 +3695,12 @@
       <c r="AT19" s="13">
         <v>5</v>
       </c>
+      <c r="AU19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3791,9 +3842,12 @@
       <c r="AT20" s="9">
         <v>5</v>
       </c>
+      <c r="AU20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3935,9 +3989,12 @@
       <c r="AT21" s="13">
         <v>5</v>
       </c>
+      <c r="AU21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4079,9 +4136,12 @@
       <c r="AT22" s="9">
         <v>5</v>
       </c>
+      <c r="AU22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4223,9 +4283,12 @@
       <c r="AT23" s="13">
         <v>5</v>
       </c>
+      <c r="AU23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5110,7 +5173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AT18" sqref="AT18"/>
     </sheetView>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AU24" sqref="AU24"/>
     </sheetView>
@@ -5173,9 +5173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT18" sqref="AT18"/>
+      <selection pane="topRight" activeCell="AU21" sqref="AU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5637,9 +5637,12 @@
       <c r="AT2" s="10">
         <v>5</v>
       </c>
+      <c r="AU2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5781,9 +5784,12 @@
       <c r="AT3" s="13">
         <v>5</v>
       </c>
+      <c r="AU3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5925,9 +5931,12 @@
       <c r="AT4" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AU4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6069,9 +6078,12 @@
       <c r="AT5" s="13">
         <v>5</v>
       </c>
+      <c r="AU5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6213,9 +6225,12 @@
       <c r="AT6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AU6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6357,9 +6372,12 @@
       <c r="AT7" s="13">
         <v>5</v>
       </c>
+      <c r="AU7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6501,9 +6519,12 @@
       <c r="AT8" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AU8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6645,9 +6666,12 @@
       <c r="AT9" s="13">
         <v>5</v>
       </c>
+      <c r="AU9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6800,9 +6824,12 @@
       <c r="AT11" s="13">
         <v>5</v>
       </c>
+      <c r="AU11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6941,12 +6968,15 @@
       <c r="AS12" s="10">
         <v>5</v>
       </c>
-      <c r="AT12" s="10" t="s">
-        <v>44</v>
+      <c r="AT12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>5</v>
       </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7088,9 +7118,12 @@
       <c r="AT13" s="13">
         <v>5</v>
       </c>
+      <c r="AU13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7247,9 +7280,12 @@
       <c r="AT15" s="10">
         <v>5</v>
       </c>
+      <c r="AU15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7391,9 +7427,12 @@
       <c r="AT16" s="13">
         <v>5</v>
       </c>
+      <c r="AU16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7535,9 +7574,12 @@
       <c r="AT17" s="10">
         <v>5</v>
       </c>
+      <c r="AU17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7679,9 +7721,12 @@
       <c r="AT18" s="13">
         <v>5</v>
       </c>
+      <c r="AU18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7823,9 +7868,12 @@
       <c r="AT19" s="10">
         <v>5</v>
       </c>
+      <c r="AU19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7967,9 +8015,12 @@
       <c r="AT20" s="13">
         <v>5</v>
       </c>
+      <c r="AU20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8111,9 +8162,12 @@
       <c r="AT21" s="10">
         <v>5</v>
       </c>
+      <c r="AU21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8255,9 +8309,12 @@
       <c r="AT22" s="13">
         <v>5</v>
       </c>
+      <c r="AU22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8399,9 +8456,12 @@
       <c r="AT23" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AU23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU24" sqref="AU24"/>
+      <selection pane="topRight" activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,9 +1338,12 @@
       <c r="AU2" s="9">
         <v>5</v>
       </c>
+      <c r="AV2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,9 +1488,12 @@
       <c r="AU3" s="13">
         <v>5</v>
       </c>
+      <c r="AV3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1632,9 +1638,12 @@
       <c r="AU4" s="9">
         <v>5</v>
       </c>
+      <c r="AV4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1779,9 +1788,12 @@
       <c r="AU5" s="13">
         <v>5</v>
       </c>
+      <c r="AV5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1926,9 +1938,12 @@
       <c r="AU6" s="9">
         <v>5</v>
       </c>
+      <c r="AV6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2071,6 +2086,9 @@
         <v>44</v>
       </c>
       <c r="AU7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2220,9 +2238,12 @@
       <c r="AU8" s="9">
         <v>5</v>
       </c>
+      <c r="AV8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,9 +2396,12 @@
       <c r="AU10" s="9">
         <v>5</v>
       </c>
+      <c r="AV10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2522,9 +2546,12 @@
       <c r="AU11" s="13">
         <v>5</v>
       </c>
+      <c r="AV11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2669,9 +2696,12 @@
       <c r="AU12" s="9">
         <v>5</v>
       </c>
+      <c r="AV12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2816,9 +2846,12 @@
       <c r="AU13" s="13">
         <v>5</v>
       </c>
+      <c r="AV13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2963,9 +2996,12 @@
       <c r="AU14" s="9">
         <v>5</v>
       </c>
+      <c r="AV14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3110,9 +3146,12 @@
       <c r="AU15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AV15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3257,9 +3296,12 @@
       <c r="AU16" s="9">
         <v>5</v>
       </c>
+      <c r="AV16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3404,6 +3446,9 @@
       <c r="AU17" s="13">
         <v>5</v>
       </c>
+      <c r="AV17" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -3551,9 +3596,12 @@
       <c r="AU18" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AV18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3698,9 +3746,12 @@
       <c r="AU19" s="13">
         <v>5</v>
       </c>
+      <c r="AV19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3845,6 +3896,9 @@
       <c r="AU20" s="9">
         <v>5</v>
       </c>
+      <c r="AV20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -3992,9 +4046,12 @@
       <c r="AU21" s="13">
         <v>5</v>
       </c>
+      <c r="AV21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4139,9 +4196,12 @@
       <c r="AU22" s="9">
         <v>5</v>
       </c>
+      <c r="AV22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4286,9 +4346,12 @@
       <c r="AU23" s="13">
         <v>5</v>
       </c>
+      <c r="AV23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5175,7 +5238,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU21" sqref="AU21"/>
+      <selection pane="topRight" activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,9 +5703,12 @@
       <c r="AU2" s="10">
         <v>5</v>
       </c>
+      <c r="AV2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5787,9 +5853,12 @@
       <c r="AU3" s="13">
         <v>5</v>
       </c>
+      <c r="AV3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5934,9 +6003,12 @@
       <c r="AU4" s="10">
         <v>5</v>
       </c>
+      <c r="AV4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6081,9 +6153,12 @@
       <c r="AU5" s="13">
         <v>5</v>
       </c>
+      <c r="AV5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6228,9 +6303,12 @@
       <c r="AU6" s="10">
         <v>5</v>
       </c>
+      <c r="AV6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6375,9 +6453,12 @@
       <c r="AU7" s="13">
         <v>5</v>
       </c>
+      <c r="AV7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6522,9 +6603,12 @@
       <c r="AU8" s="10">
         <v>5</v>
       </c>
+      <c r="AV8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6669,9 +6753,12 @@
       <c r="AU9" s="13">
         <v>5</v>
       </c>
+      <c r="AV9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6827,9 +6914,12 @@
       <c r="AU11" s="13">
         <v>5</v>
       </c>
+      <c r="AV11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6974,9 +7064,12 @@
       <c r="AU12" s="10">
         <v>5</v>
       </c>
+      <c r="AV12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7121,9 +7214,12 @@
       <c r="AU13" s="13">
         <v>5</v>
       </c>
+      <c r="AV13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7283,9 +7379,12 @@
       <c r="AU15" s="10">
         <v>5</v>
       </c>
+      <c r="AV15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7430,9 +7529,12 @@
       <c r="AU16" s="13">
         <v>5</v>
       </c>
+      <c r="AV16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7577,9 +7679,12 @@
       <c r="AU17" s="10">
         <v>5</v>
       </c>
+      <c r="AV17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7724,9 +7829,12 @@
       <c r="AU18" s="13">
         <v>5</v>
       </c>
+      <c r="AV18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7871,9 +7979,12 @@
       <c r="AU19" s="10">
         <v>5</v>
       </c>
+      <c r="AV19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8018,6 +8129,9 @@
       <c r="AU20" s="13">
         <v>5</v>
       </c>
+      <c r="AV20" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
         <v>203</v>
@@ -8165,9 +8279,12 @@
       <c r="AU21" s="10">
         <v>5</v>
       </c>
+      <c r="AV21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8312,9 +8429,12 @@
       <c r="AU22" s="13">
         <v>5</v>
       </c>
+      <c r="AV22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8459,9 +8579,12 @@
       <c r="AU23" s="10">
         <v>5</v>
       </c>
+      <c r="AV23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV20" sqref="AV20"/>
+      <selection pane="topRight" activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,9 +1341,12 @@
       <c r="AV2" s="9">
         <v>5</v>
       </c>
+      <c r="AW2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1491,6 +1494,9 @@
       <c r="AV3" s="13">
         <v>5</v>
       </c>
+      <c r="AW3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
         <v>192</v>
@@ -1641,9 +1647,12 @@
       <c r="AV4" s="9">
         <v>5</v>
       </c>
+      <c r="AW4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1791,9 +1800,12 @@
       <c r="AV5" s="13">
         <v>5</v>
       </c>
+      <c r="AW5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1941,9 +1953,12 @@
       <c r="AV6" s="9">
         <v>5</v>
       </c>
+      <c r="AW6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2089,6 +2104,9 @@
         <v>44</v>
       </c>
       <c r="AV7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2241,6 +2259,9 @@
       <c r="AV8" s="9">
         <v>5</v>
       </c>
+      <c r="AW8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
         <v>181</v>
@@ -2399,9 +2420,12 @@
       <c r="AV10" s="9">
         <v>5</v>
       </c>
+      <c r="AW10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2549,9 +2573,12 @@
       <c r="AV11" s="13">
         <v>5</v>
       </c>
+      <c r="AW11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2699,9 +2726,12 @@
       <c r="AV12" s="9">
         <v>5</v>
       </c>
+      <c r="AW12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2849,6 +2879,9 @@
       <c r="AV13" s="13">
         <v>5</v>
       </c>
+      <c r="AW13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>159</v>
@@ -2999,6 +3032,9 @@
       <c r="AV14" s="9">
         <v>5</v>
       </c>
+      <c r="AW14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -3149,6 +3185,9 @@
       <c r="AV15" s="13">
         <v>5</v>
       </c>
+      <c r="AW15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>183</v>
@@ -3299,9 +3338,12 @@
       <c r="AV16" s="9">
         <v>5</v>
       </c>
+      <c r="AW16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3449,9 +3491,12 @@
       <c r="AV17" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AW17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3599,9 +3644,12 @@
       <c r="AV18" s="9">
         <v>5</v>
       </c>
+      <c r="AW18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3749,9 +3797,12 @@
       <c r="AV19" s="13">
         <v>5</v>
       </c>
+      <c r="AW19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3899,9 +3950,12 @@
       <c r="AV20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AW20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4049,9 +4103,12 @@
       <c r="AV21" s="13">
         <v>5</v>
       </c>
+      <c r="AW21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4199,9 +4256,12 @@
       <c r="AV22" s="9">
         <v>5</v>
       </c>
+      <c r="AW22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4349,9 +4409,12 @@
       <c r="AV23" s="13">
         <v>5</v>
       </c>
+      <c r="AW23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5236,9 +5299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV24" sqref="AV24"/>
+      <selection pane="topRight" activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW13" sqref="AW13"/>
+      <selection pane="topRight" activeCell="AX22" sqref="AX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,9 +1344,12 @@
       <c r="AW2" s="9">
         <v>5</v>
       </c>
+      <c r="AX2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1494,12 +1497,15 @@
       <c r="AV3" s="13">
         <v>5</v>
       </c>
-      <c r="AW3" s="13" t="s">
-        <v>44</v>
+      <c r="AW3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="13">
+        <v>4</v>
       </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1650,9 +1656,12 @@
       <c r="AW4" s="9">
         <v>5</v>
       </c>
+      <c r="AX4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1803,9 +1812,12 @@
       <c r="AW5" s="13">
         <v>5</v>
       </c>
+      <c r="AX5" s="13">
+        <v>4</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1956,9 +1968,12 @@
       <c r="AW6" s="9">
         <v>5</v>
       </c>
+      <c r="AX6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2107,6 +2122,9 @@
         <v>44</v>
       </c>
       <c r="AW7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2262,9 +2280,12 @@
       <c r="AW8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AX8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2423,9 +2444,12 @@
       <c r="AW10" s="9">
         <v>5</v>
       </c>
+      <c r="AX10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2576,6 +2600,9 @@
       <c r="AW11" s="13">
         <v>5</v>
       </c>
+      <c r="AX11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
         <v>194</v>
@@ -2729,9 +2756,12 @@
       <c r="AW12" s="9">
         <v>5</v>
       </c>
+      <c r="AX12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2879,12 +2909,15 @@
       <c r="AV13" s="13">
         <v>5</v>
       </c>
-      <c r="AW13" s="13" t="s">
-        <v>44</v>
+      <c r="AW13" s="13">
+        <v>4</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>4</v>
       </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3032,12 +3065,15 @@
       <c r="AV14" s="9">
         <v>5</v>
       </c>
-      <c r="AW14" s="9" t="s">
-        <v>44</v>
+      <c r="AW14" s="9">
+        <v>4</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>4</v>
       </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3185,12 +3221,15 @@
       <c r="AV15" s="13">
         <v>5</v>
       </c>
-      <c r="AW15" s="13" t="s">
+      <c r="AW15" s="13">
+        <v>4</v>
+      </c>
+      <c r="AX15" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3341,6 +3380,9 @@
       <c r="AW16" s="9">
         <v>5</v>
       </c>
+      <c r="AX16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
         <v>185</v>
@@ -3494,9 +3536,12 @@
       <c r="AW17" s="13">
         <v>5</v>
       </c>
+      <c r="AX17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3647,9 +3692,12 @@
       <c r="AW18" s="9">
         <v>5</v>
       </c>
+      <c r="AX18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3800,9 +3848,12 @@
       <c r="AW19" s="13">
         <v>5</v>
       </c>
+      <c r="AX19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3953,9 +4004,12 @@
       <c r="AW20" s="9">
         <v>5</v>
       </c>
+      <c r="AX20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4106,9 +4160,12 @@
       <c r="AW21" s="13">
         <v>5</v>
       </c>
+      <c r="AX21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4259,6 +4316,9 @@
       <c r="AW22" s="9">
         <v>5</v>
       </c>
+      <c r="AX22" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
         <v>208</v>
@@ -4412,9 +4472,12 @@
       <c r="AW23" s="13">
         <v>5</v>
       </c>
+      <c r="AX23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5301,7 +5364,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG2" sqref="BG2"/>
+      <selection pane="topRight" activeCell="AW24" sqref="AW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5769,9 +5832,12 @@
       <c r="AV2" s="10">
         <v>5</v>
       </c>
+      <c r="AW2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5919,9 +5985,12 @@
       <c r="AV3" s="13">
         <v>5</v>
       </c>
+      <c r="AW3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6069,6 +6138,9 @@
       <c r="AV4" s="10">
         <v>5</v>
       </c>
+      <c r="AW4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
         <v>180</v>
@@ -6219,9 +6291,12 @@
       <c r="AV5" s="13">
         <v>5</v>
       </c>
+      <c r="AW5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6369,9 +6444,12 @@
       <c r="AV6" s="10">
         <v>5</v>
       </c>
+      <c r="AW6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6519,9 +6597,12 @@
       <c r="AV7" s="13">
         <v>5</v>
       </c>
+      <c r="AW7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6669,9 +6750,12 @@
       <c r="AV8" s="10">
         <v>5</v>
       </c>
+      <c r="AW8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6819,9 +6903,12 @@
       <c r="AV9" s="13">
         <v>5</v>
       </c>
+      <c r="AW9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6980,9 +7067,12 @@
       <c r="AV11" s="13">
         <v>5</v>
       </c>
+      <c r="AW11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7130,9 +7220,12 @@
       <c r="AV12" s="10">
         <v>5</v>
       </c>
+      <c r="AW12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7280,9 +7373,12 @@
       <c r="AV13" s="13">
         <v>5</v>
       </c>
+      <c r="AW13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7445,9 +7541,12 @@
       <c r="AV15" s="10">
         <v>5</v>
       </c>
+      <c r="AW15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7595,9 +7694,12 @@
       <c r="AV16" s="13">
         <v>5</v>
       </c>
+      <c r="AW16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7745,6 +7847,9 @@
       <c r="AV17" s="10">
         <v>5</v>
       </c>
+      <c r="AW17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -7895,9 +8000,12 @@
       <c r="AV18" s="13">
         <v>5</v>
       </c>
+      <c r="AW18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8045,9 +8153,12 @@
       <c r="AV19" s="10">
         <v>5</v>
       </c>
+      <c r="AW19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8195,9 +8306,12 @@
       <c r="AV20" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AW20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8345,9 +8459,12 @@
       <c r="AV21" s="10">
         <v>5</v>
       </c>
+      <c r="AW21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8495,9 +8612,12 @@
       <c r="AV22" s="13">
         <v>5</v>
       </c>
+      <c r="AW22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8645,9 +8765,12 @@
       <c r="AV23" s="10">
         <v>5</v>
       </c>
+      <c r="AW23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX22" sqref="AX22"/>
+      <selection pane="topRight" activeCell="AZ17" sqref="AZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,9 +1347,15 @@
       <c r="AX2" s="9">
         <v>5</v>
       </c>
+      <c r="AY2" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1503,9 +1509,15 @@
       <c r="AX3" s="13">
         <v>4</v>
       </c>
+      <c r="AY3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1659,9 +1671,15 @@
       <c r="AX4" s="9">
         <v>5</v>
       </c>
+      <c r="AY4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1815,9 +1833,15 @@
       <c r="AX5" s="13">
         <v>4</v>
       </c>
+      <c r="AY5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1971,9 +1995,15 @@
       <c r="AX6" s="9">
         <v>5</v>
       </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2125,6 +2155,12 @@
         <v>44</v>
       </c>
       <c r="AX7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2283,9 +2319,15 @@
       <c r="AX8" s="9">
         <v>5</v>
       </c>
+      <c r="AY8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2447,9 +2489,15 @@
       <c r="AX10" s="9">
         <v>5</v>
       </c>
+      <c r="AY10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2603,9 +2651,15 @@
       <c r="AX11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AY11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2759,9 +2813,15 @@
       <c r="AX12" s="9">
         <v>5</v>
       </c>
+      <c r="AY12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2915,9 +2975,15 @@
       <c r="AX13" s="13">
         <v>4</v>
       </c>
+      <c r="AY13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3071,9 +3137,15 @@
       <c r="AX14" s="9">
         <v>4</v>
       </c>
+      <c r="AY14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3227,9 +3299,15 @@
       <c r="AX15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="AY15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3383,9 +3461,15 @@
       <c r="AX16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AY16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3539,9 +3623,15 @@
       <c r="AX17" s="13">
         <v>5</v>
       </c>
+      <c r="AY17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3695,9 +3785,15 @@
       <c r="AX18" s="9">
         <v>5</v>
       </c>
+      <c r="AY18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3851,9 +3947,15 @@
       <c r="AX19" s="13">
         <v>5</v>
       </c>
+      <c r="AY19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4007,9 +4109,15 @@
       <c r="AX20" s="9">
         <v>5</v>
       </c>
+      <c r="AY20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4163,9 +4271,15 @@
       <c r="AX21" s="13">
         <v>5</v>
       </c>
+      <c r="AY21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4319,9 +4433,15 @@
       <c r="AX22" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AY22" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4475,9 +4595,15 @@
       <c r="AX23" s="13">
         <v>5</v>
       </c>
+      <c r="AY23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AZ23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5362,9 +5488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW24" sqref="AW24"/>
+      <selection pane="topRight" activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,9 +5961,15 @@
       <c r="AW2" s="10">
         <v>5</v>
       </c>
+      <c r="AX2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5988,9 +6120,15 @@
       <c r="AW3" s="13">
         <v>5</v>
       </c>
+      <c r="AX3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6141,9 +6279,15 @@
       <c r="AW4" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AX4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6294,9 +6438,15 @@
       <c r="AW5" s="13">
         <v>5</v>
       </c>
+      <c r="AX5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6447,9 +6597,15 @@
       <c r="AW6" s="10">
         <v>5</v>
       </c>
+      <c r="AX6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6600,9 +6756,15 @@
       <c r="AW7" s="13">
         <v>5</v>
       </c>
+      <c r="AX7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6753,9 +6915,15 @@
       <c r="AW8" s="10">
         <v>5</v>
       </c>
+      <c r="AX8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6906,9 +7074,15 @@
       <c r="AW9" s="13">
         <v>5</v>
       </c>
+      <c r="AX9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7070,9 +7244,15 @@
       <c r="AW11" s="13">
         <v>5</v>
       </c>
+      <c r="AX11" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7223,9 +7403,15 @@
       <c r="AW12" s="10">
         <v>5</v>
       </c>
+      <c r="AX12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7376,9 +7562,15 @@
       <c r="AW13" s="13">
         <v>5</v>
       </c>
+      <c r="AX13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7544,9 +7736,15 @@
       <c r="AW15" s="10">
         <v>5</v>
       </c>
+      <c r="AX15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7697,9 +7895,15 @@
       <c r="AW16" s="13">
         <v>5</v>
       </c>
+      <c r="AX16" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7850,9 +8054,15 @@
       <c r="AW17" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="AX17" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8003,9 +8213,15 @@
       <c r="AW18" s="13">
         <v>5</v>
       </c>
+      <c r="AX18" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8156,9 +8372,15 @@
       <c r="AW19" s="10">
         <v>5</v>
       </c>
+      <c r="AX19" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8309,9 +8531,15 @@
       <c r="AW20" s="13">
         <v>5</v>
       </c>
+      <c r="AX20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8462,9 +8690,15 @@
       <c r="AW21" s="10">
         <v>5</v>
       </c>
+      <c r="AX21" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8615,9 +8849,15 @@
       <c r="AW22" s="13">
         <v>5</v>
       </c>
+      <c r="AX22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AY22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8768,9 +9008,15 @@
       <c r="AW23" s="10">
         <v>5</v>
       </c>
+      <c r="AX23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -871,9 +871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ17" sqref="AZ17"/>
+      <selection pane="topRight" activeCell="BA24" sqref="BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,9 +1353,12 @@
       <c r="AZ2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BA2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1515,6 +1518,9 @@
       <c r="AZ3" s="13">
         <v>5</v>
       </c>
+      <c r="BA3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -1677,6 +1683,9 @@
       <c r="AZ4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BA4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
         <v>207</v>
@@ -1839,9 +1848,12 @@
       <c r="AZ5" s="13">
         <v>5</v>
       </c>
+      <c r="BA5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2001,9 +2013,12 @@
       <c r="AZ6" s="9">
         <v>5</v>
       </c>
+      <c r="BA6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2161,6 +2176,9 @@
         <v>44</v>
       </c>
       <c r="AZ7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -2325,9 +2343,12 @@
       <c r="AZ8" s="9">
         <v>5</v>
       </c>
+      <c r="BA8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2495,9 +2516,12 @@
       <c r="AZ10" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BA10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2657,9 +2681,12 @@
       <c r="AZ11" s="13">
         <v>5</v>
       </c>
+      <c r="BA11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2819,6 +2846,9 @@
       <c r="AZ12" s="9">
         <v>5</v>
       </c>
+      <c r="BA12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
         <v>233</v>
@@ -2981,9 +3011,12 @@
       <c r="AZ13" s="13">
         <v>5</v>
       </c>
+      <c r="BA13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3143,9 +3176,12 @@
       <c r="AZ14" s="9">
         <v>5</v>
       </c>
+      <c r="BA14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3305,6 +3341,9 @@
       <c r="AZ15" s="13">
         <v>5</v>
       </c>
+      <c r="BA15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -3467,9 +3506,12 @@
       <c r="AZ16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BA16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3629,9 +3671,12 @@
       <c r="AZ17" s="13">
         <v>5</v>
       </c>
+      <c r="BA17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3791,9 +3836,12 @@
       <c r="AZ18" s="9">
         <v>5</v>
       </c>
+      <c r="BA18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3953,9 +4001,12 @@
       <c r="AZ19" s="13">
         <v>5</v>
       </c>
+      <c r="BA19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4115,6 +4166,9 @@
       <c r="AZ20" s="9">
         <v>5</v>
       </c>
+      <c r="BA20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
         <v>189</v>
@@ -4277,9 +4331,12 @@
       <c r="AZ21" s="13">
         <v>5</v>
       </c>
+      <c r="BA21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4439,9 +4496,12 @@
       <c r="AZ22" s="9">
         <v>5</v>
       </c>
+      <c r="BA22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4601,9 +4661,12 @@
       <c r="AZ23" s="13">
         <v>5</v>
       </c>
+      <c r="BA23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5488,9 +5551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX3" sqref="AX3"/>
+      <selection pane="topRight" activeCell="AZ18" sqref="AZ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,9 +6030,12 @@
       <c r="AY2" s="10">
         <v>5</v>
       </c>
+      <c r="AZ2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6126,9 +6192,12 @@
       <c r="AY3" s="13">
         <v>5</v>
       </c>
+      <c r="AZ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6285,9 +6354,12 @@
       <c r="AY4" s="10">
         <v>5</v>
       </c>
+      <c r="AZ4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6444,9 +6516,12 @@
       <c r="AY5" s="13">
         <v>5</v>
       </c>
+      <c r="AZ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6603,9 +6678,12 @@
       <c r="AY6" s="10">
         <v>5</v>
       </c>
+      <c r="AZ6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6762,9 +6840,12 @@
       <c r="AY7" s="13">
         <v>5</v>
       </c>
+      <c r="AZ7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6921,9 +7002,12 @@
       <c r="AY8" s="10">
         <v>5</v>
       </c>
+      <c r="AZ8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7080,9 +7164,12 @@
       <c r="AY9" s="13">
         <v>5</v>
       </c>
+      <c r="AZ9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7250,9 +7337,12 @@
       <c r="AY11" s="13">
         <v>5</v>
       </c>
+      <c r="AZ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7409,9 +7499,12 @@
       <c r="AY12" s="10">
         <v>5</v>
       </c>
+      <c r="AZ12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7568,9 +7661,12 @@
       <c r="AY13" s="13">
         <v>5</v>
       </c>
+      <c r="AZ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7742,9 +7838,12 @@
       <c r="AY15" s="10">
         <v>5</v>
       </c>
+      <c r="AZ15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7901,9 +8000,12 @@
       <c r="AY16" s="13">
         <v>5</v>
       </c>
+      <c r="AZ16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8060,6 +8162,9 @@
       <c r="AY17" s="10">
         <v>5</v>
       </c>
+      <c r="AZ17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -8219,9 +8324,12 @@
       <c r="AY18" s="13">
         <v>5</v>
       </c>
+      <c r="AZ18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8378,9 +8486,12 @@
       <c r="AY19" s="10">
         <v>5</v>
       </c>
+      <c r="AZ19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8537,9 +8648,12 @@
       <c r="AY20" s="13">
         <v>5</v>
       </c>
+      <c r="AZ20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8696,9 +8810,12 @@
       <c r="AY21" s="10">
         <v>5</v>
       </c>
+      <c r="AZ21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8855,9 +8972,12 @@
       <c r="AY22" s="13">
         <v>5</v>
       </c>
+      <c r="AZ22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9014,9 +9134,12 @@
       <c r="AY23" s="10">
         <v>5</v>
       </c>
+      <c r="AZ23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA24" sqref="BA24"/>
+      <selection pane="topRight" activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,9 +1356,15 @@
       <c r="BA2" s="9">
         <v>5</v>
       </c>
+      <c r="BB2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1521,9 +1527,15 @@
       <c r="BA3" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BB3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1686,9 +1698,15 @@
       <c r="BA4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BB4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1851,9 +1869,15 @@
       <c r="BA5" s="13">
         <v>5</v>
       </c>
+      <c r="BB5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2016,9 +2040,15 @@
       <c r="BA6" s="9">
         <v>5</v>
       </c>
+      <c r="BB6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2181,9 +2211,15 @@
       <c r="BA7" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BB7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2346,9 +2382,15 @@
       <c r="BA8" s="9">
         <v>5</v>
       </c>
+      <c r="BB8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2519,9 +2561,15 @@
       <c r="BA10" s="9">
         <v>5</v>
       </c>
+      <c r="BB10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,9 +2732,15 @@
       <c r="BA11" s="13">
         <v>5</v>
       </c>
+      <c r="BB11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2849,9 +2903,15 @@
       <c r="BA12" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BB12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3014,9 +3074,15 @@
       <c r="BA13" s="13">
         <v>5</v>
       </c>
+      <c r="BB13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3179,9 +3245,15 @@
       <c r="BA14" s="9">
         <v>5</v>
       </c>
+      <c r="BB14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3344,9 +3416,15 @@
       <c r="BA15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BB15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3509,9 +3587,15 @@
       <c r="BA16" s="9">
         <v>5</v>
       </c>
+      <c r="BB16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3674,9 +3758,15 @@
       <c r="BA17" s="13">
         <v>5</v>
       </c>
+      <c r="BB17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3839,9 +3929,15 @@
       <c r="BA18" s="9">
         <v>5</v>
       </c>
+      <c r="BB18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4004,9 +4100,15 @@
       <c r="BA19" s="13">
         <v>5</v>
       </c>
+      <c r="BB19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4169,9 +4271,15 @@
       <c r="BA20" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BB20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4334,9 +4442,15 @@
       <c r="BA21" s="13">
         <v>5</v>
       </c>
+      <c r="BB21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4499,9 +4613,15 @@
       <c r="BA22" s="9">
         <v>5</v>
       </c>
+      <c r="BB22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BC22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4664,9 +4784,15 @@
       <c r="BA23" s="13">
         <v>5</v>
       </c>
+      <c r="BB23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5553,7 +5679,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ18" sqref="AZ18"/>
+      <selection pane="topRight" activeCell="BB29" sqref="BB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6033,9 +6159,18 @@
       <c r="AZ2" s="10">
         <v>5</v>
       </c>
+      <c r="BA2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6195,9 +6330,18 @@
       <c r="AZ3" s="13">
         <v>5</v>
       </c>
+      <c r="BA3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6357,9 +6501,18 @@
       <c r="AZ4" s="10">
         <v>5</v>
       </c>
+      <c r="BA4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6519,9 +6672,18 @@
       <c r="AZ5" s="13">
         <v>5</v>
       </c>
+      <c r="BA5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6681,9 +6843,18 @@
       <c r="AZ6" s="10">
         <v>5</v>
       </c>
+      <c r="BA6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6843,9 +7014,18 @@
       <c r="AZ7" s="13">
         <v>5</v>
       </c>
+      <c r="BA7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7005,9 +7185,18 @@
       <c r="AZ8" s="10">
         <v>5</v>
       </c>
+      <c r="BA8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7167,9 +7356,18 @@
       <c r="AZ9" s="13">
         <v>5</v>
       </c>
+      <c r="BA9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7340,9 +7538,18 @@
       <c r="AZ11" s="13">
         <v>5</v>
       </c>
+      <c r="BA11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7502,9 +7709,18 @@
       <c r="AZ12" s="10">
         <v>5</v>
       </c>
+      <c r="BA12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7664,9 +7880,18 @@
       <c r="AZ13" s="13">
         <v>5</v>
       </c>
+      <c r="BA13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7841,9 +8066,18 @@
       <c r="AZ15" s="10">
         <v>5</v>
       </c>
+      <c r="BA15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8003,9 +8237,18 @@
       <c r="AZ16" s="13">
         <v>5</v>
       </c>
+      <c r="BA16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8165,9 +8408,18 @@
       <c r="AZ17" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="BA17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8327,9 +8579,18 @@
       <c r="AZ18" s="13">
         <v>5</v>
       </c>
+      <c r="BA18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8489,9 +8750,18 @@
       <c r="AZ19" s="10">
         <v>5</v>
       </c>
+      <c r="BA19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8651,9 +8921,18 @@
       <c r="AZ20" s="13">
         <v>5</v>
       </c>
+      <c r="BA20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8813,9 +9092,18 @@
       <c r="AZ21" s="10">
         <v>5</v>
       </c>
+      <c r="BA21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8975,9 +9263,18 @@
       <c r="AZ22" s="13">
         <v>5</v>
       </c>
+      <c r="BA22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BB22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9137,9 +9434,18 @@
       <c r="AZ23" s="10">
         <v>5</v>
       </c>
+      <c r="BA23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BC23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -872,8 +872,8 @@
   <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB6" sqref="BB6"/>
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1362,12 @@
       <c r="BC2" s="9">
         <v>5</v>
       </c>
+      <c r="BD2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
         <v>170</v>
@@ -1533,9 +1539,15 @@
       <c r="BC3" s="13">
         <v>5</v>
       </c>
+      <c r="BD3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE3" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1704,9 +1716,15 @@
       <c r="BC4" s="9">
         <v>5</v>
       </c>
+      <c r="BD4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1875,9 +1893,15 @@
       <c r="BC5" s="13">
         <v>5</v>
       </c>
+      <c r="BD5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,9 +2070,15 @@
       <c r="BC6" s="9">
         <v>5</v>
       </c>
+      <c r="BD6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2217,9 +2247,15 @@
       <c r="BC7" s="13">
         <v>5</v>
       </c>
+      <c r="BD7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2388,9 +2424,15 @@
       <c r="BC8" s="9">
         <v>5</v>
       </c>
+      <c r="BD8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2567,9 +2609,15 @@
       <c r="BC10" s="9">
         <v>5</v>
       </c>
+      <c r="BD10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2738,9 +2786,15 @@
       <c r="BC11" s="13">
         <v>5</v>
       </c>
+      <c r="BD11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2909,9 +2963,15 @@
       <c r="BC12" s="9">
         <v>5</v>
       </c>
+      <c r="BD12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3080,6 +3140,12 @@
       <c r="BC13" s="13">
         <v>5</v>
       </c>
+      <c r="BD13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
         <v>192</v>
@@ -3251,9 +3317,15 @@
       <c r="BC14" s="9">
         <v>5</v>
       </c>
+      <c r="BD14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3422,9 +3494,15 @@
       <c r="BC15" s="13">
         <v>5</v>
       </c>
+      <c r="BD15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3593,9 +3671,15 @@
       <c r="BC16" s="9">
         <v>5</v>
       </c>
+      <c r="BD16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3764,9 +3848,15 @@
       <c r="BC17" s="13">
         <v>5</v>
       </c>
+      <c r="BD17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3935,9 +4025,15 @@
       <c r="BC18" s="9">
         <v>5</v>
       </c>
+      <c r="BD18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4106,9 +4202,15 @@
       <c r="BC19" s="13">
         <v>5</v>
       </c>
+      <c r="BD19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE19" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4277,9 +4379,15 @@
       <c r="BC20" s="9">
         <v>5</v>
       </c>
+      <c r="BD20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4448,9 +4556,15 @@
       <c r="BC21" s="13">
         <v>5</v>
       </c>
+      <c r="BD21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4619,9 +4733,15 @@
       <c r="BC22" s="9">
         <v>5</v>
       </c>
+      <c r="BD22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BE22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4790,9 +4910,15 @@
       <c r="BC23" s="13">
         <v>5</v>
       </c>
+      <c r="BD23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
@@ -5679,7 +5805,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB29" sqref="BB29"/>
+      <selection pane="topRight" activeCell="BD16" sqref="BD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,9 +6294,15 @@
       <c r="BC2" s="10">
         <v>5</v>
       </c>
+      <c r="BD2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6339,9 +6471,15 @@
       <c r="BC3" s="13">
         <v>5</v>
       </c>
+      <c r="BD3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6510,9 +6648,15 @@
       <c r="BC4" s="10">
         <v>5</v>
       </c>
+      <c r="BD4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6681,9 +6825,15 @@
       <c r="BC5" s="13">
         <v>5</v>
       </c>
+      <c r="BD5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6852,9 +7002,15 @@
       <c r="BC6" s="10">
         <v>5</v>
       </c>
+      <c r="BD6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7023,9 +7179,15 @@
       <c r="BC7" s="13">
         <v>5</v>
       </c>
+      <c r="BD7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7194,9 +7356,15 @@
       <c r="BC8" s="10">
         <v>5</v>
       </c>
+      <c r="BD8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7365,9 +7533,15 @@
       <c r="BC9" s="13">
         <v>5</v>
       </c>
+      <c r="BD9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -7547,9 +7721,15 @@
       <c r="BC11" s="13">
         <v>5</v>
       </c>
+      <c r="BD11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7718,9 +7898,15 @@
       <c r="BC12" s="10">
         <v>5</v>
       </c>
+      <c r="BD12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -7889,9 +8075,15 @@
       <c r="BC13" s="13">
         <v>5</v>
       </c>
+      <c r="BD13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8075,9 +8267,15 @@
       <c r="BC15" s="10">
         <v>5</v>
       </c>
+      <c r="BD15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8246,9 +8444,15 @@
       <c r="BC16" s="13">
         <v>5</v>
       </c>
+      <c r="BD16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8417,9 +8621,15 @@
       <c r="BC17" s="10">
         <v>5</v>
       </c>
+      <c r="BD17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8588,9 +8798,15 @@
       <c r="BC18" s="13">
         <v>5</v>
       </c>
+      <c r="BD18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8759,9 +8975,15 @@
       <c r="BC19" s="10">
         <v>5</v>
       </c>
+      <c r="BD19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8930,9 +9152,15 @@
       <c r="BC20" s="13">
         <v>5</v>
       </c>
+      <c r="BD20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9101,9 +9329,15 @@
       <c r="BC21" s="10">
         <v>5</v>
       </c>
+      <c r="BD21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -9272,9 +9506,15 @@
       <c r="BC22" s="13">
         <v>5</v>
       </c>
+      <c r="BD22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BE22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9443,9 +9683,15 @@
       <c r="BC23" s="10">
         <v>5</v>
       </c>
+      <c r="BD23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE4" sqref="BE4"/>
+      <selection pane="topRight" activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,9 +1368,12 @@
       <c r="BE2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BF2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1545,9 +1548,12 @@
       <c r="BE3" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BF3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1722,9 +1728,12 @@
       <c r="BE4" s="9">
         <v>5</v>
       </c>
+      <c r="BF4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1899,6 +1908,9 @@
       <c r="BE5" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BF5" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
         <v>237</v>
@@ -2076,9 +2088,12 @@
       <c r="BE6" s="9">
         <v>5</v>
       </c>
+      <c r="BF6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2252,6 +2267,9 @@
       </c>
       <c r="BE7" s="13">
         <v>5</v>
+      </c>
+      <c r="BF7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
@@ -2430,6 +2448,9 @@
       <c r="BE8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BF8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
         <v>216</v>
@@ -2615,9 +2636,12 @@
       <c r="BE10" s="9">
         <v>5</v>
       </c>
+      <c r="BF10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2792,9 +2816,12 @@
       <c r="BE11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BF11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2969,9 +2996,12 @@
       <c r="BE12" s="9">
         <v>5</v>
       </c>
+      <c r="BF12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3146,9 +3176,12 @@
       <c r="BE13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BF13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3323,6 +3356,9 @@
       <c r="BE14" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BF14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
         <v>249</v>
@@ -3500,6 +3536,9 @@
       <c r="BE15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BF15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>212</v>
@@ -3677,9 +3716,12 @@
       <c r="BE16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BF16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3854,9 +3896,12 @@
       <c r="BE17" s="13">
         <v>5</v>
       </c>
+      <c r="BF17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,6 +4076,9 @@
       <c r="BE18" s="9">
         <v>5</v>
       </c>
+      <c r="BF18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -4208,9 +4256,12 @@
       <c r="BE19" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BF19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4385,9 +4436,12 @@
       <c r="BE20" s="9">
         <v>5</v>
       </c>
+      <c r="BF20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4562,9 +4616,12 @@
       <c r="BE21" s="13">
         <v>5</v>
       </c>
+      <c r="BF21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4739,9 +4796,12 @@
       <c r="BE22" s="9">
         <v>5</v>
       </c>
+      <c r="BF22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4916,9 +4976,12 @@
       <c r="BE23" s="13">
         <v>5</v>
       </c>
+      <c r="BF23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20595" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -470,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,6 +575,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,21 +874,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF24" sqref="BF24"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ23" sqref="BQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1371,12 +1374,45 @@
       <c r="BF2" s="9">
         <v>5</v>
       </c>
+      <c r="BG2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1551,12 +1587,45 @@
       <c r="BF3" s="13">
         <v>5</v>
       </c>
+      <c r="BG3" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH3" s="13">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1731,12 +1800,45 @@
       <c r="BF4" s="9">
         <v>5</v>
       </c>
+      <c r="BG4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1911,12 +2013,45 @@
       <c r="BF5" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BG5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2091,12 +2226,45 @@
       <c r="BF6" s="9">
         <v>5</v>
       </c>
+      <c r="BG6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -2271,12 +2439,45 @@
       <c r="BF7" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BG7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2451,12 +2652,45 @@
       <c r="BF8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BG8" s="9">
+        <v>4</v>
+      </c>
+      <c r="BH8" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2464,7 +2698,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2639,12 +2873,45 @@
       <c r="BF10" s="9">
         <v>5</v>
       </c>
+      <c r="BG10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -2819,12 +3086,45 @@
       <c r="BF11" s="13">
         <v>5</v>
       </c>
+      <c r="BG11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -2999,12 +3299,45 @@
       <c r="BF12" s="9">
         <v>5</v>
       </c>
+      <c r="BG12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -3179,12 +3512,45 @@
       <c r="BF13" s="13">
         <v>5</v>
       </c>
+      <c r="BG13" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -3359,12 +3725,42 @@
       <c r="BF14" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BG14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -3539,12 +3935,45 @@
       <c r="BF15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BG15" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3719,12 +4148,45 @@
       <c r="BF16" s="9">
         <v>5</v>
       </c>
+      <c r="BG16" s="9">
+        <v>4</v>
+      </c>
+      <c r="BH16" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -3899,12 +4361,45 @@
       <c r="BF17" s="13">
         <v>5</v>
       </c>
+      <c r="BG17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -4079,12 +4574,45 @@
       <c r="BF18" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BG18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -4259,12 +4787,45 @@
       <c r="BF19" s="13">
         <v>5</v>
       </c>
+      <c r="BG19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -4439,12 +5000,45 @@
       <c r="BF20" s="9">
         <v>5</v>
       </c>
+      <c r="BG20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -4619,12 +5213,45 @@
       <c r="BF21" s="13">
         <v>5</v>
       </c>
+      <c r="BG21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -4799,12 +5426,45 @@
       <c r="BF22" s="9">
         <v>5</v>
       </c>
+      <c r="BG22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BH22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BI22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BK22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BL22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BN22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BO22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BP22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>248</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -4979,12 +5639,45 @@
       <c r="BF23" s="13">
         <v>5</v>
       </c>
+      <c r="BG23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>88</v>
       </c>
@@ -5308,43 +6001,43 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.85546875" style="1"/>
-    <col min="8" max="9" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.88671875" style="1"/>
+    <col min="8" max="9" width="6.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.85546875" style="1"/>
+    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="G1" s="40"/>
+      <c r="L1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
       <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
@@ -5370,7 +6063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -5395,7 +6088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
@@ -5420,7 +6113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
@@ -5447,7 +6140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
@@ -5472,7 +6165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
@@ -5491,7 +6184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
@@ -5509,12 +6202,12 @@
       <c r="G8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
@@ -5539,7 +6232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +6257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
@@ -5589,7 +6282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
@@ -5616,7 +6309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
@@ -5635,7 +6328,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -5653,12 +6346,12 @@
       <c r="G14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="39"/>
+      <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>12</v>
       </c>
@@ -5683,7 +6376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
@@ -5708,7 +6401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
@@ -5733,7 +6426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
@@ -5752,7 +6445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>16</v>
       </c>
@@ -5771,7 +6464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
@@ -5790,7 +6483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
@@ -5809,7 +6502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
@@ -5828,7 +6521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>20</v>
       </c>
@@ -5866,21 +6559,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD16" sqref="BD16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ23" sqref="BQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -6191,7 +6884,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -6363,12 +7056,48 @@
       <c r="BE2" s="10">
         <v>5</v>
       </c>
+      <c r="BF2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -6540,12 +7269,48 @@
       <c r="BE3" s="13">
         <v>5</v>
       </c>
+      <c r="BF3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -6717,12 +7482,48 @@
       <c r="BE4" s="10">
         <v>5</v>
       </c>
+      <c r="BF4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG4" s="10">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -6894,12 +7695,48 @@
       <c r="BE5" s="13">
         <v>5</v>
       </c>
+      <c r="BF5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -7071,12 +7908,48 @@
       <c r="BE6" s="10">
         <v>5</v>
       </c>
+      <c r="BF6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -7248,12 +8121,48 @@
       <c r="BE7" s="13">
         <v>5</v>
       </c>
+      <c r="BF7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -7425,12 +8334,48 @@
       <c r="BE8" s="10">
         <v>5</v>
       </c>
+      <c r="BF8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>254</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -7602,12 +8547,48 @@
       <c r="BE9" s="13">
         <v>5</v>
       </c>
+      <c r="BF9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
@@ -7618,7 +8599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -7790,12 +8771,48 @@
       <c r="BE11" s="13">
         <v>5</v>
       </c>
+      <c r="BF11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -7967,12 +8984,48 @@
       <c r="BE12" s="10">
         <v>5</v>
       </c>
+      <c r="BF12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>251</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -8144,12 +9197,48 @@
       <c r="BE13" s="13">
         <v>5</v>
       </c>
+      <c r="BF13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -8163,8 +9252,9 @@
       <c r="V14" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="BJ14" s="21"/>
     </row>
-    <row r="15" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -8336,12 +9426,48 @@
       <c r="BE15" s="10">
         <v>5</v>
       </c>
+      <c r="BF15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
@@ -8513,12 +9639,48 @@
       <c r="BE16" s="13">
         <v>5</v>
       </c>
+      <c r="BF16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -8690,12 +9852,48 @@
       <c r="BE17" s="10">
         <v>5</v>
       </c>
+      <c r="BF17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG17" s="10">
+        <v>4</v>
+      </c>
+      <c r="BH17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
@@ -8867,12 +10065,48 @@
       <c r="BE18" s="13">
         <v>5</v>
       </c>
+      <c r="BF18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ18" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="1"/>
-        <v>259</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -9044,12 +10278,48 @@
       <c r="BE19" s="10">
         <v>5</v>
       </c>
+      <c r="BF19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG19" s="10">
+        <v>4</v>
+      </c>
+      <c r="BH19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="1"/>
-        <v>253</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -9221,12 +10491,48 @@
       <c r="BE20" s="13">
         <v>5</v>
       </c>
+      <c r="BF20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="13">
+        <v>4</v>
+      </c>
+      <c r="BH20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BK20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ20" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -9398,12 +10704,48 @@
       <c r="BE21" s="10">
         <v>5</v>
       </c>
+      <c r="BF21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -9575,12 +10917,48 @@
       <c r="BE22" s="13">
         <v>5</v>
       </c>
+      <c r="BF22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BG22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BH22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BI22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ22" s="36">
+        <v>5</v>
+      </c>
+      <c r="BK22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BM22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BN22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BO22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BP22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BQ22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>275</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -9752,12 +11130,48 @@
       <c r="BE23" s="10">
         <v>5</v>
       </c>
+      <c r="BF23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BG23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BI23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BM23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BN23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BO23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BQ23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>88</v>
       </c>
@@ -10080,43 +11494,43 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.85546875" style="1"/>
-    <col min="8" max="9" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.88671875" style="1"/>
+    <col min="8" max="9" width="6.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.85546875" style="1"/>
+    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="G1" s="40"/>
+      <c r="L1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="37"/>
+      <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
       <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
@@ -10142,7 +11556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
@@ -10169,7 +11583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
@@ -10196,7 +11610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
@@ -10221,7 +11635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>24</v>
       </c>
@@ -10248,7 +11662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
@@ -10267,7 +11681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>26</v>
       </c>
@@ -10285,12 +11699,12 @@
       <c r="G8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>27</v>
       </c>
@@ -10315,7 +11729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
@@ -10342,7 +11756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>30</v>
       </c>
@@ -10369,7 +11783,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
@@ -10396,7 +11810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>32</v>
       </c>
@@ -10417,7 +11831,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>33</v>
       </c>
@@ -10435,12 +11849,12 @@
       <c r="G14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="39"/>
+      <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -10467,7 +11881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
@@ -10492,7 +11906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>37</v>
       </c>
@@ -10517,7 +11931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>38</v>
       </c>
@@ -10536,7 +11950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>39</v>
       </c>
@@ -10555,7 +11969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>40</v>
       </c>
@@ -10576,7 +11990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>41</v>
       </c>
@@ -10595,7 +12009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>42</v>
       </c>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="89">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -874,9 +874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ23" sqref="BQ23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR17" sqref="BR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +885,9 @@
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="67" width="9.109375" style="1"/>
+    <col min="68" max="69" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -1407,9 +1409,12 @@
       <c r="BQ2" s="9">
         <v>5</v>
       </c>
+      <c r="BR2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1620,9 +1625,12 @@
       <c r="BQ3" s="13">
         <v>5</v>
       </c>
+      <c r="BR3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1833,9 +1841,12 @@
       <c r="BQ4" s="9">
         <v>5</v>
       </c>
+      <c r="BR4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2046,9 +2057,12 @@
       <c r="BQ5" s="13">
         <v>5</v>
       </c>
+      <c r="BR5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2259,9 +2273,12 @@
       <c r="BQ6" s="9">
         <v>5</v>
       </c>
+      <c r="BR6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2471,6 +2488,9 @@
       </c>
       <c r="BQ7" s="13">
         <v>5</v>
+      </c>
+      <c r="BR7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
@@ -2685,9 +2705,12 @@
       <c r="BQ8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BR8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2906,9 +2929,12 @@
       <c r="BQ10" s="9">
         <v>5</v>
       </c>
+      <c r="BR10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3119,9 +3145,12 @@
       <c r="BQ11" s="13">
         <v>5</v>
       </c>
+      <c r="BR11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3332,9 +3361,12 @@
       <c r="BQ12" s="9">
         <v>5</v>
       </c>
+      <c r="BR12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3545,9 +3577,12 @@
       <c r="BQ13" s="13">
         <v>5</v>
       </c>
+      <c r="BR13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3755,9 +3790,12 @@
       <c r="BP14" s="9">
         <v>5</v>
       </c>
+      <c r="BR14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3968,6 +4006,9 @@
       <c r="BQ15" s="13">
         <v>5</v>
       </c>
+      <c r="BR15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
         <v>246</v>
@@ -4181,9 +4222,12 @@
       <c r="BQ16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="BR16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4394,6 +4438,9 @@
       <c r="BQ17" s="13">
         <v>5</v>
       </c>
+      <c r="BR17" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
         <v>305</v>
@@ -4607,9 +4654,12 @@
       <c r="BQ18" s="9">
         <v>5</v>
       </c>
+      <c r="BR18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4820,9 +4870,12 @@
       <c r="BQ19" s="13">
         <v>5</v>
       </c>
+      <c r="BR19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5033,9 +5086,12 @@
       <c r="BQ20" s="9">
         <v>5</v>
       </c>
+      <c r="BR20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5246,9 +5302,12 @@
       <c r="BQ21" s="13">
         <v>5</v>
       </c>
+      <c r="BR21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5459,9 +5518,12 @@
       <c r="BQ22" s="9">
         <v>5</v>
       </c>
+      <c r="BR22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5672,9 +5734,12 @@
       <c r="BQ23" s="13">
         <v>5</v>
       </c>
+      <c r="BR23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.3">
@@ -6559,9 +6624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ23" sqref="BQ23"/>
+      <selection pane="topRight" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
     <sheet name="PERFIS-M" sheetId="3" r:id="rId2"/>
-    <sheet name="T" sheetId="2" r:id="rId3"/>
-    <sheet name="PERFIS-T" sheetId="4" r:id="rId4"/>
+    <sheet name="PERFIS-M-RESILIENCIA" sheetId="5" r:id="rId3"/>
+    <sheet name="T" sheetId="2" r:id="rId4"/>
+    <sheet name="PERFIS-T" sheetId="4" r:id="rId5"/>
+    <sheet name="PERFIS-T-RESILIENCIA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="127">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -294,6 +296,120 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Virtuoso</t>
+  </si>
+  <si>
+    <t>ISTP-T</t>
+  </si>
+  <si>
+    <t>ISFJ-T</t>
+  </si>
+  <si>
+    <t>Defensor</t>
+  </si>
+  <si>
+    <t>ISTJ-T</t>
+  </si>
+  <si>
+    <t>Logistica</t>
+  </si>
+  <si>
+    <t>Mediador</t>
+  </si>
+  <si>
+    <t>INFP-T</t>
+  </si>
+  <si>
+    <t>Advogada</t>
+  </si>
+  <si>
+    <t>INFJ-A</t>
+  </si>
+  <si>
+    <t>Virtusoso</t>
+  </si>
+  <si>
+    <t>Empresário</t>
+  </si>
+  <si>
+    <t>ESTP-A</t>
+  </si>
+  <si>
+    <t>INFJ-T</t>
+  </si>
+  <si>
+    <t>Animador</t>
+  </si>
+  <si>
+    <t>ISFP-A</t>
+  </si>
+  <si>
+    <t>Protagoista</t>
+  </si>
+  <si>
+    <t>ENFJ-A</t>
+  </si>
+  <si>
+    <t>ISTJ-A</t>
+  </si>
+  <si>
+    <t>Logistico</t>
+  </si>
+  <si>
+    <t>ISTP-A</t>
+  </si>
+  <si>
+    <t>Inovado</t>
+  </si>
+  <si>
+    <t>ENTP-T</t>
+  </si>
+  <si>
+    <t>Consul</t>
+  </si>
+  <si>
+    <t>ESFJ-T</t>
+  </si>
+  <si>
+    <t>ESFJ-A</t>
+  </si>
+  <si>
+    <t>Aventureiro</t>
+  </si>
+  <si>
+    <t>ISFP-T</t>
+  </si>
+  <si>
+    <t>Inovador</t>
+  </si>
+  <si>
+    <t>ENTP-A</t>
+  </si>
+  <si>
+    <t>ESFP-A</t>
+  </si>
+  <si>
+    <t>Arquiteto</t>
+  </si>
+  <si>
+    <t>INTJ-A</t>
+  </si>
+  <si>
+    <t>Advogado</t>
+  </si>
+  <si>
+    <t>ISFJ-A</t>
+  </si>
+  <si>
+    <t>Atvista</t>
+  </si>
+  <si>
+    <t>ENFP-A</t>
+  </si>
+  <si>
+    <t>Aventureira</t>
   </si>
 </sst>
 </file>
@@ -874,9 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR17" sqref="BR17"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI23" sqref="CI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,9 +1528,60 @@
       <c r="BR2" s="9">
         <v>5</v>
       </c>
+      <c r="BS2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY2" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CA2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CC2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1628,9 +1795,60 @@
       <c r="BR3" s="13">
         <v>5</v>
       </c>
+      <c r="BS3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ3" s="13">
+        <v>4</v>
+      </c>
+      <c r="CA3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1844,9 +2062,60 @@
       <c r="BR4" s="9">
         <v>5</v>
       </c>
+      <c r="BS4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BX4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY4" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CA4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CC4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CE4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2060,9 +2329,60 @@
       <c r="BR5" s="13">
         <v>5</v>
       </c>
+      <c r="BS5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2276,9 +2596,60 @@
       <c r="BR6" s="9">
         <v>5</v>
       </c>
+      <c r="BS6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CE6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2492,9 +2863,60 @@
       <c r="BR7" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BS7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI7" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2708,9 +3130,60 @@
       <c r="BR8" s="9">
         <v>5</v>
       </c>
+      <c r="BS8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY8" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CA8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CC8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2932,9 +3405,60 @@
       <c r="BR10" s="9">
         <v>5</v>
       </c>
+      <c r="BS10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY10" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CA10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CC10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CE10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3148,9 +3672,60 @@
       <c r="BR11" s="13">
         <v>5</v>
       </c>
+      <c r="BS11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3364,9 +3939,60 @@
       <c r="BR12" s="9">
         <v>5</v>
       </c>
+      <c r="BS12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX12" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CC12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3580,9 +4206,60 @@
       <c r="BR13" s="13">
         <v>5</v>
       </c>
+      <c r="BS13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BX13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3790,12 +4467,66 @@
       <c r="BP14" s="9">
         <v>5</v>
       </c>
+      <c r="BQ14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="BR14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BS14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY14" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI14" s="9">
         <v>5</v>
       </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4009,9 +4740,60 @@
       <c r="BR15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BS15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY15" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4225,9 +5007,60 @@
       <c r="BR16" s="9">
         <v>5</v>
       </c>
+      <c r="BS16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY16" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CE16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4441,9 +5274,60 @@
       <c r="BR17" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BS17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY17" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4657,9 +5541,60 @@
       <c r="BR18" s="9">
         <v>5</v>
       </c>
+      <c r="BS18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY18" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4873,9 +5808,60 @@
       <c r="BR19" s="13">
         <v>5</v>
       </c>
+      <c r="BS19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5089,9 +6075,60 @@
       <c r="BR20" s="9">
         <v>5</v>
       </c>
+      <c r="BS20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX20" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CC20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CH20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5305,9 +6342,60 @@
       <c r="BR21" s="13">
         <v>5</v>
       </c>
+      <c r="BS21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY21" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5521,9 +6609,60 @@
       <c r="BR22" s="9">
         <v>5</v>
       </c>
+      <c r="BS22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BT22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BW22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BX22" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CA22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CB22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CD22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CE22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CF22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CG22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CI22" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>308</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5737,9 +6876,60 @@
       <c r="BR23" s="13">
         <v>5</v>
       </c>
+      <c r="BS23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY23" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>300</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.3">
@@ -6622,11 +7812,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.88671875" style="1"/>
+    <col min="8" max="9" width="6.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR2" sqref="BR2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ2" sqref="CJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7157,9 +8608,63 @@
       <c r="BQ2" s="10">
         <v>5</v>
       </c>
+      <c r="BR2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
-        <f t="shared" ref="CY2" si="0">SUM(C2:CX2)</f>
-        <v>320</v>
+        <f>SUM(C2:CX2)</f>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7370,9 +8875,63 @@
       <c r="BQ3" s="13">
         <v>5</v>
       </c>
+      <c r="BR3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY3" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
-        <f t="shared" ref="CY3:CY21" si="1">SUM(C3:CX3)</f>
-        <v>330</v>
+        <f t="shared" ref="CY3:CY21" si="0">SUM(C3:CX3)</f>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7583,9 +9142,63 @@
       <c r="BQ4" s="10">
         <v>5</v>
       </c>
+      <c r="BR4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY4" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
-        <f t="shared" ref="CY4" si="2">SUM(C4:CX4)</f>
-        <v>279</v>
+        <f>SUM(C4:CX4)</f>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7796,9 +9409,63 @@
       <c r="BQ5" s="13">
         <v>5</v>
       </c>
+      <c r="BR5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY5" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
-        <f t="shared" si="1"/>
-        <v>330</v>
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8009,9 +9676,63 @@
       <c r="BQ6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="BR6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
-        <f t="shared" ref="CY6" si="3">SUM(C6:CX6)</f>
-        <v>245</v>
+        <f>SUM(C6:CX6)</f>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8222,9 +9943,63 @@
       <c r="BQ7" s="13">
         <v>5</v>
       </c>
+      <c r="BR7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY7" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
-        <f t="shared" si="1"/>
-        <v>314</v>
+        <f t="shared" si="0"/>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8435,9 +10210,63 @@
       <c r="BQ8" s="10">
         <v>5</v>
       </c>
+      <c r="BR8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
-        <f t="shared" ref="CY8" si="4">SUM(C8:CX8)</f>
-        <v>314</v>
+        <f>SUM(C8:CX8)</f>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8648,9 +10477,63 @@
       <c r="BQ9" s="13">
         <v>5</v>
       </c>
+      <c r="BR9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
-        <f t="shared" si="1"/>
-        <v>330</v>
+        <f t="shared" si="0"/>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -8872,9 +10755,63 @@
       <c r="BQ11" s="13">
         <v>5</v>
       </c>
+      <c r="BR11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="13">
-        <f t="shared" si="1"/>
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9085,9 +11022,63 @@
       <c r="BQ12" s="10">
         <v>5</v>
       </c>
+      <c r="BR12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
-        <f t="shared" ref="CY12" si="5">SUM(C12:CX12)</f>
-        <v>306</v>
+        <f>SUM(C12:CX12)</f>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9298,9 +11289,63 @@
       <c r="BQ13" s="13">
         <v>5</v>
       </c>
+      <c r="BR13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY13" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
-        <f t="shared" si="1"/>
-        <v>309</v>
+        <f t="shared" si="0"/>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9527,9 +11572,63 @@
       <c r="BQ15" s="10">
         <v>5</v>
       </c>
+      <c r="BR15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY15" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
-        <f t="shared" si="1"/>
-        <v>304</v>
+        <f t="shared" si="0"/>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9740,9 +11839,63 @@
       <c r="BQ16" s="13">
         <v>5</v>
       </c>
+      <c r="BR16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY16" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
-        <f t="shared" si="1"/>
-        <v>308</v>
+        <f t="shared" si="0"/>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9953,9 +12106,63 @@
       <c r="BQ17" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="BR17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY17" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
-        <f t="shared" si="1"/>
-        <v>274</v>
+        <f t="shared" si="0"/>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10166,9 +12373,63 @@
       <c r="BQ18" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BR18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
-        <f t="shared" si="1"/>
-        <v>304</v>
+        <f t="shared" si="0"/>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10379,9 +12640,63 @@
       <c r="BQ19" s="10">
         <v>5</v>
       </c>
+      <c r="BR19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
-        <f t="shared" si="1"/>
-        <v>307</v>
+        <f t="shared" si="0"/>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10592,9 +12907,63 @@
       <c r="BQ20" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="BR20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY20" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
-        <f t="shared" si="1"/>
-        <v>302</v>
+        <f t="shared" si="0"/>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10805,9 +13174,63 @@
       <c r="BQ21" s="10">
         <v>5</v>
       </c>
+      <c r="BR21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CH21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
-        <f t="shared" si="1"/>
-        <v>320</v>
+        <f t="shared" si="0"/>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -11018,9 +13441,63 @@
       <c r="BQ22" s="13">
         <v>5</v>
       </c>
+      <c r="BR22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BV22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BW22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BX22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BY22" s="13">
+        <v>5</v>
+      </c>
+      <c r="BZ22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CB22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CC22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CD22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CE22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CF22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CG22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CH22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CI22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>335</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -11231,9 +13708,63 @@
       <c r="BQ23" s="10">
         <v>5</v>
       </c>
+      <c r="BR23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BS23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BT23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BU23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BV23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BW23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BX23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BY23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BZ23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CA23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CB23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CC23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CD23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CE23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CF23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CI23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>310</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -11551,7 +14082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -12106,4 +14637,270 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.88671875" style="1"/>
+    <col min="8" max="9" width="6.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="127">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -988,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY24"/>
+  <dimension ref="A1:DA24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CI23" sqref="CI23"/>
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL3" sqref="CL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1006,7 @@
     <col min="70" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:105" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1579,12 +1579,28 @@
       <c r="CI2" s="9">
         <v>5</v>
       </c>
+      <c r="CJ2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>285</v>
+        <v>295</v>
+      </c>
+      <c r="CZ2" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA2" s="9">
+        <f>CY2+CZ2</f>
+        <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1846,12 +1862,28 @@
       <c r="CI3" s="13">
         <v>5</v>
       </c>
+      <c r="CJ3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>382</v>
+      </c>
+      <c r="CZ3" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA3" s="13">
+        <f>CY3+CZ3</f>
+        <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2113,12 +2145,28 @@
       <c r="CI4" s="9">
         <v>5</v>
       </c>
+      <c r="CJ4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>372</v>
+      </c>
+      <c r="CZ4" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA4" s="9">
+        <f t="shared" ref="DA4:DA23" si="1">CY4+CZ4</f>
+        <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -2380,12 +2428,28 @@
       <c r="CI5" s="13">
         <v>5</v>
       </c>
+      <c r="CJ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>387</v>
+      </c>
+      <c r="CZ5" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA5" s="13">
+        <f t="shared" si="1"/>
+        <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2647,12 +2711,28 @@
       <c r="CI6" s="9">
         <v>5</v>
       </c>
+      <c r="CJ6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>420</v>
+      </c>
+      <c r="CZ6" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA6" s="9">
+        <f t="shared" si="1"/>
+        <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -2912,14 +2992,30 @@
         <v>5</v>
       </c>
       <c r="CI7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CK7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
+      <c r="CZ7" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA7" s="13">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
     </row>
-    <row r="8" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3181,12 +3277,28 @@
       <c r="CI8" s="9">
         <v>5</v>
       </c>
+      <c r="CJ8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL8" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>344</v>
+      </c>
+      <c r="CZ8" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA8" s="9">
+        <f t="shared" si="1"/>
+        <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -3194,7 +3306,7 @@
         <v>1022459</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3456,12 +3568,28 @@
       <c r="CI10" s="9">
         <v>5</v>
       </c>
+      <c r="CJ10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>408</v>
+      </c>
+      <c r="CZ10" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA10" s="9">
+        <f t="shared" si="1"/>
+        <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -3722,13 +3850,29 @@
       </c>
       <c r="CI11" s="13">
         <v>5</v>
+      </c>
+      <c r="CJ11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CK11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
+      <c r="CZ11" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA11" s="13">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
     </row>
-    <row r="12" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3990,12 +4134,28 @@
       <c r="CI12" s="9">
         <v>5</v>
       </c>
+      <c r="CJ12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL12" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>373</v>
+      </c>
+      <c r="CZ12" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA12" s="9">
+        <f t="shared" si="1"/>
+        <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -4257,12 +4417,28 @@
       <c r="CI13" s="13">
         <v>5</v>
       </c>
+      <c r="CJ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>341</v>
+      </c>
+      <c r="CZ13" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA13" s="13">
+        <f t="shared" si="1"/>
+        <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -4524,12 +4700,28 @@
       <c r="CI14" s="9">
         <v>5</v>
       </c>
+      <c r="CJ14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>364</v>
+      </c>
+      <c r="CZ14" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA14" s="9">
+        <f t="shared" si="1"/>
+        <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -4791,12 +4983,28 @@
       <c r="CI15" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CJ15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>306</v>
+      </c>
+      <c r="CZ15" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA15" s="13">
+        <f t="shared" si="1"/>
+        <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -5058,12 +5266,28 @@
       <c r="CI16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CJ16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CK16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="CZ16" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA16" s="9">
+        <f t="shared" si="1"/>
+        <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -5325,12 +5549,28 @@
       <c r="CI17" s="13">
         <v>5</v>
       </c>
+      <c r="CJ17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>395</v>
+      </c>
+      <c r="CZ17" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA17" s="13">
+        <f t="shared" si="1"/>
+        <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -5592,12 +5832,28 @@
       <c r="CI18" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CJ18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>375</v>
+      </c>
+      <c r="CZ18" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA18" s="9">
+        <f t="shared" si="1"/>
+        <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -5859,12 +6115,28 @@
       <c r="CI19" s="13">
         <v>5</v>
       </c>
+      <c r="CJ19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>405</v>
+      </c>
+      <c r="CZ19" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA19" s="13">
+        <f t="shared" si="1"/>
+        <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -6126,12 +6398,28 @@
       <c r="CI20" s="9">
         <v>5</v>
       </c>
+      <c r="CJ20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>344</v>
+      </c>
+      <c r="CZ20" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA20" s="9">
+        <f t="shared" si="1"/>
+        <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -6393,12 +6681,28 @@
       <c r="CI21" s="13">
         <v>5</v>
       </c>
+      <c r="CJ21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>430</v>
+      </c>
+      <c r="CZ21" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA21" s="13">
+        <f t="shared" si="1"/>
+        <v>495</v>
       </c>
     </row>
-    <row r="22" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -6660,12 +6964,28 @@
       <c r="CI22" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CJ22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CK22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CL22" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="CZ22" s="9">
+        <v>65</v>
+      </c>
+      <c r="DA22" s="9">
+        <f t="shared" si="1"/>
+        <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -6927,12 +7247,28 @@
       <c r="CI23" s="13">
         <v>5</v>
       </c>
+      <c r="CJ23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>375</v>
+        <v>390</v>
+      </c>
+      <c r="CZ23" s="13">
+        <v>65</v>
+      </c>
+      <c r="DA23" s="13">
+        <f t="shared" si="1"/>
+        <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>88</v>
       </c>
@@ -8075,9 +8411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ2" sqref="CJ2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CL22" sqref="CL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8662,9 +8998,18 @@
       <c r="CI2" s="10">
         <v>5</v>
       </c>
+      <c r="CJ2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f>SUM(C2:CX2)</f>
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8929,9 +9274,18 @@
       <c r="CI3" s="13">
         <v>5</v>
       </c>
+      <c r="CJ3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="0">SUM(C3:CX3)</f>
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9196,9 +9550,18 @@
       <c r="CI4" s="10">
         <v>5</v>
       </c>
+      <c r="CJ4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f>SUM(C4:CX4)</f>
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9463,9 +9826,18 @@
       <c r="CI5" s="13">
         <v>5</v>
       </c>
+      <c r="CJ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9730,9 +10102,18 @@
       <c r="CI6" s="10">
         <v>5</v>
       </c>
+      <c r="CJ6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY6" s="10">
         <f>SUM(C6:CX6)</f>
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9997,9 +10378,18 @@
       <c r="CI7" s="13">
         <v>5</v>
       </c>
+      <c r="CJ7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10264,9 +10654,18 @@
       <c r="CI8" s="10">
         <v>5</v>
       </c>
+      <c r="CJ8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f>SUM(C8:CX8)</f>
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10531,9 +10930,18 @@
       <c r="CI9" s="13">
         <v>5</v>
       </c>
+      <c r="CJ9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -10809,9 +11217,18 @@
       <c r="CI11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CJ11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -11076,9 +11493,18 @@
       <c r="CI12" s="10">
         <v>5</v>
       </c>
+      <c r="CJ12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f>SUM(C12:CX12)</f>
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -11343,9 +11769,18 @@
       <c r="CI13" s="13">
         <v>5</v>
       </c>
+      <c r="CJ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11626,9 +12061,18 @@
       <c r="CI15" s="10">
         <v>5</v>
       </c>
+      <c r="CJ15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL15" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -11893,9 +12337,18 @@
       <c r="CI16" s="13">
         <v>5</v>
       </c>
+      <c r="CJ16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -12160,9 +12613,18 @@
       <c r="CI17" s="10">
         <v>5</v>
       </c>
+      <c r="CJ17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -12427,9 +12889,18 @@
       <c r="CI18" s="13">
         <v>5</v>
       </c>
+      <c r="CJ18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -12694,9 +13165,18 @@
       <c r="CI19" s="10">
         <v>5</v>
       </c>
+      <c r="CJ19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -12961,9 +13441,18 @@
       <c r="CI20" s="13">
         <v>5</v>
       </c>
+      <c r="CJ20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -13228,9 +13717,18 @@
       <c r="CI21" s="10">
         <v>5</v>
       </c>
+      <c r="CJ21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -13495,9 +13993,18 @@
       <c r="CI22" s="13">
         <v>5</v>
       </c>
+      <c r="CJ22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CK22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -13762,9 +14269,18 @@
       <c r="CI23" s="10">
         <v>5</v>
       </c>
+      <c r="CJ23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CK23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CL23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.3">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="127">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -992,7 +992,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL3" sqref="CL3"/>
+      <selection pane="topRight" activeCell="CO23" sqref="CO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,16 +1588,25 @@
       <c r="CL2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CM2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="CZ2" s="9">
         <v>65</v>
       </c>
       <c r="DA2" s="9">
         <f>CY2+CZ2</f>
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1871,16 +1880,22 @@
       <c r="CL3" s="13">
         <v>5</v>
       </c>
+      <c r="CM3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="CZ3" s="13">
         <v>65</v>
       </c>
       <c r="DA3" s="13">
         <f>CY3+CZ3</f>
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2154,16 +2169,25 @@
       <c r="CL4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CM4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="CZ4" s="9">
         <v>65</v>
       </c>
       <c r="DA4" s="9">
         <f t="shared" ref="DA4:DA23" si="1">CY4+CZ4</f>
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2437,16 +2461,25 @@
       <c r="CL5" s="13">
         <v>5</v>
       </c>
+      <c r="CM5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="CZ5" s="13">
         <v>65</v>
       </c>
       <c r="DA5" s="13">
         <f t="shared" si="1"/>
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2720,16 +2753,25 @@
       <c r="CL6" s="9">
         <v>5</v>
       </c>
+      <c r="CM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="CZ6" s="9">
         <v>65</v>
       </c>
       <c r="DA6" s="9">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3001,6 +3043,12 @@
         <v>44</v>
       </c>
       <c r="CL7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CM7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -3286,16 +3334,25 @@
       <c r="CL8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CM8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="CZ8" s="9">
         <v>65</v>
       </c>
       <c r="DA8" s="9">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3577,16 +3634,25 @@
       <c r="CL10" s="9">
         <v>5</v>
       </c>
+      <c r="CM10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="CZ10" s="9">
         <v>65</v>
       </c>
       <c r="DA10" s="9">
         <f t="shared" si="1"/>
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3860,16 +3926,25 @@
       <c r="CL11" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CM11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="CZ11" s="13">
         <v>65</v>
       </c>
       <c r="DA11" s="13">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4143,16 +4218,22 @@
       <c r="CL12" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CM12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="CZ12" s="9">
         <v>65</v>
       </c>
       <c r="DA12" s="9">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4426,16 +4507,22 @@
       <c r="CL13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CM13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="CZ13" s="13">
         <v>65</v>
       </c>
       <c r="DA13" s="13">
         <f t="shared" si="1"/>
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4709,16 +4796,22 @@
       <c r="CL14" s="9">
         <v>5</v>
       </c>
+      <c r="CM14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="CZ14" s="9">
         <v>65</v>
       </c>
       <c r="DA14" s="9">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4992,16 +5085,25 @@
       <c r="CL15" s="13">
         <v>5</v>
       </c>
+      <c r="CM15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="CZ15" s="13">
         <v>65</v>
       </c>
       <c r="DA15" s="13">
         <f t="shared" si="1"/>
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5275,16 +5377,25 @@
       <c r="CL16" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CM16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="CZ16" s="9">
         <v>65</v>
       </c>
       <c r="DA16" s="9">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5558,16 +5669,25 @@
       <c r="CL17" s="13">
         <v>5</v>
       </c>
+      <c r="CM17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="CZ17" s="13">
         <v>65</v>
       </c>
       <c r="DA17" s="13">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5841,16 +5961,22 @@
       <c r="CL18" s="9">
         <v>5</v>
       </c>
+      <c r="CM18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="CZ18" s="9">
         <v>65</v>
       </c>
       <c r="DA18" s="9">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6124,16 +6250,22 @@
       <c r="CL19" s="13">
         <v>5</v>
       </c>
+      <c r="CM19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="CZ19" s="13">
         <v>65</v>
       </c>
       <c r="DA19" s="13">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6407,16 +6539,25 @@
       <c r="CL20" s="9">
         <v>5</v>
       </c>
+      <c r="CM20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="CZ20" s="9">
         <v>65</v>
       </c>
       <c r="DA20" s="9">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6690,16 +6831,25 @@
       <c r="CL21" s="13">
         <v>5</v>
       </c>
+      <c r="CM21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="CZ21" s="13">
         <v>65</v>
       </c>
       <c r="DA21" s="13">
         <f t="shared" si="1"/>
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6973,16 +7123,25 @@
       <c r="CL22" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="CM22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CN22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CO22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="CZ22" s="9">
         <v>65</v>
       </c>
       <c r="DA22" s="9">
         <f t="shared" si="1"/>
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7256,16 +7415,25 @@
       <c r="CL23" s="13">
         <v>5</v>
       </c>
+      <c r="CM23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="CZ23" s="13">
         <v>65</v>
       </c>
       <c r="DA23" s="13">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:105" x14ac:dyDescent="0.3">
@@ -8413,7 +8581,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL22" sqref="CL22"/>
+      <selection pane="topRight" activeCell="CO23" sqref="CO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9007,9 +9175,18 @@
       <c r="CL2" s="10">
         <v>5</v>
       </c>
+      <c r="CM2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f>SUM(C2:CX2)</f>
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9283,9 +9460,18 @@
       <c r="CL3" s="13">
         <v>5</v>
       </c>
+      <c r="CM3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="0">SUM(C3:CX3)</f>
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9559,9 +9745,18 @@
       <c r="CL4" s="10">
         <v>5</v>
       </c>
+      <c r="CM4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f>SUM(C4:CX4)</f>
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9835,9 +10030,18 @@
       <c r="CL5" s="13">
         <v>5</v>
       </c>
+      <c r="CM5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10111,9 +10315,18 @@
       <c r="CL6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="CM6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f>SUM(C6:CX6)</f>
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10387,9 +10600,18 @@
       <c r="CL7" s="13">
         <v>5</v>
       </c>
+      <c r="CM7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10663,9 +10885,18 @@
       <c r="CL8" s="10">
         <v>5</v>
       </c>
+      <c r="CM8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f>SUM(C8:CX8)</f>
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10939,9 +11170,15 @@
       <c r="CL9" s="13">
         <v>5</v>
       </c>
+      <c r="CM9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -11226,9 +11463,18 @@
       <c r="CL11" s="13">
         <v>5</v>
       </c>
+      <c r="CM11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -11502,9 +11748,18 @@
       <c r="CL12" s="10">
         <v>5</v>
       </c>
+      <c r="CM12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO12" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY12" s="10">
         <f>SUM(C12:CX12)</f>
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -11778,9 +12033,18 @@
       <c r="CL13" s="13">
         <v>5</v>
       </c>
+      <c r="CM13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12070,9 +12334,18 @@
       <c r="CL15" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="CM15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -12346,9 +12619,18 @@
       <c r="CL16" s="13">
         <v>5</v>
       </c>
+      <c r="CM16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO16" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -12622,9 +12904,18 @@
       <c r="CL17" s="10">
         <v>5</v>
       </c>
+      <c r="CM17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO17" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -12898,9 +13189,18 @@
       <c r="CL18" s="13">
         <v>5</v>
       </c>
+      <c r="CM18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -13174,9 +13474,18 @@
       <c r="CL19" s="10">
         <v>5</v>
       </c>
+      <c r="CM19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -13450,9 +13759,18 @@
       <c r="CL20" s="13">
         <v>5</v>
       </c>
+      <c r="CM20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO20" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -13726,9 +14044,18 @@
       <c r="CL21" s="10">
         <v>5</v>
       </c>
+      <c r="CM21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -14002,9 +14329,18 @@
       <c r="CL22" s="13">
         <v>5</v>
       </c>
+      <c r="CM22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CN22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CO22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -14278,9 +14614,18 @@
       <c r="CL23" s="10">
         <v>5</v>
       </c>
+      <c r="CM23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CN23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CO23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.3">

--- a/planejamento/notebooks.xlsx
+++ b/planejamento/notebooks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="127">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -990,9 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CO23" sqref="CO23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS23" sqref="CS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,16 +1597,31 @@
       <c r="CO2" s="9">
         <v>5</v>
       </c>
+      <c r="CP2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS2" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT2" s="9">
+        <v>5</v>
+      </c>
       <c r="CY2" s="9">
         <f t="shared" ref="CY2:CY21" si="0">SUM(C2:CX2)</f>
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="CZ2" s="9">
         <v>65</v>
       </c>
       <c r="DA2" s="9">
         <f>CY2+CZ2</f>
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1886,16 +1901,28 @@
       <c r="CN3" s="13">
         <v>5</v>
       </c>
+      <c r="CQ3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="1">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="CZ3" s="13">
         <v>65</v>
       </c>
       <c r="DA3" s="13">
         <f>CY3+CZ3</f>
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2178,16 +2205,31 @@
       <c r="CO4" s="9">
         <v>5</v>
       </c>
+      <c r="CP4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT4" s="9">
+        <v>5</v>
+      </c>
       <c r="CY4" s="9">
         <f t="shared" si="0"/>
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="CZ4" s="9">
         <v>65</v>
       </c>
       <c r="DA4" s="9">
         <f t="shared" ref="DA4:DA23" si="1">CY4+CZ4</f>
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2470,16 +2512,31 @@
       <c r="CO5" s="13">
         <v>5</v>
       </c>
+      <c r="CP5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="1">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="CZ5" s="13">
         <v>65</v>
       </c>
       <c r="DA5" s="13">
         <f t="shared" si="1"/>
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2762,16 +2819,31 @@
       <c r="CO6" s="9">
         <v>5</v>
       </c>
+      <c r="CP6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT6" s="9">
+        <v>5</v>
+      </c>
       <c r="CY6" s="9">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="CZ6" s="9">
         <v>65</v>
       </c>
       <c r="DA6" s="9">
         <f t="shared" si="1"/>
-        <v>495</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3049,6 +3121,21 @@
         <v>44</v>
       </c>
       <c r="CN7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CS7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CT7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="CY7" s="1">
@@ -3343,16 +3430,31 @@
       <c r="CO8" s="9">
         <v>5</v>
       </c>
+      <c r="CP8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT8" s="9">
+        <v>5</v>
+      </c>
       <c r="CY8" s="9">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="CZ8" s="9">
         <v>65</v>
       </c>
       <c r="DA8" s="9">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3643,16 +3745,31 @@
       <c r="CO10" s="9">
         <v>5</v>
       </c>
+      <c r="CP10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT10" s="9">
+        <v>5</v>
+      </c>
       <c r="CY10" s="9">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="CZ10" s="9">
         <v>65</v>
       </c>
       <c r="DA10" s="9">
         <f t="shared" si="1"/>
-        <v>488</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3935,16 +4052,31 @@
       <c r="CO11" s="13">
         <v>5</v>
       </c>
+      <c r="CP11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT11" s="13">
+        <v>5</v>
+      </c>
       <c r="CY11" s="1">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="CZ11" s="13">
         <v>65</v>
       </c>
       <c r="DA11" s="13">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4224,16 +4356,34 @@
       <c r="CN12" s="9">
         <v>5</v>
       </c>
+      <c r="CO12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT12" s="9">
+        <v>5</v>
+      </c>
       <c r="CY12" s="9">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="CZ12" s="9">
         <v>65</v>
       </c>
       <c r="DA12" s="9">
         <f t="shared" si="1"/>
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4513,16 +4663,34 @@
       <c r="CN13" s="13">
         <v>5</v>
       </c>
+      <c r="CO13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CP13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT13" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY13" s="1">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="CZ13" s="13">
         <v>65</v>
       </c>
       <c r="DA13" s="13">
         <f t="shared" si="1"/>
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4802,16 +4970,34 @@
       <c r="CN14" s="9">
         <v>5</v>
       </c>
+      <c r="CO14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CP14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT14" s="9">
+        <v>5</v>
+      </c>
       <c r="CY14" s="9">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="CZ14" s="9">
         <v>65</v>
       </c>
       <c r="DA14" s="9">
         <f t="shared" si="1"/>
-        <v>439</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5094,16 +5280,31 @@
       <c r="CO15" s="13">
         <v>5</v>
       </c>
+      <c r="CP15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS15" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT15" s="13">
+        <v>5</v>
+      </c>
       <c r="CY15" s="1">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="CZ15" s="13">
         <v>65</v>
       </c>
       <c r="DA15" s="13">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5386,16 +5587,31 @@
       <c r="CO16" s="9">
         <v>5</v>
       </c>
+      <c r="CP16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT16" s="9">
+        <v>5</v>
+      </c>
       <c r="CY16" s="9">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="CZ16" s="9">
         <v>65</v>
       </c>
       <c r="DA16" s="9">
         <f t="shared" si="1"/>
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5678,16 +5894,31 @@
       <c r="CO17" s="13">
         <v>5</v>
       </c>
+      <c r="CP17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS17" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT17" s="13">
+        <v>5</v>
+      </c>
       <c r="CY17" s="1">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="CZ17" s="13">
         <v>65</v>
       </c>
       <c r="DA17" s="13">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5967,16 +6198,34 @@
       <c r="CN18" s="9">
         <v>5</v>
       </c>
+      <c r="CO18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS18" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT18" s="9">
+        <v>5</v>
+      </c>
       <c r="CY18" s="9">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="CZ18" s="9">
         <v>65</v>
       </c>
       <c r="DA18" s="9">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6256,16 +6505,34 @@
       <c r="CN19" s="13">
         <v>5</v>
       </c>
+      <c r="CO19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CP19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS19" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT19" s="13">
+        <v>5</v>
+      </c>
       <c r="CY19" s="1">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="CZ19" s="13">
         <v>65</v>
       </c>
       <c r="DA19" s="13">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6548,16 +6815,31 @@
       <c r="CO20" s="9">
         <v>5</v>
       </c>
+      <c r="CP20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS20" s="9">
+        <v>5</v>
+      </c>
+      <c r="CT20" s="9">
+        <v>5</v>
+      </c>
       <c r="CY20" s="9">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="CZ20" s="9">
         <v>65</v>
       </c>
       <c r="DA20" s="9">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6840,16 +7122,31 @@
       <c r="CO21" s="13">
         <v>5</v>
       </c>
+      <c r="CP21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS21" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT21" s="13">
+        <v>5</v>
+      </c>
       <c r="CY21" s="1">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="CZ21" s="13">
         <v>65</v>
       </c>
       <c r="DA21" s="13">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:105" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7132,16 +7429,31 @@
       <c r="CO22" s="9">
         <v>5</v>
       </c>
+      <c r="CP22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CR22" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CT22" s="9">
+        <v>5</v>
+      </c>
       <c r="CY22" s="9">
         <f>SUM(C22:CX22)</f>
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="CZ22" s="9">
         <v>65</v>
       </c>
       <c r="DA22" s="9">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:105" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7424,16 +7736,31 @@
       <c r="CO23" s="13">
         <v>5</v>
       </c>
+      <c r="CP23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR23" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CT23" s="13">
+        <v>5</v>
+      </c>
       <c r="CY23" s="1">
         <f>SUM(C23:CX23)</f>
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="CZ23" s="13">
         <v>65</v>
       </c>
       <c r="DA23" s="13">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:105" x14ac:dyDescent="0.3">
@@ -8579,9 +8906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CO23" sqref="CO23"/>
+    <sheetView showGridLines="0" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CT11" sqref="CT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9184,9 +9511,24 @@
       <c r="CO2" s="10">
         <v>5</v>
       </c>
+      <c r="CP2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS2" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT2" s="10">
+        <v>5</v>
+      </c>
       <c r="CY2" s="10">
         <f>SUM(C2:CX2)</f>
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -9469,9 +9811,24 @@
       <c r="CO3" s="13">
         <v>5</v>
       </c>
+      <c r="CP3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS3" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT3" s="13">
+        <v>5</v>
+      </c>
       <c r="CY3" s="13">
         <f t="shared" ref="CY3:CY21" si="0">SUM(C3:CX3)</f>
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9754,9 +10111,24 @@
       <c r="CO4" s="10">
         <v>5</v>
       </c>
+      <c r="CP4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS4" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT4" s="10">
+        <v>5</v>
+      </c>
       <c r="CY4" s="10">
         <f>SUM(C4:CX4)</f>
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10039,9 +10411,24 @@
       <c r="CO5" s="13">
         <v>5</v>
       </c>
+      <c r="CP5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS5" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT5" s="13">
+        <v>5</v>
+      </c>
       <c r="CY5" s="13">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10324,9 +10711,24 @@
       <c r="CO6" s="10">
         <v>5</v>
       </c>
+      <c r="CP6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="CS6" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT6" s="10">
+        <v>5</v>
+      </c>
       <c r="CY6" s="10">
         <f>SUM(C6:CX6)</f>
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -10609,9 +11011,24 @@
       <c r="CO7" s="13">
         <v>5</v>
       </c>
+      <c r="CP7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS7" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT7" s="13">
+        <v>5</v>
+      </c>
       <c r="CY7" s="13">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10894,9 +11311,24 @@
       <c r="CO8" s="10">
         <v>5</v>
       </c>
+      <c r="CP8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS8" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT8" s="10">
+        <v>5</v>
+      </c>
       <c r="CY8" s="10">
         <f>SUM(C8:CX8)</f>
-        <v>429</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -11176,9 +11608,27 @@
       <c r="CN9" s="13">
         <v>5</v>
       </c>
+      <c r="CO9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT9" s="13">
+        <v>5</v>
+      </c>
       <c r="CY9" s="13">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:103" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -11472,9 +11922,24 @@
       <c r="CO11" s="13">
         <v>5</v>
       </c>
+      <c r="CP11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS11" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="CY11" s="13">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -11757,9 +12222,24 @@
       <c r="CO12" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="CP12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS12" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT12" s="10">
+        <v>5</v>
+      </c>
       <c r="CY12" s="10">
         <f>SUM(C12:CX12)</f>
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -12042,9 +12522,24 @@
       <c r="CO13" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CP13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS13" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT13" s="13">
+        <v>5</v>
+      </c>
       <c r="CY13" s="13">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12343,9 +12838,24 @@
       <c r="CO15" s="10">
         <v>5</v>
       </c>
+      <c r="CP15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS15" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT15" s="10">
+        <v>5</v>
+      </c>
       <c r="CY15" s="10">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -12628,9 +13138,24 @@
       <c r="CO16" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CP16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS16" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT16" s="13">
+        <v>5</v>
+      </c>
       <c r="CY16" s="13">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -12913,9 +13438,24 @@
       <c r="CO17" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="CP17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS17" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT17" s="10">
+        <v>5</v>
+      </c>
       <c r="CY17" s="10">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -13198,9 +13738,24 @@
       <c r="CO18" s="13">
         <v>5</v>
       </c>
+      <c r="CP18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS18" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT18" s="13">
+        <v>5</v>
+      </c>
       <c r="CY18" s="13">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -13483,9 +14038,24 @@
       <c r="CO19" s="10">
         <v>5</v>
       </c>
+      <c r="CP19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS19" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT19" s="10">
+        <v>5</v>
+      </c>
       <c r="CY19" s="10">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -13768,9 +14338,24 @@
       <c r="CO20" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="CP20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS20" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT20" s="13">
+        <v>5</v>
+      </c>
       <c r="CY20" s="13">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -14053,9 +14638,24 @@
       <c r="CO21" s="10">
         <v>5</v>
       </c>
+      <c r="CP21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS21" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT21" s="10">
+        <v>5</v>
+      </c>
       <c r="CY21" s="10">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:103" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -14338,9 +14938,24 @@
       <c r="CO22" s="13">
         <v>5</v>
       </c>
+      <c r="CP22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CR22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CS22" s="13">
+        <v>5</v>
+      </c>
+      <c r="CT22" s="13">
+        <v>5</v>
+      </c>
       <c r="CY22" s="13">
         <f>SUM(C22:CX22)</f>
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -14623,9 +15238,24 @@
       <c r="CO23" s="10">
         <v>5</v>
       </c>
+      <c r="CP23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CQ23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CR23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CS23" s="10">
+        <v>5</v>
+      </c>
+      <c r="CT23" s="10">
+        <v>5</v>
+      </c>
       <c r="CY23" s="10">
         <f>SUM(C23:CX23)</f>
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:103" s="32" customFormat="1" x14ac:dyDescent="0.3">
